--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="644">
   <si>
     <t>Purpose</t>
   </si>
@@ -1955,6 +1955,18 @@
   </si>
   <si>
     <t>Flashlight has Battery</t>
+  </si>
+  <si>
+    <t>1 = Old battery</t>
+  </si>
+  <si>
+    <t>2 = Good Battery</t>
+  </si>
+  <si>
+    <t>Door: Kitchen</t>
+  </si>
+  <si>
+    <t>Window Break</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2298,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21463,8 +21475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22431,7 +22443,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>136</v>
       </c>
@@ -22442,7 +22454,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>126</v>
       </c>
@@ -22450,12 +22462,21 @@
         <v>638</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>31</v>
       </c>
       <c r="C83" t="s">
         <v>639</v>
+      </c>
+      <c r="E83" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -22466,10 +22487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22597,6 +22618,14 @@
         <v>585</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22606,8 +22635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25107,7 +25136,7 @@
         <v>35</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>642</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="645">
   <si>
     <t>Purpose</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Memoir: Writing</t>
   </si>
   <si>
-    <t>Casette: Play, Break Windows/Free Key</t>
-  </si>
-  <si>
     <t>Telescope: Rotate</t>
   </si>
   <si>
@@ -1967,6 +1964,12 @@
   </si>
   <si>
     <t>Window Break</t>
+  </si>
+  <si>
+    <t>Cassette: Play, Break Windows/Free Key</t>
+  </si>
+  <si>
+    <t>script-154</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2350,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2417,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2457,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2465,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2489,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2505,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +2513,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2540,10 +2543,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" t="s">
         <v>531</v>
-      </c>
-      <c r="D1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2565,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2579,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2593,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2607,13 +2610,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2635,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2649,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2663,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2677,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2691,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2705,7 +2708,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2719,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2733,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2747,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2761,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2775,7 +2778,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2789,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2803,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2817,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2845,7 +2848,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2859,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2873,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2887,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2901,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2915,7 +2918,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2929,7 +2932,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -2943,7 +2946,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2957,7 +2960,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -2971,7 +2974,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -2985,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2999,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3013,7 +3016,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3027,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3041,7 +3044,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3055,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3069,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3083,7 +3086,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3105,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3119,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3133,7 +3136,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3147,7 +3150,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3161,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3175,7 +3178,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3189,7 +3192,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3200,7 +3203,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3214,7 +3217,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3228,7 +3231,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3242,7 +3245,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3256,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3275,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3309,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,7 +3353,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3361,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,7 +3375,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,7 +3441,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3474,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3485,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3493,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,7 +3507,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,7 +3518,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3540,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,7 +3551,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,7 +3573,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,7 +3584,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,7 +3595,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,7 +3606,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,7 +3681,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3689,7 +3692,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E35" t="s">
         <v>91</v>
@@ -3703,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,7 +3811,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,7 +3822,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,7 +3833,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,7 +3844,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3852,7 +3855,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3863,7 +3866,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3871,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3882,7 +3885,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3893,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3915,7 +3918,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3927,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20318,10 +20321,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20332,10 +20335,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20346,10 +20349,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" t="s">
         <v>226</v>
-      </c>
-      <c r="F59" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20360,7 +20363,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20371,7 +20374,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20382,7 +20385,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20393,7 +20396,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20404,7 +20407,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20415,7 +20418,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20426,7 +20429,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20445,7 +20448,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20456,7 +20459,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20464,10 +20467,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20478,7 +20481,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20486,7 +20489,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20497,7 +20500,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20508,7 +20511,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20519,7 +20522,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20530,7 +20533,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20541,7 +20544,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20552,7 +20555,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20563,7 +20566,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20574,7 +20577,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20585,7 +20588,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20596,10 +20599,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" t="s">
         <v>268</v>
-      </c>
-      <c r="F82" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20610,10 +20613,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>416</v>
+      </c>
+      <c r="F83" t="s">
         <v>417</v>
-      </c>
-      <c r="F83" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20624,7 +20627,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20635,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20646,7 +20649,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20657,7 +20660,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20668,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20693,7 +20696,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -20704,7 +20707,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -20729,7 +20732,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -20740,7 +20743,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -20751,7 +20754,7 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -20762,7 +20765,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -20773,7 +20776,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -20784,7 +20787,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -20795,7 +20798,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -20806,10 +20809,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -20820,7 +20823,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -20831,7 +20834,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -20842,7 +20845,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -20853,7 +20856,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -20864,7 +20867,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -20875,7 +20878,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -20886,7 +20889,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -20908,7 +20911,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -20919,7 +20922,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -20930,7 +20933,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -20941,10 +20944,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" t="s">
         <v>311</v>
-      </c>
-      <c r="F112" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -20955,10 +20958,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -20969,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E114" t="s">
         <v>92</v>
@@ -20983,7 +20986,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -20994,7 +20997,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21005,7 +21008,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21016,7 +21019,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21027,7 +21030,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21038,7 +21041,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21049,7 +21052,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21060,7 +21063,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21071,7 +21074,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21082,7 +21085,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21107,7 +21110,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21118,7 +21121,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21129,7 +21132,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21154,7 +21157,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21165,7 +21168,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21176,10 +21179,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>635</v>
+      </c>
+      <c r="F132" t="s">
         <v>636</v>
-      </c>
-      <c r="F132" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21190,7 +21193,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21212,7 +21215,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21223,7 +21226,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21234,7 +21237,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21245,7 +21248,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21256,7 +21259,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21267,10 +21270,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F140" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21281,7 +21284,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21306,7 +21309,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21314,7 +21317,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21339,7 +21342,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E146" t="s">
         <v>81</v>
@@ -21367,7 +21370,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21378,10 +21381,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>344</v>
+      </c>
+      <c r="E149" t="s">
         <v>345</v>
-      </c>
-      <c r="E149" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21392,7 +21395,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21403,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21414,7 +21417,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21425,7 +21428,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21436,7 +21439,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21447,10 +21450,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" t="s">
         <v>351</v>
-      </c>
-      <c r="E155" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21473,10 +21476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21528,7 +21531,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21631,7 +21634,7 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -21676,13 +21679,13 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -21712,7 +21715,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -21820,7 +21823,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -21828,7 +21831,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -21836,7 +21839,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -21844,7 +21847,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -21852,7 +21855,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -21860,7 +21863,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -21868,7 +21871,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -21876,7 +21879,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -21884,7 +21887,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -21892,7 +21895,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -21900,7 +21903,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -21908,7 +21911,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -21916,22 +21919,22 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
         <v>183</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>184</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>185</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>186</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>187</v>
-      </c>
-      <c r="I40" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -21939,7 +21942,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -21947,7 +21950,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -21955,7 +21958,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -21963,7 +21966,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22036,7 +22039,7 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -22044,7 +22047,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -22052,7 +22055,7 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -22060,7 +22063,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -22068,22 +22071,22 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" t="s">
         <v>215</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>216</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>302</v>
+      </c>
+      <c r="I53" t="s">
         <v>217</v>
-      </c>
-      <c r="H53" t="s">
-        <v>303</v>
-      </c>
-      <c r="I53" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22091,13 +22094,13 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
         <v>221</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>222</v>
-      </c>
-      <c r="F54" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22105,13 +22108,13 @@
         <v>96</v>
       </c>
       <c r="C55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" t="s">
         <v>228</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>229</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22119,19 +22122,19 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
         <v>241</v>
       </c>
-      <c r="F56" t="s">
-        <v>436</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>242</v>
-      </c>
-      <c r="H56" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22139,7 +22142,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -22147,16 +22150,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F58" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
         <v>254</v>
-      </c>
-      <c r="G58" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22164,19 +22167,19 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" t="s">
         <v>254</v>
       </c>
-      <c r="G59" t="s">
-        <v>255</v>
-      </c>
       <c r="H59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -22184,16 +22187,16 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" t="s">
         <v>254</v>
-      </c>
-      <c r="G60" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22201,13 +22204,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" t="s">
         <v>229</v>
-      </c>
-      <c r="F61" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22215,10 +22218,10 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22226,16 +22229,16 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" t="s">
         <v>263</v>
       </c>
-      <c r="E63" t="s">
-        <v>241</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>264</v>
-      </c>
-      <c r="G63" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22243,13 +22246,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -22257,22 +22260,22 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s">
         <v>292</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G65" t="s">
         <v>293</v>
       </c>
-      <c r="F65" t="s">
-        <v>298</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>294</v>
       </c>
-      <c r="H65" t="s">
-        <v>295</v>
-      </c>
       <c r="I65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -22280,19 +22283,19 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" t="s">
         <v>304</v>
       </c>
-      <c r="G66" t="s">
-        <v>305</v>
-      </c>
       <c r="H66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22300,13 +22303,13 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67" t="s">
         <v>316</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>317</v>
-      </c>
-      <c r="F67" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -22314,13 +22317,13 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
+        <v>632</v>
+      </c>
+      <c r="F68" t="s">
         <v>633</v>
       </c>
-      <c r="F68" t="s">
-        <v>634</v>
-      </c>
       <c r="G68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -22333,7 +22336,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -22341,19 +22344,19 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E71" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" t="s">
         <v>326</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>327</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>328</v>
-      </c>
-      <c r="H71" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -22371,10 +22374,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" t="s">
         <v>334</v>
-      </c>
-      <c r="E74" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -22382,10 +22385,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s">
         <v>353</v>
-      </c>
-      <c r="E75" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -22393,13 +22396,13 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" t="s">
         <v>229</v>
-      </c>
-      <c r="F76" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -22407,13 +22410,13 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" t="s">
         <v>420</v>
-      </c>
-      <c r="E77" t="s">
-        <v>229</v>
-      </c>
-      <c r="F77" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -22421,10 +22424,10 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -22432,7 +22435,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -22440,7 +22443,7 @@
         <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -22448,10 +22451,10 @@
         <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -22459,7 +22462,7 @@
         <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -22467,16 +22470,24 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
+        <v>638</v>
+      </c>
+      <c r="E83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" t="s">
         <v>639</v>
       </c>
-      <c r="E83" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>640</v>
       </c>
-      <c r="G83" t="s">
-        <v>641</v>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -22503,7 +22514,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22511,7 +22522,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22519,7 +22530,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22527,7 +22538,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22543,7 +22554,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22551,7 +22562,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22559,7 +22570,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22567,7 +22578,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22575,7 +22586,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22583,7 +22594,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22591,7 +22602,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22599,7 +22610,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22607,7 +22618,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22615,7 +22626,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22623,7 +22634,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -22636,7 +22647,7 @@
   <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22657,10 +22668,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -22823,7 +22834,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23249,10 +23260,10 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23260,7 +23271,7 @@
         <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -23268,7 +23279,7 @@
         <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -23276,7 +23287,7 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -23287,7 +23298,7 @@
         <v>446</v>
       </c>
       <c r="C59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -23309,7 +23320,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -23320,7 +23331,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -23331,7 +23342,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -23342,7 +23353,7 @@
         <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -23353,7 +23364,7 @@
         <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -23364,7 +23375,7 @@
         <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -23375,7 +23386,7 @@
         <v>341</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -23386,7 +23397,7 @@
         <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -23397,7 +23408,7 @@
         <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -23408,7 +23419,7 @@
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -23419,7 +23430,7 @@
         <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -23430,7 +23441,7 @@
         <v>325</v>
       </c>
       <c r="C72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -23452,7 +23463,7 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -23463,7 +23474,7 @@
         <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -23474,7 +23485,7 @@
         <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -23485,7 +23496,7 @@
         <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -23496,7 +23507,7 @@
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -23518,7 +23529,7 @@
         <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -23529,7 +23540,7 @@
         <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -23540,7 +23551,7 @@
         <v>275</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -23551,7 +23562,7 @@
         <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -23562,7 +23573,7 @@
         <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -23573,7 +23584,7 @@
         <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -23584,7 +23595,7 @@
         <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -23628,7 +23639,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -23639,7 +23650,7 @@
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -23650,7 +23661,7 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -23672,7 +23683,7 @@
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -23705,7 +23716,7 @@
         <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -23716,7 +23727,7 @@
         <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -23727,7 +23738,7 @@
         <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -23738,7 +23749,7 @@
         <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -23749,7 +23760,7 @@
         <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -23760,13 +23771,13 @@
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G102" t="s">
         <v>55</v>
       </c>
       <c r="H102" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -23788,7 +23799,7 @@
         <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -23854,7 +23865,7 @@
         <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -23865,7 +23876,7 @@
         <v>348</v>
       </c>
       <c r="C111" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -23876,7 +23887,7 @@
         <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -23887,7 +23898,7 @@
         <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -23898,7 +23909,7 @@
         <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -23909,7 +23920,7 @@
         <v>414</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -23920,7 +23931,7 @@
         <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -23931,7 +23942,7 @@
         <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -23942,7 +23953,7 @@
         <v>293</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -23953,7 +23964,7 @@
         <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -23986,7 +23997,7 @@
         <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -23997,7 +24008,7 @@
         <v>280</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -24019,7 +24030,7 @@
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24030,7 +24041,7 @@
         <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24041,7 +24052,7 @@
         <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24052,7 +24063,7 @@
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -24063,7 +24074,7 @@
         <v>55</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -24074,7 +24085,7 @@
         <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -24085,7 +24096,7 @@
         <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -24096,7 +24107,7 @@
         <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -24107,7 +24118,7 @@
         <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -24118,7 +24129,7 @@
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -24129,7 +24140,7 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -24140,7 +24151,7 @@
         <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -24162,7 +24173,7 @@
         <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -24173,7 +24184,7 @@
         <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -24195,7 +24206,7 @@
         <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -24206,7 +24217,7 @@
         <v>81</v>
       </c>
       <c r="C142" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -24217,7 +24228,7 @@
         <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -24228,7 +24239,7 @@
         <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -24239,7 +24250,7 @@
         <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -24250,7 +24261,7 @@
         <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -24261,7 +24272,7 @@
         <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -24272,7 +24283,7 @@
         <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -24283,7 +24294,7 @@
         <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -24294,7 +24305,7 @@
         <v>239</v>
       </c>
       <c r="C150" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -24305,7 +24316,7 @@
         <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -24316,7 +24327,7 @@
         <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -24327,7 +24338,7 @@
         <v>88</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -24338,7 +24349,7 @@
         <v>89</v>
       </c>
       <c r="C154" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -24349,7 +24360,7 @@
         <v>90</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -24360,7 +24371,7 @@
         <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -24371,7 +24382,7 @@
         <v>233</v>
       </c>
       <c r="C157" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -24393,7 +24404,7 @@
         <v>110</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -24404,7 +24415,7 @@
         <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24415,7 +24426,7 @@
         <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24426,7 +24437,7 @@
         <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24437,7 +24448,7 @@
         <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24448,7 +24459,7 @@
         <v>115</v>
       </c>
       <c r="C164" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24459,7 +24470,7 @@
         <v>116</v>
       </c>
       <c r="C165" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24470,7 +24481,7 @@
         <v>117</v>
       </c>
       <c r="C166" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24481,7 +24492,7 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24492,7 +24503,7 @@
         <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24514,7 +24525,7 @@
         <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -24525,7 +24536,7 @@
         <v>268</v>
       </c>
       <c r="C171" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -24536,7 +24547,7 @@
         <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -24547,7 +24558,7 @@
         <v>101</v>
       </c>
       <c r="C173" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -24558,7 +24569,7 @@
         <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -24569,7 +24580,7 @@
         <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -24580,7 +24591,7 @@
         <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -24591,7 +24602,7 @@
         <v>330</v>
       </c>
       <c r="C177" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -24602,7 +24613,7 @@
         <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -24613,7 +24624,7 @@
         <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -24624,7 +24635,7 @@
         <v>335</v>
       </c>
       <c r="C180" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -24657,10 +24668,10 @@
         <v>103</v>
       </c>
       <c r="C183" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D183" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -24671,7 +24682,7 @@
         <v>156</v>
       </c>
       <c r="C184" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -24682,7 +24693,7 @@
         <v>235</v>
       </c>
       <c r="C185" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -24693,7 +24704,7 @@
         <v>315</v>
       </c>
       <c r="C186" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -24704,7 +24715,7 @@
         <v>316</v>
       </c>
       <c r="C187" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -24715,7 +24726,7 @@
         <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -24726,7 +24737,7 @@
         <v>318</v>
       </c>
       <c r="C189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -24737,7 +24748,7 @@
         <v>320</v>
       </c>
       <c r="C190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -24759,7 +24770,7 @@
         <v>154</v>
       </c>
       <c r="C192" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -24770,7 +24781,7 @@
         <v>357</v>
       </c>
       <c r="C193" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -24781,7 +24792,7 @@
         <v>159</v>
       </c>
       <c r="C194" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -24792,10 +24803,10 @@
         <v>158</v>
       </c>
       <c r="C195" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D195" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -24806,7 +24817,7 @@
         <v>231</v>
       </c>
       <c r="C196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -24817,7 +24828,7 @@
         <v>358</v>
       </c>
       <c r="C197" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -24828,7 +24839,7 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -24839,7 +24850,7 @@
         <v>359</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -24850,7 +24861,7 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -24861,7 +24872,7 @@
         <v>356</v>
       </c>
       <c r="C201" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -24872,7 +24883,7 @@
         <v>184</v>
       </c>
       <c r="C202" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -24883,7 +24894,7 @@
         <v>185</v>
       </c>
       <c r="C203" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -24894,7 +24905,7 @@
         <v>186</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -24905,7 +24916,7 @@
         <v>187</v>
       </c>
       <c r="C205" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -24916,7 +24927,7 @@
         <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -24927,7 +24938,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -24938,7 +24949,7 @@
         <v>300</v>
       </c>
       <c r="C208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -24949,7 +24960,7 @@
         <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -24960,7 +24971,7 @@
         <v>310</v>
       </c>
       <c r="C210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -24982,7 +24993,7 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -24993,7 +25004,7 @@
         <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -25004,7 +25015,7 @@
         <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -25015,7 +25026,7 @@
         <v>294</v>
       </c>
       <c r="C215" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -25026,7 +25037,7 @@
         <v>295</v>
       </c>
       <c r="C216" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -25037,7 +25048,7 @@
         <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -25048,7 +25059,7 @@
         <v>297</v>
       </c>
       <c r="C218" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -25070,7 +25081,7 @@
         <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -25081,7 +25092,7 @@
         <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -25092,7 +25103,7 @@
         <v>302</v>
       </c>
       <c r="C222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -25103,7 +25114,7 @@
         <v>437</v>
       </c>
       <c r="C223" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -25114,7 +25125,7 @@
         <v>438</v>
       </c>
       <c r="C224" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25136,7 +25147,7 @@
         <v>35</v>
       </c>
       <c r="C226" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25147,7 +25158,7 @@
         <v>36</v>
       </c>
       <c r="C227" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25169,7 +25180,7 @@
         <v>209</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25180,7 +25191,7 @@
         <v>269</v>
       </c>
       <c r="C230" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25191,7 +25202,7 @@
         <v>270</v>
       </c>
       <c r="C231" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25202,7 +25213,7 @@
         <v>271</v>
       </c>
       <c r="C232" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25224,7 +25235,7 @@
         <v>342</v>
       </c>
       <c r="C234" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25235,7 +25246,7 @@
         <v>344</v>
       </c>
       <c r="C235" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25246,7 +25257,7 @@
         <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25257,7 +25268,7 @@
         <v>274</v>
       </c>
       <c r="C237" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25268,7 +25279,7 @@
         <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25279,7 +25290,7 @@
         <v>131</v>
       </c>
       <c r="C239" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25290,7 +25301,7 @@
         <v>235</v>
       </c>
       <c r="C240" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -25301,7 +25312,7 @@
         <v>192</v>
       </c>
       <c r="C241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -25312,7 +25323,7 @@
         <v>439</v>
       </c>
       <c r="C242" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -25323,7 +25334,7 @@
         <v>194</v>
       </c>
       <c r="C243" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -25334,7 +25345,7 @@
         <v>393</v>
       </c>
       <c r="C244" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -25345,7 +25356,7 @@
         <v>394</v>
       </c>
       <c r="C245" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -25356,7 +25367,7 @@
         <v>396</v>
       </c>
       <c r="C246" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -25367,7 +25378,7 @@
         <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -25378,7 +25389,7 @@
         <v>238</v>
       </c>
       <c r="C248" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -25400,10 +25411,10 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D250" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -25414,10 +25425,10 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D251" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -25428,10 +25439,10 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D252" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -25442,10 +25453,10 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D253" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -25456,10 +25467,10 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D254" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -25470,7 +25481,7 @@
         <v>73</v>
       </c>
       <c r="C255" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -25503,7 +25514,7 @@
         <v>253</v>
       </c>
       <c r="C258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25514,7 +25525,7 @@
         <v>137</v>
       </c>
       <c r="C259" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25525,7 +25536,7 @@
         <v>418</v>
       </c>
       <c r="C260" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -25536,7 +25547,7 @@
         <v>419</v>
       </c>
       <c r="C261" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -25547,7 +25558,7 @@
         <v>420</v>
       </c>
       <c r="C262" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -25558,7 +25569,7 @@
         <v>421</v>
       </c>
       <c r="C263" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -25569,7 +25580,7 @@
         <v>417</v>
       </c>
       <c r="C264" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -25580,7 +25591,7 @@
         <v>145</v>
       </c>
       <c r="C265" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -25591,7 +25602,7 @@
         <v>349</v>
       </c>
       <c r="C266" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -25602,7 +25613,7 @@
         <v>351</v>
       </c>
       <c r="C267" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -25613,7 +25624,7 @@
         <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -25624,7 +25635,7 @@
         <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -25635,7 +25646,7 @@
         <v>408</v>
       </c>
       <c r="C270" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -25646,7 +25657,7 @@
         <v>143</v>
       </c>
       <c r="C271" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -25679,7 +25690,7 @@
         <v>252</v>
       </c>
       <c r="C274" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -25690,7 +25701,7 @@
         <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -25714,12 +25725,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -25736,7 +25747,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -25756,13 +25767,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -25776,7 +25787,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -25791,7 +25802,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -25828,84 +25839,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -1084,12 +1084,6 @@
     <t>Purple Tentacle: Move between points</t>
   </si>
   <si>
-    <t>Weird Ed: WalkTo ?</t>
-  </si>
-  <si>
-    <t>Green Tentacle: Block player until Fed</t>
-  </si>
-  <si>
     <t>script-45</t>
   </si>
   <si>
@@ -1970,6 +1964,12 @@
   </si>
   <si>
     <t>script-154</t>
+  </si>
+  <si>
+    <t>Weird Ed: Walk around the Lab Entry</t>
+  </si>
+  <si>
+    <t>Green Tentacle: Block player passing</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,10 +2543,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2596,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2610,13 +2610,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2638,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2652,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2666,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2680,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2708,7 +2708,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2722,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2736,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2750,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2764,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2778,7 +2778,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2792,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2806,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2820,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2848,7 +2848,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2862,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2876,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2890,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2904,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2918,7 +2918,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2932,7 +2932,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -2946,7 +2946,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2960,7 +2960,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -2974,7 +2974,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -2988,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3016,7 +3016,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3030,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3044,7 +3044,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3058,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3072,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3086,7 +3086,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3108,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3150,7 +3150,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3164,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3178,7 +3178,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3192,7 +3192,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3217,7 +3217,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3231,7 +3231,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3259,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3353,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3430,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E35" t="s">
         <v>91</v>
@@ -3811,7 +3811,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20613,10 +20613,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20798,7 +20798,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -20809,7 +20809,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F100" t="s">
         <v>290</v>
@@ -20856,7 +20856,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -20867,7 +20867,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -20889,7 +20889,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E114" t="s">
         <v>92</v>
@@ -20986,7 +20986,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -20997,7 +20997,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21041,7 +21041,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21168,7 +21168,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21179,10 +21179,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F132" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21237,7 +21237,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21270,10 +21270,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F140" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21284,7 +21284,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21309,7 +21309,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21342,7 +21342,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E146" t="s">
         <v>81</v>
@@ -21428,7 +21428,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21439,7 +21439,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>349</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21450,10 +21450,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>350</v>
+        <v>644</v>
       </c>
       <c r="E155" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21478,8 +21478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21679,7 +21679,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E13" t="s">
         <v>228</v>
@@ -21715,7 +21715,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -22128,7 +22128,7 @@
         <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
         <v>241</v>
@@ -22179,7 +22179,7 @@
         <v>254</v>
       </c>
       <c r="H59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -22283,7 +22283,7 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E66" t="s">
         <v>305</v>
@@ -22295,7 +22295,7 @@
         <v>304</v>
       </c>
       <c r="H66" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22317,10 +22317,10 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F68" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G68" t="s">
         <v>319</v>
@@ -22336,7 +22336,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -22385,10 +22385,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E75" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -22396,7 +22396,7 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E76" t="s">
         <v>228</v>
@@ -22410,13 +22410,13 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -22424,7 +22424,7 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E78" t="s">
         <v>297</v>
@@ -22435,7 +22435,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -22443,7 +22443,7 @@
         <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -22451,7 +22451,7 @@
         <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E81" t="s">
         <v>229</v>
@@ -22462,7 +22462,7 @@
         <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -22470,16 +22470,16 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E83" t="s">
         <v>228</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G83" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -22487,7 +22487,7 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -22514,7 +22514,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22522,7 +22522,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22530,7 +22530,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22538,7 +22538,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22554,7 +22554,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22562,7 +22562,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22570,7 +22570,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22578,7 +22578,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22586,7 +22586,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22594,7 +22594,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22602,7 +22602,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22610,7 +22610,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22626,7 +22626,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22634,7 +22634,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -22668,10 +22668,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -22834,7 +22834,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23260,10 +23260,10 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D55" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23298,7 +23298,7 @@
         <v>446</v>
       </c>
       <c r="C59" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -23320,7 +23320,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -23331,7 +23331,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -23342,7 +23342,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -23353,7 +23353,7 @@
         <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -23364,7 +23364,7 @@
         <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -23375,7 +23375,7 @@
         <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -23386,7 +23386,7 @@
         <v>341</v>
       </c>
       <c r="C67" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -23397,7 +23397,7 @@
         <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -23408,7 +23408,7 @@
         <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -23419,7 +23419,7 @@
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -23430,7 +23430,7 @@
         <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -23441,7 +23441,7 @@
         <v>325</v>
       </c>
       <c r="C72" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -23463,7 +23463,7 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -23474,7 +23474,7 @@
         <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -23485,7 +23485,7 @@
         <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -23496,7 +23496,7 @@
         <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -23507,7 +23507,7 @@
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -23529,7 +23529,7 @@
         <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -23540,7 +23540,7 @@
         <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -23551,7 +23551,7 @@
         <v>275</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -23562,7 +23562,7 @@
         <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -23573,7 +23573,7 @@
         <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -23584,7 +23584,7 @@
         <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -23595,7 +23595,7 @@
         <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -23639,7 +23639,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -23650,7 +23650,7 @@
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -23683,7 +23683,7 @@
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -23716,7 +23716,7 @@
         <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -23727,7 +23727,7 @@
         <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -23738,7 +23738,7 @@
         <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -23749,7 +23749,7 @@
         <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -23760,7 +23760,7 @@
         <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -23771,13 +23771,13 @@
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G102" t="s">
         <v>55</v>
       </c>
       <c r="H102" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -23799,7 +23799,7 @@
         <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -23865,7 +23865,7 @@
         <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -23876,7 +23876,7 @@
         <v>348</v>
       </c>
       <c r="C111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -23887,7 +23887,7 @@
         <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -23898,7 +23898,7 @@
         <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -23909,7 +23909,7 @@
         <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -23920,7 +23920,7 @@
         <v>414</v>
       </c>
       <c r="C115" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -23931,7 +23931,7 @@
         <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -23942,7 +23942,7 @@
         <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -23953,7 +23953,7 @@
         <v>293</v>
       </c>
       <c r="C118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -23964,7 +23964,7 @@
         <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24008,7 +24008,7 @@
         <v>280</v>
       </c>
       <c r="C123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -24030,7 +24030,7 @@
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24041,7 +24041,7 @@
         <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24052,7 +24052,7 @@
         <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24063,7 +24063,7 @@
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -24074,7 +24074,7 @@
         <v>55</v>
       </c>
       <c r="C129" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -24085,7 +24085,7 @@
         <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -24096,7 +24096,7 @@
         <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -24107,7 +24107,7 @@
         <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -24118,7 +24118,7 @@
         <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -24129,7 +24129,7 @@
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -24140,7 +24140,7 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -24151,7 +24151,7 @@
         <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -24173,7 +24173,7 @@
         <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -24184,7 +24184,7 @@
         <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -24206,7 +24206,7 @@
         <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -24217,7 +24217,7 @@
         <v>81</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -24228,7 +24228,7 @@
         <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -24239,7 +24239,7 @@
         <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -24250,7 +24250,7 @@
         <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -24261,7 +24261,7 @@
         <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -24272,7 +24272,7 @@
         <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -24283,7 +24283,7 @@
         <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -24294,7 +24294,7 @@
         <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -24305,7 +24305,7 @@
         <v>239</v>
       </c>
       <c r="C150" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -24316,7 +24316,7 @@
         <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -24327,7 +24327,7 @@
         <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -24338,7 +24338,7 @@
         <v>88</v>
       </c>
       <c r="C153" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -24349,7 +24349,7 @@
         <v>89</v>
       </c>
       <c r="C154" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -24371,7 +24371,7 @@
         <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -24382,7 +24382,7 @@
         <v>233</v>
       </c>
       <c r="C157" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -24404,7 +24404,7 @@
         <v>110</v>
       </c>
       <c r="C159" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -24415,7 +24415,7 @@
         <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24426,7 +24426,7 @@
         <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24437,7 +24437,7 @@
         <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24448,7 +24448,7 @@
         <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24459,7 +24459,7 @@
         <v>115</v>
       </c>
       <c r="C164" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24470,7 +24470,7 @@
         <v>116</v>
       </c>
       <c r="C165" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24481,7 +24481,7 @@
         <v>117</v>
       </c>
       <c r="C166" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24503,7 +24503,7 @@
         <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24525,7 +24525,7 @@
         <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -24536,7 +24536,7 @@
         <v>268</v>
       </c>
       <c r="C171" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -24547,7 +24547,7 @@
         <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -24558,7 +24558,7 @@
         <v>101</v>
       </c>
       <c r="C173" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -24569,7 +24569,7 @@
         <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -24580,7 +24580,7 @@
         <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -24591,7 +24591,7 @@
         <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -24602,7 +24602,7 @@
         <v>330</v>
       </c>
       <c r="C177" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -24613,7 +24613,7 @@
         <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -24624,7 +24624,7 @@
         <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -24635,7 +24635,7 @@
         <v>335</v>
       </c>
       <c r="C180" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -24668,10 +24668,10 @@
         <v>103</v>
       </c>
       <c r="C183" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D183" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -24682,7 +24682,7 @@
         <v>156</v>
       </c>
       <c r="C184" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -24693,7 +24693,7 @@
         <v>235</v>
       </c>
       <c r="C185" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -24704,7 +24704,7 @@
         <v>315</v>
       </c>
       <c r="C186" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -24715,7 +24715,7 @@
         <v>316</v>
       </c>
       <c r="C187" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -24726,7 +24726,7 @@
         <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -24737,7 +24737,7 @@
         <v>318</v>
       </c>
       <c r="C189" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -24748,7 +24748,7 @@
         <v>320</v>
       </c>
       <c r="C190" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -24770,7 +24770,7 @@
         <v>154</v>
       </c>
       <c r="C192" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -24781,7 +24781,7 @@
         <v>357</v>
       </c>
       <c r="C193" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -24792,7 +24792,7 @@
         <v>159</v>
       </c>
       <c r="C194" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -24803,10 +24803,10 @@
         <v>158</v>
       </c>
       <c r="C195" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D195" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -24817,7 +24817,7 @@
         <v>231</v>
       </c>
       <c r="C196" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -24828,7 +24828,7 @@
         <v>358</v>
       </c>
       <c r="C197" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -24839,7 +24839,7 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -24850,7 +24850,7 @@
         <v>359</v>
       </c>
       <c r="C199" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -24861,7 +24861,7 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -24872,7 +24872,7 @@
         <v>356</v>
       </c>
       <c r="C201" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -24883,7 +24883,7 @@
         <v>184</v>
       </c>
       <c r="C202" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -24894,7 +24894,7 @@
         <v>185</v>
       </c>
       <c r="C203" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -24905,7 +24905,7 @@
         <v>186</v>
       </c>
       <c r="C204" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -24916,7 +24916,7 @@
         <v>187</v>
       </c>
       <c r="C205" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -24927,7 +24927,7 @@
         <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -24938,7 +24938,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -24993,7 +24993,7 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -25004,7 +25004,7 @@
         <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -25015,7 +25015,7 @@
         <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -25026,7 +25026,7 @@
         <v>294</v>
       </c>
       <c r="C215" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -25037,7 +25037,7 @@
         <v>295</v>
       </c>
       <c r="C216" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -25048,7 +25048,7 @@
         <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -25059,7 +25059,7 @@
         <v>297</v>
       </c>
       <c r="C218" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -25081,7 +25081,7 @@
         <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -25092,7 +25092,7 @@
         <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -25114,7 +25114,7 @@
         <v>437</v>
       </c>
       <c r="C223" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -25125,7 +25125,7 @@
         <v>438</v>
       </c>
       <c r="C224" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25147,7 +25147,7 @@
         <v>35</v>
       </c>
       <c r="C226" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25158,7 +25158,7 @@
         <v>36</v>
       </c>
       <c r="C227" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25180,7 +25180,7 @@
         <v>209</v>
       </c>
       <c r="C229" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25191,7 +25191,7 @@
         <v>269</v>
       </c>
       <c r="C230" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25202,7 +25202,7 @@
         <v>270</v>
       </c>
       <c r="C231" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25213,7 +25213,7 @@
         <v>271</v>
       </c>
       <c r="C232" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25235,7 +25235,7 @@
         <v>342</v>
       </c>
       <c r="C234" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25246,7 +25246,7 @@
         <v>344</v>
       </c>
       <c r="C235" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25257,7 +25257,7 @@
         <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25268,7 +25268,7 @@
         <v>274</v>
       </c>
       <c r="C237" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25279,7 +25279,7 @@
         <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25290,7 +25290,7 @@
         <v>131</v>
       </c>
       <c r="C239" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25301,7 +25301,7 @@
         <v>235</v>
       </c>
       <c r="C240" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -25312,7 +25312,7 @@
         <v>192</v>
       </c>
       <c r="C241" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -25323,7 +25323,7 @@
         <v>439</v>
       </c>
       <c r="C242" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -25334,7 +25334,7 @@
         <v>194</v>
       </c>
       <c r="C243" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -25345,7 +25345,7 @@
         <v>393</v>
       </c>
       <c r="C244" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -25356,7 +25356,7 @@
         <v>394</v>
       </c>
       <c r="C245" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -25367,7 +25367,7 @@
         <v>396</v>
       </c>
       <c r="C246" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -25378,7 +25378,7 @@
         <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -25389,7 +25389,7 @@
         <v>238</v>
       </c>
       <c r="C248" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -25411,10 +25411,10 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D250" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -25425,10 +25425,10 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D251" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -25439,10 +25439,10 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D252" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -25453,10 +25453,10 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D253" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -25467,10 +25467,10 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D254" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -25481,7 +25481,7 @@
         <v>73</v>
       </c>
       <c r="C255" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -25525,7 +25525,7 @@
         <v>137</v>
       </c>
       <c r="C259" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25536,7 +25536,7 @@
         <v>418</v>
       </c>
       <c r="C260" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -25547,7 +25547,7 @@
         <v>419</v>
       </c>
       <c r="C261" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -25558,7 +25558,7 @@
         <v>420</v>
       </c>
       <c r="C262" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -25569,7 +25569,7 @@
         <v>421</v>
       </c>
       <c r="C263" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -25580,7 +25580,7 @@
         <v>417</v>
       </c>
       <c r="C264" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -25591,7 +25591,7 @@
         <v>145</v>
       </c>
       <c r="C265" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -25602,7 +25602,7 @@
         <v>349</v>
       </c>
       <c r="C266" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -25613,7 +25613,7 @@
         <v>351</v>
       </c>
       <c r="C267" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -25624,7 +25624,7 @@
         <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -25635,7 +25635,7 @@
         <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -25646,7 +25646,7 @@
         <v>408</v>
       </c>
       <c r="C270" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -25657,7 +25657,7 @@
         <v>143</v>
       </c>
       <c r="C271" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -25701,7 +25701,7 @@
         <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -25767,13 +25767,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -25787,7 +25787,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -25802,7 +25802,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -25839,84 +25839,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="646">
   <si>
     <t>Purpose</t>
   </si>
@@ -1970,6 +1970,9 @@
   </si>
   <si>
     <t>Green Tentacle: Block player passing</t>
+  </si>
+  <si>
+    <t>Telescope Rotate</t>
   </si>
 </sst>
 </file>
@@ -3278,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
@@ -22498,10 +22501,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22635,6 +22638,14 @@
       </c>
       <c r="B16" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="652">
   <si>
     <t>Purpose</t>
   </si>
@@ -1973,6 +1973,24 @@
   </si>
   <si>
     <t>Telescope Rotate</t>
+  </si>
+  <si>
+    <t>Telescope: Current Room</t>
+  </si>
+  <si>
+    <t>0 = 35</t>
+  </si>
+  <si>
+    <t>1 = 34, X = 100</t>
+  </si>
+  <si>
+    <t>2 = 34, X = 140</t>
+  </si>
+  <si>
+    <t>3 = 34, X = 20 or 60</t>
+  </si>
+  <si>
+    <t>Telescope: Alien shown</t>
   </si>
 </sst>
 </file>
@@ -3281,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21479,10 +21497,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22449,7 +22467,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>136</v>
       </c>
@@ -22460,7 +22478,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>126</v>
       </c>
@@ -22468,7 +22486,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>31</v>
       </c>
@@ -22485,12 +22503,46 @@
         <v>638</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>646</v>
+      </c>
+      <c r="E85" t="s">
+        <v>647</v>
+      </c>
+      <c r="F85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
+        <v>649</v>
+      </c>
+      <c r="H85" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>651</v>
+      </c>
+      <c r="E86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -22503,7 +22555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="653">
   <si>
     <t>Purpose</t>
   </si>
@@ -1991,6 +1991,9 @@
   </si>
   <si>
     <t>Telescope: Alien shown</t>
+  </si>
+  <si>
+    <t>Clock Tick</t>
   </si>
 </sst>
 </file>
@@ -3300,7 +3303,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21499,8 +21502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22553,10 +22556,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22698,6 +22701,14 @@
       </c>
       <c r="B17" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="658">
   <si>
     <t>Purpose</t>
   </si>
@@ -409,9 +409,6 @@
     <t>script-146</t>
   </si>
   <si>
-    <t>SaveLoad</t>
-  </si>
-  <si>
     <t>SaveLoad: Button Pressed</t>
   </si>
   <si>
@@ -1873,9 +1870,6 @@
     <t>Door Closing</t>
   </si>
   <si>
-    <t>Beep</t>
-  </si>
-  <si>
     <t>Locker</t>
   </si>
   <si>
@@ -1994,6 +1988,27 @@
   </si>
   <si>
     <t>Clock Tick</t>
+  </si>
+  <si>
+    <t>script-128</t>
+  </si>
+  <si>
+    <t>Light Beep</t>
+  </si>
+  <si>
+    <t>Deep Beep</t>
+  </si>
+  <si>
+    <t>Load Game</t>
+  </si>
+  <si>
+    <t>Save Game</t>
+  </si>
+  <si>
+    <t>Continue Playing</t>
+  </si>
+  <si>
+    <t>Game: Save/Load</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2377,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2424,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2528,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2536,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2544,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2552,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2567,10 +2582,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" t="s">
         <v>528</v>
-      </c>
-      <c r="D1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2592,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2606,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2620,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2634,13 +2649,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2662,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2676,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2690,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2704,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2718,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2732,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2746,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2760,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2774,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2788,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2802,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2816,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2830,7 +2845,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2844,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2872,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2886,7 +2901,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2900,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2914,7 +2929,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2928,7 +2943,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2942,7 +2957,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2956,7 +2971,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -2970,7 +2985,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2984,7 +2999,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -2998,7 +3013,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3012,7 +3027,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3026,7 +3041,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3040,7 +3055,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3054,7 +3069,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3068,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3082,7 +3097,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3096,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3110,7 +3125,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,7 +3133,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3132,7 +3147,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3146,7 +3161,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3160,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3174,7 +3189,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3188,7 +3203,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3202,7 +3217,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3216,7 +3231,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3227,7 +3242,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3241,7 +3256,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3255,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3269,7 +3284,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3283,7 +3298,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3302,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,7 +3348,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,7 +3381,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3392,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,7 +3425,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,7 +3436,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3432,7 +3447,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +3458,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,7 +3469,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,7 +3480,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,7 +3491,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,7 +3535,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3531,7 +3546,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,7 +3557,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3553,7 +3568,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,7 +3579,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3612,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,7 +3645,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,7 +3656,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,7 +3720,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3731,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E35" t="s">
         <v>91</v>
@@ -3730,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3752,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3774,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,10 +3811,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
         <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,10 +3839,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
         <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3846,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,7 +3872,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3868,7 +3883,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3879,7 +3894,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3890,7 +3905,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3898,7 +3913,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3909,7 +3924,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3920,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3942,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3954,7 +3969,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20345,10 +20360,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20359,10 +20374,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20373,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" t="s">
         <v>225</v>
-      </c>
-      <c r="F59" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20387,7 +20402,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20398,7 +20413,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20409,7 +20424,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20420,7 +20435,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20431,7 +20446,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20442,7 +20457,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20453,7 +20468,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20472,7 +20487,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20483,7 +20498,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20491,10 +20506,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20505,7 +20520,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20513,7 +20528,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20524,7 +20539,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20535,7 +20550,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20546,7 +20561,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20557,7 +20572,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20568,7 +20583,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20579,7 +20594,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20590,7 +20605,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20601,7 +20616,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20612,7 +20627,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20623,10 +20638,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" t="s">
         <v>267</v>
-      </c>
-      <c r="F82" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20637,10 +20652,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>413</v>
+      </c>
+      <c r="F83" t="s">
         <v>414</v>
-      </c>
-      <c r="F83" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20651,7 +20666,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20662,7 +20677,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20673,7 +20688,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20684,7 +20699,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20695,7 +20710,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20720,7 +20735,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -20731,7 +20746,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -20756,7 +20771,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -20767,7 +20782,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -20778,7 +20793,7 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -20789,7 +20804,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -20800,7 +20815,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -20811,7 +20826,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -20822,7 +20837,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -20833,10 +20848,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -20847,7 +20862,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -20858,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -20869,7 +20884,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -20880,7 +20895,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -20891,7 +20906,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -20902,7 +20917,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -20913,7 +20928,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -20935,7 +20950,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -20946,7 +20961,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -20957,7 +20972,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -20968,10 +20983,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>309</v>
+      </c>
+      <c r="F112" t="s">
         <v>310</v>
-      </c>
-      <c r="F112" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -20982,10 +20997,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -20996,7 +21011,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E114" t="s">
         <v>92</v>
@@ -21010,7 +21025,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21021,7 +21036,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21032,7 +21047,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21043,7 +21058,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21054,7 +21069,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21065,7 +21080,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21076,7 +21091,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21087,7 +21102,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21098,7 +21113,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21109,7 +21124,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21134,7 +21149,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21145,7 +21160,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21156,7 +21171,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21181,7 +21196,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21192,7 +21207,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21203,10 +21218,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F132" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21217,7 +21232,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21239,7 +21254,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21250,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21261,7 +21276,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21272,7 +21287,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21283,7 +21298,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21294,10 +21309,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F140" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21308,7 +21323,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21333,7 +21348,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21341,7 +21356,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21366,7 +21381,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E146" t="s">
         <v>81</v>
@@ -21394,7 +21409,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21405,10 +21420,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" t="s">
         <v>344</v>
-      </c>
-      <c r="E149" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21419,7 +21434,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21430,7 +21445,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21441,7 +21456,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21452,7 +21467,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21463,7 +21478,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21474,10 +21489,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21502,8 +21517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21555,7 +21570,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21658,7 +21673,7 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -21703,13 +21718,13 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -21739,7 +21754,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -21847,7 +21862,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -21855,7 +21870,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -21863,7 +21878,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -21871,7 +21886,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -21879,7 +21894,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -21887,7 +21902,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -21895,7 +21910,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -21903,7 +21918,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -21911,7 +21926,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -21919,7 +21934,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -21927,7 +21942,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -21935,7 +21950,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -21943,22 +21958,22 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" t="s">
         <v>182</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>183</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>184</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>185</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>186</v>
-      </c>
-      <c r="I40" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -21966,7 +21981,7 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -21974,7 +21989,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -21982,7 +21997,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -21990,7 +22005,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -21998,19 +22013,22 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>651</v>
+      </c>
+      <c r="E45" t="s">
         <v>125</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
         <v>126</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22021,10 +22039,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22035,7 +22053,7 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22043,19 +22061,19 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>141</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>142</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>143</v>
-      </c>
-      <c r="G48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22063,7 +22081,7 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -22071,7 +22089,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -22079,7 +22097,7 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -22087,7 +22105,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -22095,22 +22113,22 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
         <v>214</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>215</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53" t="s">
         <v>216</v>
-      </c>
-      <c r="H53" t="s">
-        <v>302</v>
-      </c>
-      <c r="I53" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22118,13 +22136,13 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" t="s">
         <v>220</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>221</v>
-      </c>
-      <c r="F54" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22132,13 +22150,13 @@
         <v>96</v>
       </c>
       <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" t="s">
         <v>227</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>228</v>
-      </c>
-      <c r="F55" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22146,19 +22164,19 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
         <v>240</v>
       </c>
-      <c r="F56" t="s">
-        <v>433</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>241</v>
-      </c>
-      <c r="H56" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22166,7 +22184,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -22174,16 +22192,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F58" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" t="s">
         <v>253</v>
-      </c>
-      <c r="G58" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22191,19 +22209,19 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" t="s">
         <v>253</v>
       </c>
-      <c r="G59" t="s">
-        <v>254</v>
-      </c>
       <c r="H59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -22211,16 +22229,16 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" t="s">
         <v>253</v>
-      </c>
-      <c r="G60" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22228,13 +22246,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" t="s">
         <v>228</v>
-      </c>
-      <c r="F61" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22242,10 +22260,10 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22253,16 +22271,16 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" t="s">
         <v>262</v>
       </c>
-      <c r="E63" t="s">
-        <v>240</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>263</v>
-      </c>
-      <c r="G63" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22270,13 +22288,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -22284,22 +22302,22 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" t="s">
         <v>291</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" t="s">
         <v>292</v>
       </c>
-      <c r="F65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>293</v>
       </c>
-      <c r="H65" t="s">
-        <v>294</v>
-      </c>
       <c r="I65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -22307,19 +22325,19 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" t="s">
+        <v>302</v>
+      </c>
+      <c r="G66" t="s">
         <v>303</v>
       </c>
-      <c r="G66" t="s">
-        <v>304</v>
-      </c>
       <c r="H66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22327,13 +22345,13 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" t="s">
         <v>315</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>316</v>
-      </c>
-      <c r="F67" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -22341,13 +22359,13 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F68" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -22360,7 +22378,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -22368,19 +22386,19 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71" t="s">
         <v>325</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>326</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>327</v>
-      </c>
-      <c r="H71" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -22398,10 +22416,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
         <v>333</v>
-      </c>
-      <c r="E74" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -22409,10 +22427,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" t="s">
         <v>350</v>
-      </c>
-      <c r="E75" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -22420,13 +22438,13 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E76" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" t="s">
         <v>228</v>
-      </c>
-      <c r="F76" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -22434,13 +22452,13 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
+        <v>416</v>
+      </c>
+      <c r="E77" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" t="s">
         <v>417</v>
-      </c>
-      <c r="E77" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -22448,10 +22466,10 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -22459,7 +22477,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -22467,7 +22485,7 @@
         <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -22475,10 +22493,10 @@
         <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -22486,7 +22504,7 @@
         <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -22494,16 +22512,16 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
+        <v>634</v>
+      </c>
+      <c r="E83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83" t="s">
+        <v>635</v>
+      </c>
+      <c r="G83" t="s">
         <v>636</v>
-      </c>
-      <c r="E83" t="s">
-        <v>228</v>
-      </c>
-      <c r="F83" t="s">
-        <v>637</v>
-      </c>
-      <c r="G83" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -22511,7 +22529,7 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -22519,19 +22537,19 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
+        <v>644</v>
+      </c>
+      <c r="E85" t="s">
+        <v>645</v>
+      </c>
+      <c r="F85" t="s">
         <v>646</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>647</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>648</v>
-      </c>
-      <c r="G85" t="s">
-        <v>649</v>
-      </c>
-      <c r="H85" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -22539,13 +22557,13 @@
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E86" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" t="s">
         <v>228</v>
-      </c>
-      <c r="F86" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -22556,10 +22574,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22572,7 +22590,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22580,7 +22598,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22588,7 +22606,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22596,7 +22614,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22612,7 +22630,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22620,7 +22638,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22628,7 +22646,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22636,7 +22654,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22644,7 +22662,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22652,7 +22670,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22660,7 +22678,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22668,7 +22686,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22676,7 +22694,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22684,7 +22702,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22692,7 +22710,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -22700,7 +22718,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -22708,6 +22726,14 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>652</v>
       </c>
     </row>
@@ -22718,10 +22744,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22742,10 +22768,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -22908,7 +22934,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23334,10 +23360,10 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23345,7 +23371,7 @@
         <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -23353,7 +23379,7 @@
         <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -23361,7 +23387,7 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -23372,7 +23398,7 @@
         <v>446</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -23394,7 +23420,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -23405,7 +23431,7 @@
         <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -23416,7 +23442,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -23427,7 +23453,7 @@
         <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -23438,7 +23464,7 @@
         <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -23449,7 +23475,7 @@
         <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -23460,7 +23486,7 @@
         <v>341</v>
       </c>
       <c r="C67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -23471,7 +23497,7 @@
         <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -23482,7 +23508,7 @@
         <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -23493,7 +23519,7 @@
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -23504,7 +23530,7 @@
         <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -23515,7 +23541,7 @@
         <v>325</v>
       </c>
       <c r="C72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -23537,7 +23563,7 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -23548,7 +23574,7 @@
         <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -23559,7 +23585,7 @@
         <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -23570,7 +23596,7 @@
         <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -23581,7 +23607,7 @@
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -23603,7 +23629,7 @@
         <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -23614,7 +23640,7 @@
         <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -23625,7 +23651,7 @@
         <v>275</v>
       </c>
       <c r="C82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23662,7 @@
         <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -23647,7 +23673,7 @@
         <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -23658,7 +23684,7 @@
         <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -23669,7 +23695,7 @@
         <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -23713,7 +23739,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -23724,7 +23750,7 @@
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -23735,7 +23761,7 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -23757,7 +23783,7 @@
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -23790,7 +23816,7 @@
         <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -23801,7 +23827,7 @@
         <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -23812,7 +23838,7 @@
         <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -23823,7 +23849,7 @@
         <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -23834,7 +23860,7 @@
         <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -23845,13 +23871,13 @@
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G102" t="s">
         <v>55</v>
       </c>
       <c r="H102" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -23873,7 +23899,7 @@
         <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -23939,7 +23965,7 @@
         <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -23950,7 +23976,7 @@
         <v>348</v>
       </c>
       <c r="C111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -23961,7 +23987,7 @@
         <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -23972,7 +23998,7 @@
         <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -23983,7 +24009,7 @@
         <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -23994,7 +24020,7 @@
         <v>414</v>
       </c>
       <c r="C115" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24005,7 +24031,7 @@
         <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24016,7 +24042,7 @@
         <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -24027,7 +24053,7 @@
         <v>293</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24038,7 +24064,7 @@
         <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24071,7 +24097,7 @@
         <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -24082,7 +24108,7 @@
         <v>280</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -24104,7 +24130,7 @@
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24115,7 +24141,7 @@
         <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24126,7 +24152,7 @@
         <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24137,7 +24163,7 @@
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -24148,7 +24174,7 @@
         <v>55</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -24159,7 +24185,7 @@
         <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -24170,7 +24196,7 @@
         <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -24181,7 +24207,7 @@
         <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -24192,7 +24218,7 @@
         <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -24203,7 +24229,7 @@
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -24214,7 +24240,7 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -24225,7 +24251,7 @@
         <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -24247,7 +24273,7 @@
         <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -24258,7 +24284,7 @@
         <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -24280,7 +24306,7 @@
         <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -24291,7 +24317,7 @@
         <v>81</v>
       </c>
       <c r="C142" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -24302,7 +24328,7 @@
         <v>311</v>
       </c>
       <c r="C143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -24313,7 +24339,7 @@
         <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -24324,7 +24350,7 @@
         <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -24335,7 +24361,7 @@
         <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -24346,7 +24372,7 @@
         <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -24357,7 +24383,7 @@
         <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -24368,7 +24394,7 @@
         <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -24379,7 +24405,7 @@
         <v>239</v>
       </c>
       <c r="C150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -24390,7 +24416,7 @@
         <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -24401,7 +24427,7 @@
         <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -24412,7 +24438,7 @@
         <v>88</v>
       </c>
       <c r="C153" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -24423,7 +24449,7 @@
         <v>89</v>
       </c>
       <c r="C154" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -24434,7 +24460,7 @@
         <v>90</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -24445,7 +24471,7 @@
         <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -24456,7 +24482,7 @@
         <v>233</v>
       </c>
       <c r="C157" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -24478,7 +24504,7 @@
         <v>110</v>
       </c>
       <c r="C159" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -24489,7 +24515,7 @@
         <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24500,7 +24526,7 @@
         <v>112</v>
       </c>
       <c r="C161" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24511,7 +24537,7 @@
         <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24522,7 +24548,7 @@
         <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24533,7 +24559,7 @@
         <v>115</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24544,7 +24570,7 @@
         <v>116</v>
       </c>
       <c r="C165" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24555,7 +24581,7 @@
         <v>117</v>
       </c>
       <c r="C166" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24566,7 +24592,7 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24577,7 +24603,7 @@
         <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24599,7 +24625,7 @@
         <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -24610,7 +24636,7 @@
         <v>268</v>
       </c>
       <c r="C171" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -24621,7 +24647,7 @@
         <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -24632,7 +24658,7 @@
         <v>101</v>
       </c>
       <c r="C173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -24643,7 +24669,7 @@
         <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -24654,7 +24680,7 @@
         <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -24665,7 +24691,7 @@
         <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -24676,7 +24702,7 @@
         <v>330</v>
       </c>
       <c r="C177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -24687,7 +24713,7 @@
         <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -24698,7 +24724,7 @@
         <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -24709,7 +24735,7 @@
         <v>335</v>
       </c>
       <c r="C180" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -24742,10 +24768,10 @@
         <v>103</v>
       </c>
       <c r="C183" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D183" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -24756,7 +24782,7 @@
         <v>156</v>
       </c>
       <c r="C184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -24767,7 +24793,7 @@
         <v>235</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -24778,7 +24804,7 @@
         <v>315</v>
       </c>
       <c r="C186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -24789,7 +24815,7 @@
         <v>316</v>
       </c>
       <c r="C187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -24800,7 +24826,7 @@
         <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -24811,7 +24837,7 @@
         <v>318</v>
       </c>
       <c r="C189" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -24822,7 +24848,7 @@
         <v>320</v>
       </c>
       <c r="C190" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -24844,7 +24870,7 @@
         <v>154</v>
       </c>
       <c r="C192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -24855,7 +24881,7 @@
         <v>357</v>
       </c>
       <c r="C193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -24866,7 +24892,7 @@
         <v>159</v>
       </c>
       <c r="C194" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -24877,10 +24903,10 @@
         <v>158</v>
       </c>
       <c r="C195" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D195" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -24891,7 +24917,7 @@
         <v>231</v>
       </c>
       <c r="C196" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -24902,7 +24928,7 @@
         <v>358</v>
       </c>
       <c r="C197" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -24913,7 +24939,7 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -24924,7 +24950,7 @@
         <v>359</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -24935,7 +24961,7 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -24946,7 +24972,7 @@
         <v>356</v>
       </c>
       <c r="C201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -24957,7 +24983,7 @@
         <v>184</v>
       </c>
       <c r="C202" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -24968,7 +24994,7 @@
         <v>185</v>
       </c>
       <c r="C203" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -24979,7 +25005,7 @@
         <v>186</v>
       </c>
       <c r="C204" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -24990,7 +25016,7 @@
         <v>187</v>
       </c>
       <c r="C205" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -25001,7 +25027,7 @@
         <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -25012,7 +25038,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -25023,7 +25049,7 @@
         <v>300</v>
       </c>
       <c r="C208" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -25034,7 +25060,7 @@
         <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -25045,7 +25071,7 @@
         <v>310</v>
       </c>
       <c r="C210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -25067,7 +25093,7 @@
         <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -25078,7 +25104,7 @@
         <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -25089,7 +25115,7 @@
         <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -25100,7 +25126,7 @@
         <v>294</v>
       </c>
       <c r="C215" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -25111,7 +25137,7 @@
         <v>295</v>
       </c>
       <c r="C216" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -25122,7 +25148,7 @@
         <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -25133,7 +25159,7 @@
         <v>297</v>
       </c>
       <c r="C218" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -25155,7 +25181,7 @@
         <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -25166,7 +25192,7 @@
         <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -25177,7 +25203,7 @@
         <v>302</v>
       </c>
       <c r="C222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -25188,7 +25214,7 @@
         <v>437</v>
       </c>
       <c r="C223" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -25199,7 +25225,7 @@
         <v>438</v>
       </c>
       <c r="C224" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25221,7 +25247,7 @@
         <v>35</v>
       </c>
       <c r="C226" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25232,7 +25258,7 @@
         <v>36</v>
       </c>
       <c r="C227" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25254,7 +25280,7 @@
         <v>209</v>
       </c>
       <c r="C229" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25265,7 +25291,7 @@
         <v>269</v>
       </c>
       <c r="C230" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25276,7 +25302,7 @@
         <v>270</v>
       </c>
       <c r="C231" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25287,7 +25313,7 @@
         <v>271</v>
       </c>
       <c r="C232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25309,7 +25335,7 @@
         <v>342</v>
       </c>
       <c r="C234" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25320,7 +25346,7 @@
         <v>344</v>
       </c>
       <c r="C235" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25331,7 +25357,7 @@
         <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25342,7 +25368,7 @@
         <v>274</v>
       </c>
       <c r="C237" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25353,7 +25379,7 @@
         <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25364,7 +25390,7 @@
         <v>131</v>
       </c>
       <c r="C239" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25375,7 +25401,7 @@
         <v>235</v>
       </c>
       <c r="C240" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -25386,7 +25412,7 @@
         <v>192</v>
       </c>
       <c r="C241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -25397,7 +25423,7 @@
         <v>439</v>
       </c>
       <c r="C242" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -25408,7 +25434,7 @@
         <v>194</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -25419,7 +25445,7 @@
         <v>393</v>
       </c>
       <c r="C244" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -25430,7 +25456,7 @@
         <v>394</v>
       </c>
       <c r="C245" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -25441,7 +25467,7 @@
         <v>396</v>
       </c>
       <c r="C246" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -25452,7 +25478,7 @@
         <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -25463,7 +25489,7 @@
         <v>238</v>
       </c>
       <c r="C248" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -25485,10 +25511,10 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D250" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -25499,10 +25525,10 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D251" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -25513,10 +25539,10 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D252" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -25527,10 +25553,10 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D253" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -25541,10 +25567,10 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D254" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -25555,7 +25581,7 @@
         <v>73</v>
       </c>
       <c r="C255" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -25588,7 +25614,7 @@
         <v>253</v>
       </c>
       <c r="C258" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25599,7 +25625,7 @@
         <v>137</v>
       </c>
       <c r="C259" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25610,7 +25636,7 @@
         <v>418</v>
       </c>
       <c r="C260" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -25621,7 +25647,7 @@
         <v>419</v>
       </c>
       <c r="C261" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -25632,7 +25658,7 @@
         <v>420</v>
       </c>
       <c r="C262" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -25643,7 +25669,7 @@
         <v>421</v>
       </c>
       <c r="C263" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -25654,7 +25680,7 @@
         <v>417</v>
       </c>
       <c r="C264" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -25665,7 +25691,7 @@
         <v>145</v>
       </c>
       <c r="C265" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -25676,7 +25702,7 @@
         <v>349</v>
       </c>
       <c r="C266" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -25687,7 +25713,7 @@
         <v>351</v>
       </c>
       <c r="C267" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -25698,7 +25724,7 @@
         <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -25709,7 +25735,7 @@
         <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -25720,7 +25746,7 @@
         <v>408</v>
       </c>
       <c r="C270" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -25731,7 +25757,7 @@
         <v>143</v>
       </c>
       <c r="C271" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -25764,7 +25790,7 @@
         <v>252</v>
       </c>
       <c r="C274" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -25775,7 +25801,40 @@
         <v>353</v>
       </c>
       <c r="C275" t="s">
-        <v>628</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>50</v>
+      </c>
+      <c r="B276">
+        <v>442</v>
+      </c>
+      <c r="C276" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>50</v>
+      </c>
+      <c r="B277">
+        <v>443</v>
+      </c>
+      <c r="C277" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>50</v>
+      </c>
+      <c r="B278">
+        <v>444</v>
+      </c>
+      <c r="C278" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -25799,12 +25858,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -25821,7 +25880,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -25841,13 +25900,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -25861,7 +25920,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -25876,7 +25935,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -25913,84 +25972,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="729">
   <si>
     <t>Purpose</t>
   </si>
@@ -781,9 +781,6 @@
     <t>Glass Jar Contents</t>
   </si>
   <si>
-    <t>Glass Jar: Use</t>
-  </si>
-  <si>
     <t>Sponge: Name</t>
   </si>
   <si>
@@ -793,9 +790,6 @@
     <t>Sponge</t>
   </si>
   <si>
-    <t>2 = Water</t>
-  </si>
-  <si>
     <t>3 = Developer</t>
   </si>
   <si>
@@ -1270,9 +1264,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>08 = Power On</t>
-  </si>
-  <si>
     <t>Lowly plant</t>
   </si>
   <si>
@@ -1726,9 +1717,6 @@
     <t>Level 3 Hallway</t>
   </si>
   <si>
-    <t xml:space="preserve"> -= None =-</t>
-  </si>
-  <si>
     <t>3 Guys who publish anything (TV)</t>
   </si>
   <si>
@@ -2009,6 +1997,231 @@
   </si>
   <si>
     <t>Game: Save/Load</t>
+  </si>
+  <si>
+    <t>Video Fever</t>
+  </si>
+  <si>
+    <t>Disco Crazy</t>
+  </si>
+  <si>
+    <t>Alien Slime</t>
+  </si>
+  <si>
+    <t>Die Enemy Die</t>
+  </si>
+  <si>
+    <t>Meteor Mess</t>
+  </si>
+  <si>
+    <t>Kill Thrill</t>
+  </si>
+  <si>
+    <t>Air Hockey Table</t>
+  </si>
+  <si>
+    <t>Star Wars Poster</t>
+  </si>
+  <si>
+    <t>Coin Box</t>
+  </si>
+  <si>
+    <t>08 = Power Off</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Swimming Pool</t>
+  </si>
+  <si>
+    <t>Old Tree</t>
+  </si>
+  <si>
+    <t>2 = Radio Active Water</t>
+  </si>
+  <si>
+    <t>Facet: Fill Gar/Sponge with Water</t>
+  </si>
+  <si>
+    <t>Bottle of Developer</t>
+  </si>
+  <si>
+    <t>Shelves</t>
+  </si>
+  <si>
+    <t>Grate</t>
+  </si>
+  <si>
+    <t>Tentacle Chow</t>
+  </si>
+  <si>
+    <t>Canned Goods</t>
+  </si>
+  <si>
+    <t>Fruit Drinks</t>
+  </si>
+  <si>
+    <t>08 = Pool Empty</t>
+  </si>
+  <si>
+    <t>Video Game: High Scores</t>
+  </si>
+  <si>
+    <t>Painting of Edna</t>
+  </si>
+  <si>
+    <t>Painting of Fred</t>
+  </si>
+  <si>
+    <t>Wall Lamp</t>
+  </si>
+  <si>
+    <t>Plaque on statue</t>
+  </si>
+  <si>
+    <t>Statue</t>
+  </si>
+  <si>
+    <t>Bowl of wax fruit</t>
+  </si>
+  <si>
+    <t>Paint Brush</t>
+  </si>
+  <si>
+    <t>Paint Remover</t>
+  </si>
+  <si>
+    <t>Easel</t>
+  </si>
+  <si>
+    <t>Unfinished Painting</t>
+  </si>
+  <si>
+    <t>Crate</t>
+  </si>
+  <si>
+    <t>Dried Purple Slime</t>
+  </si>
+  <si>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Boarded up window</t>
+  </si>
+  <si>
+    <t>Manuscript</t>
+  </si>
+  <si>
+    <t>Medical Diagram</t>
+  </si>
+  <si>
+    <t>Medical Chart</t>
+  </si>
+  <si>
+    <t>Mail-A-Med Degree</t>
+  </si>
+  <si>
+    <t>Docs 'R Us Diploma</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Black Board</t>
+  </si>
+  <si>
+    <t>Examination</t>
+  </si>
+  <si>
+    <t>Real Skeleton</t>
+  </si>
+  <si>
+    <t>Medical Cabinet</t>
+  </si>
+  <si>
+    <t>Enlarger</t>
+  </si>
+  <si>
+    <t>Developer Tray</t>
+  </si>
+  <si>
+    <t>File Drawers</t>
+  </si>
+  <si>
+    <t>Red Light</t>
+  </si>
+  <si>
+    <t>Hunk-O-Matic</t>
+  </si>
+  <si>
+    <t>Playboy Calendar</t>
+  </si>
+  <si>
+    <t>Surplus Body</t>
+  </si>
+  <si>
+    <t>Sarcophagus</t>
+  </si>
+  <si>
+    <t>Paint Blotch</t>
+  </si>
+  <si>
+    <t>Pot for plant</t>
+  </si>
+  <si>
+    <t>Man-eating plant</t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>Family Portrait</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>Astronomy Chart</t>
+  </si>
+  <si>
+    <t>Coin Slot</t>
+  </si>
+  <si>
+    <t>Left Button</t>
+  </si>
+  <si>
+    <t>Right Button</t>
+  </si>
+  <si>
+    <t>Really Powerful Telescope</t>
+  </si>
+  <si>
+    <t>Puddle of Developer</t>
+  </si>
+  <si>
+    <t>Water Valve</t>
+  </si>
+  <si>
+    <t>Floor Grating</t>
+  </si>
+  <si>
+    <t>&lt; No Name&gt;</t>
+  </si>
+  <si>
+    <t>Old Rotting Turkey</t>
+  </si>
+  <si>
+    <t>Week old Roast</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t>Gravy Stain</t>
   </si>
 </sst>
 </file>
@@ -2565,13 +2778,13 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,10 +2795,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2607,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2621,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2635,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2649,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2677,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2691,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2705,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2719,7 +2932,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2733,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2747,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2761,7 +2974,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2775,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -2789,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2803,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2817,7 +3030,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2831,7 +3044,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2845,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2859,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2887,7 +3100,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2901,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2915,7 +3128,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2929,7 +3142,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2943,7 +3156,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2957,7 +3170,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2971,7 +3184,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -2985,7 +3198,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2999,7 +3212,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3013,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3027,7 +3240,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3041,7 +3254,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3055,7 +3268,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3069,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3083,7 +3296,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3097,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3111,7 +3324,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3125,7 +3338,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>563</v>
+        <v>676</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3147,7 +3366,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3161,7 +3380,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3175,7 +3394,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3189,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3203,7 +3422,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3217,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3231,9 +3450,12 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3242,7 +3464,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3256,7 +3478,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3270,7 +3492,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3284,7 +3506,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3298,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3317,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3614,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3625,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,7 +3636,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,7 +3647,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,7 +3658,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,7 +3856,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,7 +3867,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +3942,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E35" t="s">
         <v>91</v>
@@ -3850,7 +4072,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,7 +4135,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3924,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3935,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3957,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -3969,7 +4191,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20360,10 +20582,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20550,7 +20772,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20572,7 +20794,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20583,7 +20805,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20594,7 +20816,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20605,7 +20827,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20616,7 +20838,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20627,7 +20849,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20638,10 +20860,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20652,10 +20874,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F83" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20666,7 +20888,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20677,7 +20899,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20688,7 +20910,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20699,7 +20921,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20710,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20735,7 +20957,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -20746,7 +20968,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -20771,7 +20993,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -20782,7 +21004,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -20804,7 +21026,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -20815,7 +21037,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -20826,7 +21048,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -20837,7 +21059,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -20848,10 +21070,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -20862,7 +21084,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -20873,7 +21095,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -20884,7 +21106,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -20895,7 +21117,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -20906,7 +21128,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -20917,7 +21139,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -20928,7 +21150,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -20950,7 +21172,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -20961,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -20972,7 +21194,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -20983,10 +21205,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F112" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -20997,10 +21219,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21011,7 +21233,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E114" t="s">
         <v>92</v>
@@ -21025,7 +21247,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21036,7 +21258,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21047,7 +21269,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21058,7 +21280,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21069,7 +21291,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21080,7 +21302,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21091,7 +21313,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21102,7 +21324,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21113,7 +21335,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21124,7 +21346,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21149,7 +21371,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21160,7 +21382,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21171,7 +21393,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21196,7 +21418,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21207,7 +21429,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21218,10 +21440,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F132" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21232,7 +21454,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21254,7 +21476,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21265,7 +21487,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21276,7 +21498,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21287,7 +21509,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21298,7 +21520,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21309,10 +21531,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F140" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21323,7 +21545,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21348,7 +21570,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21356,7 +21578,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21381,7 +21603,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E146" t="s">
         <v>81</v>
@@ -21409,7 +21631,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21420,10 +21642,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E149" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21434,7 +21656,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21445,7 +21667,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21456,7 +21678,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21467,7 +21689,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21478,7 +21700,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21489,10 +21711,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E155" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21517,8 +21739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21570,7 +21792,7 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21673,7 +21895,7 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -21718,7 +21940,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E13" t="s">
         <v>227</v>
@@ -21754,7 +21976,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -21926,7 +22148,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -21934,7 +22156,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -21942,7 +22164,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -21950,7 +22172,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -22016,7 +22238,7 @@
         <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E45" t="s">
         <v>125</v>
@@ -22125,7 +22347,7 @@
         <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
         <v>216</v>
@@ -22170,7 +22392,7 @@
         <v>239</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
         <v>240</v>
@@ -22192,16 +22414,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
         <v>239</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>667</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22215,13 +22437,13 @@
         <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>667</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -22229,16 +22451,16 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
         <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>667</v>
       </c>
       <c r="G60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22246,7 +22468,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
         <v>227</v>
@@ -22260,10 +22482,10 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22271,16 +22493,16 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
         <v>239</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22288,13 +22510,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -22302,22 +22524,22 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" t="s">
         <v>290</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>291</v>
       </c>
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
-      <c r="G65" t="s">
-        <v>292</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>293</v>
-      </c>
-      <c r="I65" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -22325,19 +22547,19 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H66" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22345,13 +22567,13 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" t="s">
         <v>314</v>
-      </c>
-      <c r="E67" t="s">
-        <v>315</v>
-      </c>
-      <c r="F67" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -22359,13 +22581,13 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F68" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -22378,7 +22600,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -22386,19 +22608,19 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G71" t="s">
         <v>324</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>325</v>
-      </c>
-      <c r="G71" t="s">
-        <v>326</v>
-      </c>
-      <c r="H71" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -22416,10 +22638,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -22427,10 +22649,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -22438,7 +22660,7 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E76" t="s">
         <v>227</v>
@@ -22452,13 +22674,13 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -22466,10 +22688,10 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -22477,7 +22699,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -22485,7 +22707,7 @@
         <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -22493,7 +22715,7 @@
         <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E81" t="s">
         <v>228</v>
@@ -22504,7 +22726,7 @@
         <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -22512,16 +22734,16 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E83" t="s">
         <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G83" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -22529,7 +22751,7 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -22537,19 +22759,19 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
+        <v>640</v>
+      </c>
+      <c r="E85" t="s">
+        <v>641</v>
+      </c>
+      <c r="F85" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" t="s">
+        <v>643</v>
+      </c>
+      <c r="H85" t="s">
         <v>644</v>
-      </c>
-      <c r="E85" t="s">
-        <v>645</v>
-      </c>
-      <c r="F85" t="s">
-        <v>646</v>
-      </c>
-      <c r="G85" t="s">
-        <v>647</v>
-      </c>
-      <c r="H85" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -22557,7 +22779,7 @@
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E86" t="s">
         <v>227</v>
@@ -22590,7 +22812,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22598,7 +22820,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22606,7 +22828,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22614,7 +22836,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22630,7 +22852,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22638,7 +22860,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22646,7 +22868,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22654,7 +22876,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22662,7 +22884,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22670,7 +22892,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22678,7 +22900,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22686,7 +22908,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22702,7 +22924,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22710,7 +22932,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -22718,7 +22940,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -22726,7 +22948,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -22734,7 +22956,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -22744,10 +22966,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22757,7 +22979,7 @@
     <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -22768,1322 +22990,1363 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>408</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>664</v>
+      </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>389</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>391</v>
-      </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>26</v>
-      </c>
       <c r="B16">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>604</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>445</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>253</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>446</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>340</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>341</v>
+      </c>
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>343</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>440</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
+      <c r="D57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>235</v>
+      </c>
+      <c r="C59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>315</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>316</v>
+      </c>
+      <c r="C61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>319</v>
+      </c>
+      <c r="C62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>320</v>
+      </c>
+      <c r="C64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>272</v>
+      </c>
+      <c r="C68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>323</v>
+      </c>
+      <c r="C70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>665</v>
+      </c>
+      <c r="D71" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
         <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>254</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>240</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>243</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>244</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>245</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>246</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49">
-        <v>247</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>45</v>
-      </c>
-      <c r="B50">
-        <v>248</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <v>387</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>45</v>
-      </c>
-      <c r="B52">
-        <v>395</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>44</v>
-      </c>
-      <c r="B53">
-        <v>241</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>44</v>
-      </c>
-      <c r="B54">
-        <v>265</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>386</v>
-      </c>
-      <c r="D55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>99</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>446</v>
-      </c>
-      <c r="C59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="B65">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>340</v>
-      </c>
-      <c r="C66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>341</v>
-      </c>
-      <c r="C67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>4</v>
-      </c>
-      <c r="B68">
-        <v>343</v>
-      </c>
-      <c r="C68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>345</v>
-      </c>
-      <c r="C69" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <v>123</v>
-      </c>
-      <c r="C70" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>121</v>
-      </c>
-      <c r="C71" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>325</v>
-      </c>
-      <c r="C72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <v>122</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>234</v>
+      </c>
+      <c r="C80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>55</v>
+      </c>
+      <c r="C82" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>58</v>
+      </c>
+      <c r="C85" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>8</v>
       </c>
-      <c r="B74">
+      <c r="B93">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>325</v>
+      </c>
+      <c r="C96" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>122</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
         <v>125</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>338</v>
+      </c>
+      <c r="C100" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>8</v>
       </c>
-      <c r="B75">
-        <v>337</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B101">
+        <v>339</v>
+      </c>
+      <c r="C101" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>8</v>
-      </c>
-      <c r="B76">
-        <v>338</v>
-      </c>
-      <c r="C76" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>339</v>
-      </c>
-      <c r="C77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>108</v>
-      </c>
-      <c r="C78" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>109</v>
-      </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>134</v>
-      </c>
-      <c r="C80" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <v>138</v>
-      </c>
-      <c r="C81" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>275</v>
-      </c>
-      <c r="C82" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>326</v>
-      </c>
-      <c r="C83" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>327</v>
-      </c>
-      <c r="C84" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>328</v>
-      </c>
-      <c r="C85" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>329</v>
-      </c>
-      <c r="C86" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>38</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>414</v>
+      </c>
+      <c r="C104" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>197</v>
+      </c>
+      <c r="C106" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+      <c r="C108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>40</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90">
-        <v>39</v>
-      </c>
-      <c r="C90" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>3</v>
-      </c>
-      <c r="B92">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93">
-        <v>445</v>
-      </c>
-      <c r="C93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94">
-        <v>41</v>
-      </c>
-      <c r="C94" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95">
-        <v>45</v>
-      </c>
-      <c r="C95" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>3</v>
-      </c>
-      <c r="B96">
-        <v>46</v>
-      </c>
-      <c r="C96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97">
-        <v>273</v>
-      </c>
-      <c r="C97" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3</v>
-      </c>
-      <c r="B98">
-        <v>47</v>
-      </c>
-      <c r="C98" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>3</v>
-      </c>
-      <c r="B99">
-        <v>207</v>
-      </c>
-      <c r="C99" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3</v>
-      </c>
-      <c r="B100">
-        <v>44</v>
-      </c>
-      <c r="C100" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>12</v>
-      </c>
-      <c r="B101">
-        <v>179</v>
-      </c>
-      <c r="C101" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>12</v>
-      </c>
-      <c r="B102">
-        <v>180</v>
-      </c>
-      <c r="C102" t="s">
-        <v>387</v>
-      </c>
-      <c r="G102" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>181</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>12</v>
-      </c>
-      <c r="B104">
-        <v>378</v>
-      </c>
-      <c r="C104" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>12</v>
-      </c>
-      <c r="B105">
-        <v>379</v>
-      </c>
-      <c r="C105" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>12</v>
-      </c>
-      <c r="B106">
-        <v>380</v>
-      </c>
-      <c r="C106" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>381</v>
-      </c>
-      <c r="C107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>31</v>
-      </c>
-      <c r="B108">
-        <v>133</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>31</v>
-      </c>
       <c r="B109">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B111">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B113">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B115">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>436</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B120">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -24091,431 +24354,440 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B122">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B124">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>678</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B125">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>440</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B127">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B128">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B129">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>385</v>
+      </c>
+      <c r="G129" t="s">
         <v>55</v>
       </c>
-      <c r="C129" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B130">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B131">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B132">
-        <v>58</v>
+        <v>379</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B133">
-        <v>59</v>
+        <v>380</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B134">
-        <v>60</v>
+        <v>381</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B135">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B136">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B137">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B138">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B139">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B140">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C140" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B141">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B142">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B143">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B144">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B145">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B146">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B147">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B148">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B149">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B150">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D151" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B153">
-        <v>88</v>
+        <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B154">
-        <v>89</v>
+        <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B155">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B156">
-        <v>309</v>
+        <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B157">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B158">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>16</v>
       </c>
       <c r="B159">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>16</v>
       </c>
       <c r="B160">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24523,10 +24795,10 @@
         <v>16</v>
       </c>
       <c r="B161">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24534,10 +24806,10 @@
         <v>16</v>
       </c>
       <c r="B162">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24545,10 +24817,10 @@
         <v>16</v>
       </c>
       <c r="B163">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24556,10 +24828,10 @@
         <v>16</v>
       </c>
       <c r="B164">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24567,10 +24839,10 @@
         <v>16</v>
       </c>
       <c r="B165">
+        <v>333</v>
+      </c>
+      <c r="C165" t="s">
         <v>116</v>
-      </c>
-      <c r="C165" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24578,10 +24850,10 @@
         <v>16</v>
       </c>
       <c r="B166">
-        <v>117</v>
+        <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24589,10 +24861,10 @@
         <v>16</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24600,10 +24872,10 @@
         <v>16</v>
       </c>
       <c r="B168">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24611,10 +24883,10 @@
         <v>16</v>
       </c>
       <c r="B169">
-        <v>333</v>
+        <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>116</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -24622,10 +24894,10 @@
         <v>16</v>
       </c>
       <c r="B170">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -24633,10 +24905,10 @@
         <v>16</v>
       </c>
       <c r="B171">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -24644,10 +24916,10 @@
         <v>16</v>
       </c>
       <c r="B172">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -24655,10 +24927,10 @@
         <v>16</v>
       </c>
       <c r="B173">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -24666,10 +24938,10 @@
         <v>16</v>
       </c>
       <c r="B174">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -24677,10 +24949,10 @@
         <v>16</v>
       </c>
       <c r="B175">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -24688,434 +24960,431 @@
         <v>16</v>
       </c>
       <c r="B176">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B177">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B178">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B179">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B180">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B181">
-        <v>440</v>
+        <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>116</v>
+        <v>490</v>
+      </c>
+      <c r="D181" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B182">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B183">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
-      </c>
-      <c r="D183" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B184">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B185">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B186">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B187">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B188">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="C188" t="s">
-        <v>482</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B189">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>483</v>
+        <v>654</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B190">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>484</v>
+        <v>655</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B191">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>656</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B192">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B193">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B194">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B195">
-        <v>158</v>
+        <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>493</v>
-      </c>
-      <c r="D195" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B196">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B197">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B198">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B199">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B200">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B201">
-        <v>356</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B202">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B203">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B204">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B205">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B206">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B207">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B208">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>202</v>
+        <v>662</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B209">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>202</v>
+        <v>654</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B210">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>202</v>
+        <v>655</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B211">
-        <v>70</v>
+        <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>656</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B212">
-        <v>72</v>
+        <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>479</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B213">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>507</v>
+        <v>658</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B214">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>396</v>
+        <v>659</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -25123,10 +25392,10 @@
         <v>19</v>
       </c>
       <c r="B215">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="C215" t="s">
-        <v>508</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -25134,10 +25403,10 @@
         <v>19</v>
       </c>
       <c r="B216">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -25145,10 +25414,10 @@
         <v>19</v>
       </c>
       <c r="B217">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -25156,10 +25425,10 @@
         <v>19</v>
       </c>
       <c r="B218">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>510</v>
+        <v>394</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -25167,10 +25436,10 @@
         <v>19</v>
       </c>
       <c r="B219">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -25178,10 +25447,10 @@
         <v>19</v>
       </c>
       <c r="B220">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -25189,10 +25458,10 @@
         <v>19</v>
       </c>
       <c r="B221">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -25200,10 +25469,10 @@
         <v>19</v>
       </c>
       <c r="B222">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>202</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -25211,10 +25480,10 @@
         <v>19</v>
       </c>
       <c r="B223">
-        <v>437</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
-        <v>513</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -25222,153 +25491,153 @@
         <v>19</v>
       </c>
       <c r="B224">
-        <v>438</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B225">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B226">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>637</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B227">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B228">
-        <v>37</v>
+        <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B229">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B230">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B231">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B232">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B233">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B234">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B235">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B236">
-        <v>242</v>
+        <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B237">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25376,10 +25645,10 @@
         <v>20</v>
       </c>
       <c r="B238">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>406</v>
+        <v>590</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25387,10 +25656,10 @@
         <v>20</v>
       </c>
       <c r="B239">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25398,446 +25667,2164 @@
         <v>20</v>
       </c>
       <c r="B240">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="C240" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B241">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B242">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="C242" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B243">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C243" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B244">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B245">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C245" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B246">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C246" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B247">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B248">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="C248" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B249">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B250">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C250" t="s">
-        <v>584</v>
-      </c>
-      <c r="D250" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>584</v>
-      </c>
-      <c r="D251" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>584</v>
-      </c>
-      <c r="D252" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>584</v>
-      </c>
-      <c r="D253" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B254">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>584</v>
-      </c>
-      <c r="D254" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B255">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B256">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>695</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B257">
-        <v>237</v>
+        <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>696</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B258">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>192</v>
+        <v>697</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B259">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B260">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B261">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B262">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B263">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="C263" t="s">
-        <v>612</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B264">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>423</v>
+        <v>702</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B265">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B266">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>617</v>
+        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B267">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B268">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B269">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="C269" t="s">
-        <v>620</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B270">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>621</v>
+        <v>451</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B271">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>625</v>
+        <v>452</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B272">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>10</v>
+        <v>453</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B273">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>454</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B274">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>199</v>
+        <v>455</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B275">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>626</v>
+        <v>455</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B276">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>654</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B277">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>655</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
+        <v>24</v>
+      </c>
+      <c r="B278">
+        <v>212</v>
+      </c>
+      <c r="C278" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>24</v>
+      </c>
+      <c r="B279">
+        <v>239</v>
+      </c>
+      <c r="C279" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>24</v>
+      </c>
+      <c r="B280">
+        <v>86</v>
+      </c>
+      <c r="C280" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>24</v>
+      </c>
+      <c r="B281">
+        <v>87</v>
+      </c>
+      <c r="C281" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>24</v>
+      </c>
+      <c r="B282">
+        <v>88</v>
+      </c>
+      <c r="C282" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>24</v>
+      </c>
+      <c r="B283">
+        <v>89</v>
+      </c>
+      <c r="C283" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>24</v>
+      </c>
+      <c r="B284">
+        <v>90</v>
+      </c>
+      <c r="C284" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>24</v>
+      </c>
+      <c r="B285">
+        <v>309</v>
+      </c>
+      <c r="C285" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>24</v>
+      </c>
+      <c r="B286">
+        <v>233</v>
+      </c>
+      <c r="C286" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>24</v>
+      </c>
+      <c r="B287">
+        <v>313</v>
+      </c>
+      <c r="C287" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>25</v>
+      </c>
+      <c r="B288">
+        <v>76</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>25</v>
+      </c>
+      <c r="B289">
+        <v>305</v>
+      </c>
+      <c r="C289" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>25</v>
+      </c>
+      <c r="B290">
+        <v>78</v>
+      </c>
+      <c r="C290" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>25</v>
+      </c>
+      <c r="B291">
+        <v>79</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>25</v>
+      </c>
+      <c r="B292">
+        <v>306</v>
+      </c>
+      <c r="C292" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>25</v>
+      </c>
+      <c r="B293">
+        <v>307</v>
+      </c>
+      <c r="C293" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>25</v>
+      </c>
+      <c r="B294">
+        <v>308</v>
+      </c>
+      <c r="C294" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>25</v>
+      </c>
+      <c r="B295">
+        <v>77</v>
+      </c>
+      <c r="C295" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>26</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>26</v>
+      </c>
+      <c r="B297">
+        <v>71</v>
+      </c>
+      <c r="C297" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>26</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>26</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>26</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>26</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>26</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>26</v>
+      </c>
+      <c r="B303">
+        <v>257</v>
+      </c>
+      <c r="C303" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>26</v>
+      </c>
+      <c r="B304">
+        <v>258</v>
+      </c>
+      <c r="C304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>26</v>
+      </c>
+      <c r="B305">
+        <v>259</v>
+      </c>
+      <c r="C305" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>26</v>
+      </c>
+      <c r="B306">
+        <v>260</v>
+      </c>
+      <c r="C306" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>26</v>
+      </c>
+      <c r="B307">
+        <v>261</v>
+      </c>
+      <c r="C307" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>26</v>
+      </c>
+      <c r="B308">
+        <v>262</v>
+      </c>
+      <c r="C308" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>27</v>
+      </c>
+      <c r="B309">
+        <v>69</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>27</v>
+      </c>
+      <c r="B310">
+        <v>68</v>
+      </c>
+      <c r="C310" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>27</v>
+      </c>
+      <c r="B311">
+        <v>66</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>27</v>
+      </c>
+      <c r="B312">
+        <v>292</v>
+      </c>
+      <c r="C312" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>27</v>
+      </c>
+      <c r="B313">
+        <v>211</v>
+      </c>
+      <c r="C313" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>27</v>
+      </c>
+      <c r="B314">
+        <v>67</v>
+      </c>
+      <c r="C314" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>27</v>
+      </c>
+      <c r="B315">
+        <v>290</v>
+      </c>
+      <c r="C315" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>27</v>
+      </c>
+      <c r="B316">
+        <v>291</v>
+      </c>
+      <c r="C316" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>27</v>
+      </c>
+      <c r="B317">
+        <v>410</v>
+      </c>
+      <c r="C317" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>27</v>
+      </c>
+      <c r="B318">
+        <v>409</v>
+      </c>
+      <c r="C318" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>27</v>
+      </c>
+      <c r="B319">
+        <v>411</v>
+      </c>
+      <c r="C319" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>28</v>
+      </c>
+      <c r="B320">
+        <v>232</v>
+      </c>
+      <c r="C320" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>28</v>
+      </c>
+      <c r="B321">
+        <v>402</v>
+      </c>
+      <c r="C321" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>28</v>
+      </c>
+      <c r="B322">
+        <v>407</v>
+      </c>
+      <c r="C322" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>28</v>
+      </c>
+      <c r="B323">
+        <v>404</v>
+      </c>
+      <c r="C323" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>28</v>
+      </c>
+      <c r="B324">
+        <v>405</v>
+      </c>
+      <c r="C324" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>28</v>
+      </c>
+      <c r="B325">
+        <v>403</v>
+      </c>
+      <c r="C325" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>28</v>
+      </c>
+      <c r="B326">
+        <v>406</v>
+      </c>
+      <c r="C326" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>29</v>
+      </c>
+      <c r="B327">
+        <v>32</v>
+      </c>
+      <c r="C327" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>29</v>
+      </c>
+      <c r="B328">
+        <v>33</v>
+      </c>
+      <c r="C328" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>29</v>
+      </c>
+      <c r="B329">
+        <v>213</v>
+      </c>
+      <c r="C329" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>29</v>
+      </c>
+      <c r="B330">
+        <v>267</v>
+      </c>
+      <c r="C330" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>30</v>
+      </c>
+      <c r="B331">
+        <v>136</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>30</v>
+      </c>
+      <c r="B332">
+        <v>237</v>
+      </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>30</v>
+      </c>
+      <c r="B333">
+        <v>253</v>
+      </c>
+      <c r="C333" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>30</v>
+      </c>
+      <c r="B334">
+        <v>137</v>
+      </c>
+      <c r="C334" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>30</v>
+      </c>
+      <c r="B335">
+        <v>418</v>
+      </c>
+      <c r="C335" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>30</v>
+      </c>
+      <c r="B336">
+        <v>419</v>
+      </c>
+      <c r="C336" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>30</v>
+      </c>
+      <c r="B337">
+        <v>420</v>
+      </c>
+      <c r="C337" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>30</v>
+      </c>
+      <c r="B338">
+        <v>421</v>
+      </c>
+      <c r="C338" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>30</v>
+      </c>
+      <c r="B339">
+        <v>417</v>
+      </c>
+      <c r="C339" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>30</v>
+      </c>
+      <c r="B340">
+        <v>145</v>
+      </c>
+      <c r="C340" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>30</v>
+      </c>
+      <c r="B341">
+        <v>349</v>
+      </c>
+      <c r="C341" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>30</v>
+      </c>
+      <c r="B342">
+        <v>351</v>
+      </c>
+      <c r="C342" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>30</v>
+      </c>
+      <c r="B343">
+        <v>352</v>
+      </c>
+      <c r="C343" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>30</v>
+      </c>
+      <c r="B344">
+        <v>350</v>
+      </c>
+      <c r="C344" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>30</v>
+      </c>
+      <c r="B345">
+        <v>408</v>
+      </c>
+      <c r="C345" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>31</v>
+      </c>
+      <c r="B346">
+        <v>133</v>
+      </c>
+      <c r="C346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>31</v>
+      </c>
+      <c r="B347">
+        <v>135</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>31</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>31</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>31</v>
+      </c>
+      <c r="B350">
+        <v>416</v>
+      </c>
+      <c r="C350" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>32</v>
+      </c>
+      <c r="B351">
+        <v>203</v>
+      </c>
+      <c r="C351" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>33</v>
+      </c>
+      <c r="B352">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>580</v>
+      </c>
+      <c r="D352" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>33</v>
+      </c>
+      <c r="B353">
+        <v>8</v>
+      </c>
+      <c r="C353" t="s">
+        <v>580</v>
+      </c>
+      <c r="D353" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>33</v>
+      </c>
+      <c r="B354">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>580</v>
+      </c>
+      <c r="D354" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>33</v>
+      </c>
+      <c r="B355">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>580</v>
+      </c>
+      <c r="D355" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>33</v>
+      </c>
+      <c r="B356">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>580</v>
+      </c>
+      <c r="D356" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>33</v>
+      </c>
+      <c r="B357">
+        <v>73</v>
+      </c>
+      <c r="C357" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>34</v>
+      </c>
+      <c r="B358">
+        <v>140</v>
+      </c>
+      <c r="C358" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>34</v>
+      </c>
+      <c r="B359">
+        <v>141</v>
+      </c>
+      <c r="C359" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>34</v>
+      </c>
+      <c r="B360">
+        <v>142</v>
+      </c>
+      <c r="C360" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>34</v>
+      </c>
+      <c r="B361">
+        <v>199</v>
+      </c>
+      <c r="C361" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>35</v>
+      </c>
+      <c r="B362">
+        <v>205</v>
+      </c>
+      <c r="C362" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>35</v>
+      </c>
+      <c r="B363">
+        <v>206</v>
+      </c>
+      <c r="C363" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>36</v>
+      </c>
+      <c r="B364">
+        <v>99</v>
+      </c>
+      <c r="C364" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>36</v>
+      </c>
+      <c r="B365">
+        <v>91</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>36</v>
+      </c>
+      <c r="B366">
+        <v>92</v>
+      </c>
+      <c r="C366" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>36</v>
+      </c>
+      <c r="B367">
+        <v>94</v>
+      </c>
+      <c r="C367" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>36</v>
+      </c>
+      <c r="B368">
+        <v>95</v>
+      </c>
+      <c r="C368" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>36</v>
+      </c>
+      <c r="B369">
+        <v>96</v>
+      </c>
+      <c r="C369" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>36</v>
+      </c>
+      <c r="B370">
+        <v>97</v>
+      </c>
+      <c r="C370" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>36</v>
+      </c>
+      <c r="B371">
+        <v>314</v>
+      </c>
+      <c r="C371" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>36</v>
+      </c>
+      <c r="B372">
+        <v>98</v>
+      </c>
+      <c r="C372" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>37</v>
+      </c>
+      <c r="B373">
+        <v>62</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>37</v>
+      </c>
+      <c r="B374">
+        <v>63</v>
+      </c>
+      <c r="C374" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>37</v>
+      </c>
+      <c r="B375">
+        <v>64</v>
+      </c>
+      <c r="C375" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>37</v>
+      </c>
+      <c r="B376">
+        <v>65</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>37</v>
+      </c>
+      <c r="B377">
+        <v>281</v>
+      </c>
+      <c r="C377" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>37</v>
+      </c>
+      <c r="B378">
+        <v>282</v>
+      </c>
+      <c r="C378" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>37</v>
+      </c>
+      <c r="B379">
+        <v>283</v>
+      </c>
+      <c r="C379" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>37</v>
+      </c>
+      <c r="B380">
+        <v>284</v>
+      </c>
+      <c r="C380" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>37</v>
+      </c>
+      <c r="B381">
+        <v>285</v>
+      </c>
+      <c r="C381" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>37</v>
+      </c>
+      <c r="B382">
+        <v>286</v>
+      </c>
+      <c r="C382" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>37</v>
+      </c>
+      <c r="B383">
+        <v>441</v>
+      </c>
+      <c r="C383" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>38</v>
+      </c>
+      <c r="B384">
+        <v>184</v>
+      </c>
+      <c r="C384" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>38</v>
+      </c>
+      <c r="B385">
+        <v>185</v>
+      </c>
+      <c r="C385" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>38</v>
+      </c>
+      <c r="B386">
+        <v>186</v>
+      </c>
+      <c r="C386" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>38</v>
+      </c>
+      <c r="B387">
+        <v>187</v>
+      </c>
+      <c r="C387" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>38</v>
+      </c>
+      <c r="B388">
+        <v>188</v>
+      </c>
+      <c r="C388" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>38</v>
+      </c>
+      <c r="B389">
+        <v>208</v>
+      </c>
+      <c r="C389" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>38</v>
+      </c>
+      <c r="B390">
+        <v>300</v>
+      </c>
+      <c r="C390" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>38</v>
+      </c>
+      <c r="B391">
+        <v>303</v>
+      </c>
+      <c r="C391" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>38</v>
+      </c>
+      <c r="B392">
+        <v>310</v>
+      </c>
+      <c r="C392" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>39</v>
+      </c>
+      <c r="B393">
+        <v>227</v>
+      </c>
+      <c r="C393" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>39</v>
+      </c>
+      <c r="B394">
+        <v>228</v>
+      </c>
+      <c r="C394" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>39</v>
+      </c>
+      <c r="B395">
+        <v>229</v>
+      </c>
+      <c r="C395" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>39</v>
+      </c>
+      <c r="B396">
+        <v>230</v>
+      </c>
+      <c r="C396" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>40</v>
+      </c>
+      <c r="B397">
+        <v>249</v>
+      </c>
+      <c r="C397" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>41</v>
+      </c>
+      <c r="B398">
+        <v>242</v>
+      </c>
+      <c r="C398" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>41</v>
+      </c>
+      <c r="B399">
+        <v>274</v>
+      </c>
+      <c r="C399" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>43</v>
+      </c>
+      <c r="B401">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>43</v>
+      </c>
+      <c r="B402">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>43</v>
+      </c>
+      <c r="B403">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>43</v>
+      </c>
+      <c r="B404">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>43</v>
+      </c>
+      <c r="B405">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>43</v>
+      </c>
+      <c r="B406">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>43</v>
+      </c>
+      <c r="B407">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>43</v>
+      </c>
+      <c r="B408">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>43</v>
+      </c>
+      <c r="B409">
+        <v>427</v>
+      </c>
+      <c r="C409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>43</v>
+      </c>
+      <c r="B410">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>43</v>
+      </c>
+      <c r="B411">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>43</v>
+      </c>
+      <c r="B412">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>44</v>
+      </c>
+      <c r="B413">
+        <v>241</v>
+      </c>
+      <c r="C413" t="s">
+        <v>115</v>
+      </c>
+      <c r="G413" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>44</v>
+      </c>
+      <c r="B414">
+        <v>265</v>
+      </c>
+      <c r="C414" t="s">
+        <v>116</v>
+      </c>
+      <c r="G414" t="s">
+        <v>117</v>
+      </c>
+      <c r="H414" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>45</v>
+      </c>
+      <c r="B415">
+        <v>243</v>
+      </c>
+      <c r="C415" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>45</v>
+      </c>
+      <c r="B416">
+        <v>244</v>
+      </c>
+      <c r="C416" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>45</v>
+      </c>
+      <c r="B417">
+        <v>245</v>
+      </c>
+      <c r="C417" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>45</v>
+      </c>
+      <c r="B418">
+        <v>246</v>
+      </c>
+      <c r="C418" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>45</v>
+      </c>
+      <c r="B419">
+        <v>247</v>
+      </c>
+      <c r="C419" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>45</v>
+      </c>
+      <c r="B420">
+        <v>248</v>
+      </c>
+      <c r="C420" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>45</v>
+      </c>
+      <c r="B421">
+        <v>387</v>
+      </c>
+      <c r="C421" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>45</v>
+      </c>
+      <c r="B422">
+        <v>395</v>
+      </c>
+      <c r="C422" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>47</v>
+      </c>
+      <c r="B424">
+        <v>16</v>
+      </c>
+      <c r="C424" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>47</v>
+      </c>
+      <c r="B425">
+        <v>15</v>
+      </c>
+      <c r="C425" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>47</v>
+      </c>
+      <c r="B426">
+        <v>14</v>
+      </c>
+      <c r="C426" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>47</v>
+      </c>
+      <c r="B427">
+        <v>13</v>
+      </c>
+      <c r="C427" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>50</v>
       </c>
-      <c r="B278">
+      <c r="B430">
+        <v>442</v>
+      </c>
+      <c r="C430" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>50</v>
+      </c>
+      <c r="B431">
+        <v>443</v>
+      </c>
+      <c r="C431" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>50</v>
+      </c>
+      <c r="B432">
         <v>444</v>
       </c>
-      <c r="C278" t="s">
-        <v>656</v>
+      <c r="C432" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>51</v>
+      </c>
+      <c r="B433">
+        <v>143</v>
+      </c>
+      <c r="C433" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>51</v>
+      </c>
+      <c r="B434">
+        <v>144</v>
+      </c>
+      <c r="C434" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>51</v>
+      </c>
+      <c r="B435">
+        <v>251</v>
+      </c>
+      <c r="C435" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>51</v>
+      </c>
+      <c r="B436">
+        <v>252</v>
+      </c>
+      <c r="C436" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>51</v>
+      </c>
+      <c r="B437">
+        <v>353</v>
+      </c>
+      <c r="C437" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>52</v>
+      </c>
+      <c r="B438">
+        <v>75</v>
+      </c>
+      <c r="C438" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H438">
+    <sortCondition ref="A2:A438"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25858,12 +27845,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -25880,7 +27867,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -25900,13 +27887,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -25920,7 +27907,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -25935,7 +27922,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -25972,84 +27959,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="733">
   <si>
     <t>Purpose</t>
   </si>
@@ -2222,6 +2222,18 @@
   </si>
   <si>
     <t>Gravy Stain</t>
+  </si>
+  <si>
+    <t>Library Phone Ring</t>
+  </si>
+  <si>
+    <t>Ednas Phone Ring</t>
+  </si>
+  <si>
+    <t>Library Phone Busy</t>
+  </si>
+  <si>
+    <t>08 = On Hook</t>
   </si>
 </sst>
 </file>
@@ -2777,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3552,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21737,10 +21749,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21754,7 +21766,7 @@
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -21774,1021 +21786,1029 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>640</v>
+      </c>
+      <c r="E10" t="s">
+        <v>641</v>
+      </c>
+      <c r="F10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" t="s">
+        <v>643</v>
+      </c>
+      <c r="H10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>122</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
       <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="G11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>514</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>667</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E14" t="s">
         <v>227</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" t="s">
+        <v>667</v>
+      </c>
+      <c r="G15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" t="s">
+        <v>631</v>
+      </c>
+      <c r="G16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>647</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>312</v>
+      </c>
+      <c r="E36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>181</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
+      <c r="A42" s="2">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>252</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" t="s">
-        <v>647</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>131</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>158</v>
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>161</v>
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>160</v>
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53" t="s">
-        <v>299</v>
-      </c>
-      <c r="I53" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="G54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" t="s">
         <v>227</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F57" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" t="s">
-        <v>429</v>
-      </c>
-      <c r="G56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" t="s">
-        <v>667</v>
-      </c>
-      <c r="G58" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>581</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="F59" t="s">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="H59" t="s">
-        <v>460</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" t="s">
-        <v>667</v>
-      </c>
-      <c r="G60" t="s">
-        <v>251</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
         <v>227</v>
       </c>
       <c r="F61" t="s">
-        <v>228</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>338</v>
-      </c>
-      <c r="E62" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E63" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" t="s">
-        <v>261</v>
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>277</v>
-      </c>
-      <c r="E64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>288</v>
-      </c>
-      <c r="E65" t="s">
-        <v>289</v>
-      </c>
-      <c r="F65" t="s">
-        <v>294</v>
-      </c>
-      <c r="G65" t="s">
-        <v>290</v>
-      </c>
-      <c r="H65" t="s">
-        <v>291</v>
-      </c>
-      <c r="I65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>581</v>
-      </c>
-      <c r="E66" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" t="s">
-        <v>300</v>
-      </c>
-      <c r="G66" t="s">
-        <v>301</v>
-      </c>
-      <c r="H66" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
-      </c>
-      <c r="E67" t="s">
-        <v>313</v>
-      </c>
-      <c r="F67" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>624</v>
+        <v>226</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>625</v>
-      </c>
-      <c r="G68" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>108</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C75" t="s">
         <v>326</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E75" t="s">
         <v>322</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F75" t="s">
         <v>323</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G75" t="s">
         <v>324</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H75" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>347</v>
-      </c>
-      <c r="E75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>349</v>
-      </c>
-      <c r="E76" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
       </c>
       <c r="F77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
         <v>75</v>
       </c>
-      <c r="C78" t="s">
-        <v>486</v>
-      </c>
-      <c r="E78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>137</v>
-      </c>
-      <c r="C80" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>136</v>
-      </c>
-      <c r="C81" t="s">
-        <v>623</v>
+      <c r="D81" t="s">
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>126</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>31</v>
-      </c>
-      <c r="C83" t="s">
-        <v>630</v>
-      </c>
-      <c r="E83" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" t="s">
-        <v>631</v>
-      </c>
-      <c r="G83" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>135</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s">
-        <v>640</v>
-      </c>
-      <c r="E85" t="s">
-        <v>641</v>
-      </c>
-      <c r="F85" t="s">
-        <v>642</v>
-      </c>
-      <c r="G85" t="s">
-        <v>643</v>
-      </c>
-      <c r="H85" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:I86">
+    <sortCondition ref="A2:A86"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22796,15 +22816,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22817,82 +22837,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22905,61 +22925,88 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>618</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>648</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22968,8 +23015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23540,7 +23587,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -23551,7 +23598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -23562,7 +23609,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -23573,7 +23620,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -23584,7 +23631,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -23595,7 +23642,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -23606,7 +23653,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -23617,7 +23664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -23628,7 +23675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -23641,8 +23688,11 @@
       <c r="D57" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -23653,7 +23703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -23664,7 +23714,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -23675,7 +23725,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -23686,7 +23736,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -23697,7 +23747,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -23708,7 +23758,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -27936,7 +27986,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="5"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="738">
   <si>
     <t>Purpose</t>
   </si>
@@ -2234,6 +2234,21 @@
   </si>
   <si>
     <t>08 = On Hook</t>
+  </si>
+  <si>
+    <t>1 = Disabled</t>
+  </si>
+  <si>
+    <t>0 = Enabled</t>
+  </si>
+  <si>
+    <t>08 = Off Hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 = </t>
+  </si>
+  <si>
+    <t>Nurse Edna Called on Phone</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2580,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3567,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21749,10 +21764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21861,6 +21876,12 @@
       <c r="D6" t="s">
         <v>84</v>
       </c>
+      <c r="E6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F6" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -22186,184 +22207,190 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>737</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37" t="s">
-        <v>185</v>
-      </c>
-      <c r="I37" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" t="s">
-        <v>260</v>
-      </c>
-      <c r="G43" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>429</v>
-      </c>
-      <c r="G45" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>582</v>
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" t="s">
+        <v>429</v>
+      </c>
+      <c r="G46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -22371,7 +22398,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -22379,7 +22406,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -22387,160 +22414,160 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>486</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54" t="s">
-        <v>299</v>
-      </c>
-      <c r="I54" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="G55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" t="s">
+        <v>299</v>
+      </c>
+      <c r="I55" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>79</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>347</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>80</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>349</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>227</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>81</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" t="s">
-        <v>301</v>
-      </c>
-      <c r="H59" t="s">
-        <v>602</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>581</v>
+      </c>
+      <c r="E60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
-      </c>
-      <c r="E61" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>413</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
         <v>89</v>
       </c>
     </row>
@@ -22548,44 +22575,38 @@
       <c r="A64">
         <v>90</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
+      <c r="D64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>91</v>
-      </c>
-      <c r="D65" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>91</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>105</v>
-      </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
         <v>92</v>
@@ -22593,215 +22614,229 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" t="s">
-        <v>227</v>
-      </c>
-      <c r="F68" t="s">
-        <v>228</v>
+        <v>107</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>226</v>
+      </c>
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>103</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>322</v>
-      </c>
-      <c r="F75" t="s">
-        <v>323</v>
-      </c>
-      <c r="G75" t="s">
-        <v>324</v>
-      </c>
-      <c r="H75" t="s">
-        <v>325</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" t="s">
+        <v>323</v>
+      </c>
+      <c r="G76" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>110</v>
-      </c>
-      <c r="C77" t="s">
-        <v>514</v>
-      </c>
-      <c r="E77" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>514</v>
+      </c>
+      <c r="E78" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>122</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>126</v>
       </c>
-      <c r="C83" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>127</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" t="s">
-        <v>26</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>636</v>
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>623</v>
-      </c>
-      <c r="E86" t="s">
-        <v>228</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>623</v>
+      </c>
+      <c r="E87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>137</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>593</v>
       </c>
     </row>
@@ -23015,8 +23050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25371,7 +25406,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>18</v>
       </c>
@@ -25382,7 +25417,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18</v>
       </c>
@@ -25393,7 +25428,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>18</v>
       </c>
@@ -25404,7 +25439,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>18</v>
       </c>
@@ -25415,7 +25450,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>18</v>
       </c>
@@ -25426,7 +25461,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>18</v>
       </c>
@@ -25437,7 +25472,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>19</v>
       </c>
@@ -25448,7 +25483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>19</v>
       </c>
@@ -25458,8 +25493,14 @@
       <c r="C216" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>736</v>
+      </c>
+      <c r="E216" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>19</v>
       </c>
@@ -25470,7 +25511,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>19</v>
       </c>
@@ -25481,7 +25522,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>19</v>
       </c>
@@ -25492,7 +25533,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>19</v>
       </c>
@@ -25503,7 +25544,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>19</v>
       </c>
@@ -25514,7 +25555,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>19</v>
       </c>
@@ -25525,7 +25566,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>19</v>
       </c>
@@ -25536,7 +25577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>19</v>
       </c>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -3566,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21766,8 +21766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="740">
   <si>
     <t>Purpose</t>
   </si>
@@ -2249,6 +2249,12 @@
   </si>
   <si>
     <t>Nurse Edna Called on Phone</t>
+  </si>
+  <si>
+    <t>2 = Returning To Room</t>
+  </si>
+  <si>
+    <t>1 = In Room</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2811,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21766,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22679,6 +22685,12 @@
       </c>
       <c r="E73" t="s">
         <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>739</v>
+      </c>
+      <c r="G73" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="740">
   <si>
     <t>Purpose</t>
   </si>
@@ -268,9 +268,6 @@
     <t>script-148</t>
   </si>
   <si>
-    <t>Nurse Edna: Waiting for Kid in Kitchen</t>
-  </si>
-  <si>
     <t>0 = Not Waiting</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>roomobj-1-28</t>
   </si>
   <si>
-    <t>Nurse Edna: Return to Room</t>
-  </si>
-  <si>
     <t>Nurse Edna: Take kid to Dungeon</t>
   </si>
   <si>
@@ -1582,9 +1576,6 @@
     <t>Nurse Edna: Should leave her room</t>
   </si>
   <si>
-    <t>Nurse Edna: Return to room</t>
-  </si>
-  <si>
     <t>Secret Lab: Enter Room</t>
   </si>
   <si>
@@ -2255,6 +2246,15 @@
   </si>
   <si>
     <t>1 = In Room</t>
+  </si>
+  <si>
+    <t>Nurse Edna: Return to Room (Level 3 Hallway)</t>
+  </si>
+  <si>
+    <t>Nurse Edna: Return to room (Enter Room)</t>
+  </si>
+  <si>
+    <t>Nurse Edna: Waiting</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2597,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2810,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2867,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2895,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2937,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2951,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2965,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2979,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2993,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3007,7 +3007,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3035,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3063,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3077,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3091,7 +3091,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3105,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3133,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3147,7 +3147,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3175,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3189,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3203,7 +3203,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3217,7 +3217,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3231,7 +3231,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3259,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3273,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3315,7 +3315,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3343,7 +3343,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3371,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3385,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3399,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3427,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3441,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3483,7 +3483,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3511,7 +3511,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3525,7 +3525,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3553,7 +3553,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3572,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,7 +3669,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
         <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,10 +3947,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,10 +3961,10 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>737</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3986,10 +3986,10 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>515</v>
+        <v>738</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4066,10 +4066,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4080,10 +4080,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,10 +4094,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20615,10 +20615,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20629,10 +20629,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20643,10 +20643,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20657,7 +20657,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20668,7 +20668,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20679,7 +20679,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20690,7 +20690,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20701,7 +20701,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20712,7 +20712,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20723,7 +20723,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20742,7 +20742,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20753,7 +20753,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20761,10 +20761,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20775,7 +20775,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20783,7 +20783,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20794,7 +20794,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20805,7 +20805,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20816,7 +20816,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20827,7 +20827,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20838,7 +20838,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20849,7 +20849,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20860,7 +20860,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20871,7 +20871,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20882,7 +20882,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20893,10 +20893,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20907,10 +20907,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20921,7 +20921,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20932,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20943,7 +20943,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20954,7 +20954,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20965,7 +20965,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20976,7 +20976,7 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -20990,7 +20990,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21001,7 +21001,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21012,10 +21012,10 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -21026,7 +21026,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21037,7 +21037,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21048,7 +21048,7 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -21059,7 +21059,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21070,7 +21070,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21081,7 +21081,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21103,10 +21103,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F100" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21117,7 +21117,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21128,7 +21128,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21139,7 +21139,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21150,7 +21150,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21161,7 +21161,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21172,7 +21172,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21183,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21194,7 +21194,7 @@
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -21205,7 +21205,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21216,7 +21216,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21227,7 +21227,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21238,10 +21238,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21252,10 +21252,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21266,10 +21266,10 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -21280,7 +21280,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21291,7 +21291,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21302,7 +21302,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21313,7 +21313,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21324,7 +21324,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21335,7 +21335,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21357,7 +21357,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,7 +21368,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21379,7 +21379,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21390,10 +21390,10 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -21404,7 +21404,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21415,7 +21415,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21426,7 +21426,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21437,10 +21437,10 @@
         <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -21451,7 +21451,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21462,7 +21462,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21473,10 +21473,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F132" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21487,7 +21487,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21498,7 +21498,7 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -21509,7 +21509,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21520,7 +21520,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21531,7 +21531,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21542,7 +21542,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21553,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21564,10 +21564,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F140" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21578,7 +21578,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21592,7 +21592,7 @@
         <v>74</v>
       </c>
       <c r="E142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -21603,7 +21603,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21611,7 +21611,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21622,7 +21622,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E145" t="s">
         <v>22</v>
@@ -21636,10 +21636,10 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21650,10 +21650,10 @@
         <v>18</v>
       </c>
       <c r="D147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E147" t="s">
         <v>80</v>
-      </c>
-      <c r="E147" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -21664,7 +21664,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21675,10 +21675,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E149" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21689,7 +21689,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21711,7 +21711,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21722,7 +21722,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21733,7 +21733,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21744,10 +21744,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E155" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21772,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21812,7 +21812,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21820,10 +21820,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21831,22 +21831,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" t="s">
         <v>288</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>289</v>
       </c>
-      <c r="F4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>291</v>
-      </c>
-      <c r="I4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21854,19 +21854,19 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -21877,16 +21877,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21894,13 +21894,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21908,10 +21908,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21927,19 +21927,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>637</v>
+      </c>
+      <c r="E10" t="s">
+        <v>638</v>
+      </c>
+      <c r="F10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G10" t="s">
         <v>640</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>641</v>
-      </c>
-      <c r="F10" t="s">
-        <v>642</v>
-      </c>
-      <c r="G10" t="s">
-        <v>643</v>
-      </c>
-      <c r="H10" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21947,19 +21947,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21967,13 +21967,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -21981,16 +21981,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>664</v>
+      </c>
+      <c r="G13" t="s">
         <v>249</v>
-      </c>
-      <c r="E13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" t="s">
-        <v>667</v>
-      </c>
-      <c r="G13" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -21998,13 +21998,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22012,16 +22012,16 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22029,16 +22029,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G16" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22046,7 +22046,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -22054,7 +22054,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -22062,7 +22062,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22070,7 +22070,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -22078,7 +22078,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -22086,7 +22086,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -22094,7 +22094,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -22102,7 +22102,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -22110,7 +22110,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -22118,7 +22118,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -22126,7 +22126,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -22134,7 +22134,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -22142,7 +22142,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -22150,7 +22150,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22158,7 +22158,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -22166,7 +22166,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -22179,22 +22179,22 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>644</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" t="s">
         <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>647</v>
-      </c>
-      <c r="E34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22205,10 +22205,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -22216,13 +22216,13 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -22230,13 +22230,13 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" t="s">
         <v>312</v>
-      </c>
-      <c r="E37" t="s">
-        <v>313</v>
-      </c>
-      <c r="F37" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22244,22 +22244,22 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
         <v>181</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>182</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>183</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>184</v>
-      </c>
-      <c r="H38" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22267,7 +22267,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -22275,7 +22275,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -22283,7 +22283,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -22291,7 +22291,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -22312,7 +22312,7 @@
         <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -22320,16 +22320,16 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
         <v>259</v>
-      </c>
-      <c r="E44" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" t="s">
-        <v>260</v>
-      </c>
-      <c r="G44" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22337,13 +22337,13 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22351,19 +22351,19 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>427</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" t="s">
         <v>239</v>
-      </c>
-      <c r="F46" t="s">
-        <v>429</v>
-      </c>
-      <c r="G46" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22371,7 +22371,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22440,7 +22440,7 @@
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22448,10 +22448,10 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22459,22 +22459,22 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" t="s">
         <v>213</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" t="s">
         <v>214</v>
-      </c>
-      <c r="G55" t="s">
-        <v>215</v>
-      </c>
-      <c r="H55" t="s">
-        <v>299</v>
-      </c>
-      <c r="I55" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -22482,13 +22482,13 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" t="s">
         <v>219</v>
-      </c>
-      <c r="E56" t="s">
-        <v>220</v>
-      </c>
-      <c r="F56" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22496,10 +22496,10 @@
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22507,13 +22507,13 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22535,19 +22535,19 @@
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H60" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22555,7 +22555,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22563,13 +22563,13 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22582,7 +22582,7 @@
         <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -22593,7 +22593,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -22601,7 +22601,7 @@
         <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -22612,10 +22612,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -22626,10 +22626,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -22637,13 +22637,13 @@
         <v>96</v>
       </c>
       <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" t="s">
         <v>226</v>
-      </c>
-      <c r="E69" t="s">
-        <v>227</v>
-      </c>
-      <c r="F69" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -22651,7 +22651,7 @@
         <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -22659,7 +22659,7 @@
         <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -22667,30 +22667,27 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>103</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>739</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G73" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -22701,7 +22698,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -22712,10 +22709,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -22723,19 +22720,19 @@
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" t="s">
+        <v>321</v>
+      </c>
+      <c r="G76" t="s">
         <v>322</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>323</v>
-      </c>
-      <c r="G76" t="s">
-        <v>324</v>
-      </c>
-      <c r="H76" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -22748,13 +22745,13 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -22802,7 +22799,7 @@
         <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -22830,7 +22827,7 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -22838,10 +22835,10 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -22849,7 +22846,7 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -22879,7 +22876,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22887,7 +22884,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22895,7 +22892,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22903,7 +22900,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22911,7 +22908,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22927,7 +22924,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22935,7 +22932,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22943,7 +22940,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22951,7 +22948,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22959,7 +22956,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22967,7 +22964,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22975,7 +22972,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22983,7 +22980,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22991,7 +22988,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22999,7 +22996,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23007,7 +23004,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23015,7 +23012,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23023,7 +23020,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -23031,7 +23028,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23039,7 +23036,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23047,7 +23044,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -23062,8 +23059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23084,13 +23081,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23334,7 +23331,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23356,7 +23353,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23367,7 +23364,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23378,7 +23375,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23389,7 +23386,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23400,7 +23397,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23411,7 +23408,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23422,7 +23419,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23466,7 +23463,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23477,7 +23474,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23488,7 +23485,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23510,7 +23507,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23543,7 +23540,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23554,7 +23551,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23565,7 +23562,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23576,7 +23573,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23587,7 +23584,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23609,7 +23606,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23620,7 +23617,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23631,7 +23628,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23642,7 +23639,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23653,7 +23650,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23664,7 +23661,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23675,7 +23672,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23686,7 +23683,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23697,7 +23694,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23708,7 +23705,7 @@
         <v>440</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -23730,13 +23727,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E57" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23747,7 +23744,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23758,7 +23755,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23769,7 +23766,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23780,7 +23777,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23791,7 +23788,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23802,7 +23799,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23813,7 +23810,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23835,7 +23832,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23846,7 +23843,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23857,7 +23854,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23879,7 +23876,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23890,10 +23887,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D71" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23904,7 +23901,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23937,7 +23934,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23948,7 +23945,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23970,7 +23967,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -23981,7 +23978,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -23992,7 +23989,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24003,7 +24000,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24014,7 +24011,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24025,7 +24022,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24036,7 +24033,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24047,7 +24044,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24058,7 +24055,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24069,7 +24066,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24080,7 +24077,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24091,7 +24088,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24113,7 +24110,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24124,7 +24121,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24135,10 +24132,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D93" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24149,7 +24146,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24160,7 +24157,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24171,7 +24168,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24193,7 +24190,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24204,7 +24201,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24215,7 +24212,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24226,7 +24223,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24237,7 +24234,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24248,7 +24245,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24259,7 +24256,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24270,7 +24267,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24281,7 +24278,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24292,7 +24289,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24303,7 +24300,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24325,7 +24322,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24336,7 +24333,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24358,7 +24355,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24369,7 +24366,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24380,7 +24377,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24391,7 +24388,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24413,7 +24410,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24424,7 +24421,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24435,7 +24432,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24479,7 +24476,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24490,7 +24487,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24501,7 +24498,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24512,7 +24509,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24523,7 +24520,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24534,13 +24531,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24562,7 +24559,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24606,7 +24603,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24617,7 +24614,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24639,7 +24636,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24683,7 +24680,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24694,7 +24691,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24705,7 +24702,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24716,7 +24713,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24727,7 +24724,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24738,7 +24735,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24749,7 +24746,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24760,7 +24757,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24771,7 +24768,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24782,10 +24779,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D151" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24796,7 +24793,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24807,7 +24804,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24818,7 +24815,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24829,7 +24826,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24840,7 +24837,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24851,7 +24848,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24862,7 +24859,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24873,7 +24870,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24884,7 +24881,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24895,7 +24892,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24906,7 +24903,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24917,7 +24914,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24928,7 +24925,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24939,7 +24936,7 @@
         <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24950,7 +24947,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24961,7 +24958,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24972,7 +24969,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24983,7 +24980,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -24994,7 +24991,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25005,7 +25002,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25016,7 +25013,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25027,7 +25024,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25038,7 +25035,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25049,7 +25046,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25060,7 +25057,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25082,7 +25079,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25093,7 +25090,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25104,7 +25101,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25115,10 +25112,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25129,7 +25126,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25140,7 +25137,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25151,7 +25148,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25162,7 +25159,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25173,7 +25170,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25184,7 +25181,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25206,7 +25203,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25217,7 +25214,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25228,7 +25225,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25239,7 +25236,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25250,7 +25247,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25261,7 +25258,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25272,7 +25269,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25283,7 +25280,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25294,7 +25291,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25305,7 +25302,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25316,7 +25313,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25327,7 +25324,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25338,7 +25335,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25349,7 +25346,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25360,7 +25357,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25371,7 +25368,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25382,7 +25379,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25393,7 +25390,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25404,7 +25401,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25415,7 +25412,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25426,7 +25423,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25437,7 +25434,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25448,7 +25445,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25459,7 +25456,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25470,7 +25467,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25481,7 +25478,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25503,13 +25500,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D216" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E216" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25520,7 +25517,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25531,7 +25528,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25542,7 +25539,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25553,7 +25550,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25564,7 +25561,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25575,7 +25572,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25597,7 +25594,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25608,7 +25605,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25619,7 +25616,7 @@
         <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25630,7 +25627,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25641,7 +25638,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25652,7 +25649,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25663,7 +25660,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25674,7 +25671,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25685,7 +25682,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25696,7 +25693,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25707,7 +25704,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25718,7 +25715,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25729,7 +25726,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25740,7 +25737,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25751,7 +25748,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25762,7 +25759,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25817,7 +25814,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25894,7 +25891,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25905,7 +25902,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -25916,7 +25913,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -25927,7 +25924,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -25938,7 +25935,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -25949,7 +25946,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -25960,7 +25957,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -25971,7 +25968,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25982,7 +25979,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25993,7 +25990,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26004,7 +26001,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26015,7 +26012,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26037,7 +26034,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26048,7 +26045,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26059,7 +26056,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26070,7 +26067,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26081,7 +26078,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26103,7 +26100,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26114,7 +26111,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26125,7 +26122,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26136,7 +26133,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26147,7 +26144,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26158,7 +26155,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26169,7 +26166,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26180,7 +26177,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26191,7 +26188,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26202,7 +26199,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26213,7 +26210,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26224,7 +26221,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26235,7 +26232,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26246,7 +26243,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26257,7 +26254,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26268,7 +26265,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26279,7 +26276,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26312,7 +26309,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26323,7 +26320,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26345,7 +26342,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26356,7 +26353,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26367,7 +26364,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26378,7 +26375,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26458,7 +26455,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26546,7 +26543,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26568,7 +26565,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26579,7 +26576,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26590,7 +26587,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26601,7 +26598,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26612,7 +26609,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26623,7 +26620,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26634,7 +26631,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26645,7 +26642,7 @@
         <v>411</v>
       </c>
       <c r="C319" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -26656,7 +26653,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26667,7 +26664,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26678,7 +26675,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26689,7 +26686,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26700,7 +26697,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26711,7 +26708,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26722,7 +26719,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26733,7 +26730,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26744,7 +26741,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26755,7 +26752,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26766,7 +26763,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26799,7 +26796,7 @@
         <v>253</v>
       </c>
       <c r="C333" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -26810,7 +26807,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26821,7 +26818,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26832,7 +26829,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26843,7 +26840,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26854,7 +26851,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26865,7 +26862,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26876,7 +26873,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26887,7 +26884,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26898,7 +26895,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -26909,7 +26906,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -26920,7 +26917,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -26931,7 +26928,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -26964,7 +26961,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -26975,7 +26972,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -26986,7 +26983,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -26997,7 +26994,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27008,10 +27005,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D352" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27022,10 +27019,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D353" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27036,10 +27033,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D354" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27050,10 +27047,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D355" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27064,10 +27061,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D356" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27078,7 +27075,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27089,7 +27086,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27100,7 +27097,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27111,7 +27108,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27122,7 +27119,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27133,7 +27130,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27144,7 +27141,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27155,7 +27152,7 @@
         <v>99</v>
       </c>
       <c r="C364" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -27188,7 +27185,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27199,7 +27196,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27210,7 +27207,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27221,7 +27218,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27232,7 +27229,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27243,7 +27240,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27265,7 +27262,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27276,7 +27273,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27298,7 +27295,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27309,7 +27306,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27320,7 +27317,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27331,7 +27328,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27342,7 +27339,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27353,7 +27350,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27364,7 +27361,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27375,7 +27372,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27386,7 +27383,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27397,7 +27394,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27408,7 +27405,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27419,7 +27416,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27430,7 +27427,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27441,7 +27438,7 @@
         <v>300</v>
       </c>
       <c r="C390" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -27452,7 +27449,7 @@
         <v>303</v>
       </c>
       <c r="C391" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -27463,7 +27460,7 @@
         <v>310</v>
       </c>
       <c r="C392" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -27474,7 +27471,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27485,7 +27482,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27496,7 +27493,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27507,7 +27504,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27518,7 +27515,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27529,7 +27526,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27540,7 +27537,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27655,7 +27652,7 @@
         <v>241</v>
       </c>
       <c r="C413" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G413" t="s">
         <v>55</v>
@@ -27669,13 +27666,13 @@
         <v>265</v>
       </c>
       <c r="C414" t="s">
+        <v>114</v>
+      </c>
+      <c r="G414" t="s">
+        <v>115</v>
+      </c>
+      <c r="H414" t="s">
         <v>116</v>
-      </c>
-      <c r="G414" t="s">
-        <v>117</v>
-      </c>
-      <c r="H414" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -27686,7 +27683,7 @@
         <v>243</v>
       </c>
       <c r="C415" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -27697,7 +27694,7 @@
         <v>244</v>
       </c>
       <c r="C416" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -27708,7 +27705,7 @@
         <v>245</v>
       </c>
       <c r="C417" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -27719,7 +27716,7 @@
         <v>246</v>
       </c>
       <c r="C418" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -27730,7 +27727,7 @@
         <v>247</v>
       </c>
       <c r="C419" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -27741,7 +27738,7 @@
         <v>248</v>
       </c>
       <c r="C420" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -27752,7 +27749,7 @@
         <v>387</v>
       </c>
       <c r="C421" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -27763,7 +27760,7 @@
         <v>395</v>
       </c>
       <c r="C422" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -27779,7 +27776,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27790,7 +27787,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27801,7 +27798,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27812,7 +27809,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27833,7 +27830,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27844,7 +27841,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27855,7 +27852,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27866,7 +27863,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -27899,7 +27896,7 @@
         <v>252</v>
       </c>
       <c r="C436" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -27910,7 +27907,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -27921,7 +27918,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -27948,12 +27945,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -27970,7 +27967,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -27990,13 +27987,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28010,7 +28007,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28025,7 +28022,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -28039,7 +28036,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28062,84 +28059,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="740">
   <si>
     <t>Purpose</t>
   </si>
@@ -3573,7 +3573,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21772,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22172,6 +22172,9 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -967,9 +967,6 @@
     <t>Talk Show:  Talking to Meteor</t>
   </si>
   <si>
-    <t>Meteor Police Called</t>
-  </si>
-  <si>
     <t>0 = Not Called</t>
   </si>
   <si>
@@ -2255,6 +2252,9 @@
   </si>
   <si>
     <t>Nurse Edna: Waiting</t>
+  </si>
+  <si>
+    <t>Meteor Police Called Count</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2811,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" t="s">
         <v>521</v>
-      </c>
-      <c r="D1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2867,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2895,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2937,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2951,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2965,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2979,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2993,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3007,7 +3007,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3035,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3063,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3077,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3091,7 +3091,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3105,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3133,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3147,7 +3147,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3175,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3189,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3203,7 +3203,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3217,7 +3217,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3231,7 +3231,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3259,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3273,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3315,7 +3315,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3343,7 +3343,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3371,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3385,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3399,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3427,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3441,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3483,7 +3483,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3511,7 +3511,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3525,7 +3525,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3553,7 +3553,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,7 +3669,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -3975,7 +3975,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4105,7 +4105,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20805,7 +20805,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20907,10 +20907,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>407</v>
+      </c>
+      <c r="F83" t="s">
         <v>408</v>
-      </c>
-      <c r="F83" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21103,7 +21103,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F100" t="s">
         <v>285</v>
@@ -21150,7 +21150,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21161,7 +21161,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21183,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21266,7 +21266,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21280,7 +21280,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21291,7 +21291,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21324,7 +21324,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21335,7 +21335,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21357,7 +21357,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,7 +21368,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21379,7 +21379,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21404,7 +21404,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21415,7 +21415,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21426,7 +21426,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21451,7 +21451,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21462,7 +21462,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21473,10 +21473,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>623</v>
+      </c>
+      <c r="F132" t="s">
         <v>624</v>
-      </c>
-      <c r="F132" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21487,7 +21487,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21509,7 +21509,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21520,7 +21520,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21531,7 +21531,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21542,7 +21542,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21553,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21564,10 +21564,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21578,7 +21578,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21603,7 +21603,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21611,7 +21611,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21636,7 +21636,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21664,7 +21664,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21675,10 +21675,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>338</v>
+      </c>
+      <c r="E149" t="s">
         <v>339</v>
-      </c>
-      <c r="E149" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21689,7 +21689,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21700,7 +21700,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21711,7 +21711,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21722,7 +21722,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21733,7 +21733,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21744,10 +21744,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21772,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21820,7 +21820,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
         <v>253</v>
@@ -21877,16 +21877,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21894,13 +21894,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" t="s">
         <v>621</v>
       </c>
-      <c r="F7" t="s">
-        <v>622</v>
-      </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21908,10 +21908,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
         <v>328</v>
-      </c>
-      <c r="E8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21927,19 +21927,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>636</v>
+      </c>
+      <c r="E10" t="s">
         <v>637</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>638</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>639</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>640</v>
-      </c>
-      <c r="H10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21953,13 +21953,13 @@
         <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G11" t="s">
         <v>249</v>
       </c>
       <c r="H11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21987,7 +21987,7 @@
         <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G13" t="s">
         <v>249</v>
@@ -21998,7 +21998,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E14" t="s">
         <v>225</v>
@@ -22018,7 +22018,7 @@
         <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G15" t="s">
         <v>249</v>
@@ -22029,16 +22029,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E16" t="s">
         <v>225</v>
       </c>
       <c r="F16" t="s">
+        <v>627</v>
+      </c>
+      <c r="G16" t="s">
         <v>628</v>
-      </c>
-      <c r="G16" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22174,7 +22174,7 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -22185,7 +22185,7 @@
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E34" t="s">
         <v>123</v>
@@ -22219,7 +22219,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E36" t="s">
         <v>225</v>
@@ -22233,13 +22233,13 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
+        <v>739</v>
+      </c>
+      <c r="E37" t="s">
         <v>310</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>311</v>
-      </c>
-      <c r="F37" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22360,7 +22360,7 @@
         <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
         <v>238</v>
@@ -22374,7 +22374,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22451,7 +22451,7 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E54" t="s">
         <v>292</v>
@@ -22499,10 +22499,10 @@
         <v>79</v>
       </c>
       <c r="C57" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" t="s">
         <v>345</v>
-      </c>
-      <c r="E57" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22510,7 +22510,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E58" t="s">
         <v>225</v>
@@ -22538,7 +22538,7 @@
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E60" t="s">
         <v>300</v>
@@ -22550,7 +22550,7 @@
         <v>299</v>
       </c>
       <c r="H60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22558,7 +22558,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22566,13 +22566,13 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
         <v>225</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22678,7 +22678,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -22687,10 +22687,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -22723,19 +22723,19 @@
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E76" t="s">
+        <v>319</v>
+      </c>
+      <c r="F76" t="s">
         <v>320</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>321</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>322</v>
-      </c>
-      <c r="H76" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -22748,7 +22748,7 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E78" t="s">
         <v>225</v>
@@ -22802,7 +22802,7 @@
         <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -22830,7 +22830,7 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -22838,7 +22838,7 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E87" t="s">
         <v>226</v>
@@ -22849,7 +22849,7 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -22879,7 +22879,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22887,7 +22887,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22895,7 +22895,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22903,7 +22903,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22911,7 +22911,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22927,7 +22927,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22935,7 +22935,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22943,7 +22943,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22951,7 +22951,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22959,7 +22959,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22967,7 +22967,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22975,7 +22975,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22983,7 +22983,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22991,7 +22991,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22999,7 +22999,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23007,7 +23007,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23015,7 +23015,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23031,7 +23031,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23039,7 +23039,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23047,7 +23047,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -23084,13 +23084,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23334,7 +23334,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23356,7 +23356,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23367,7 +23367,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23378,7 +23378,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23389,7 +23389,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23400,7 +23400,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23411,7 +23411,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23422,7 +23422,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23466,7 +23466,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23477,7 +23477,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23488,7 +23488,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23510,7 +23510,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23543,7 +23543,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23554,7 +23554,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23565,7 +23565,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23576,7 +23576,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23587,7 +23587,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23609,7 +23609,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23620,7 +23620,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23631,7 +23631,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23642,7 +23642,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23653,7 +23653,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23664,7 +23664,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23675,7 +23675,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23686,7 +23686,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23697,7 +23697,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23730,13 +23730,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E57" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23747,7 +23747,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23758,7 +23758,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23769,7 +23769,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23780,7 +23780,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23791,7 +23791,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23802,7 +23802,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23813,7 +23813,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23835,7 +23835,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23846,7 +23846,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23857,7 +23857,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23879,7 +23879,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23890,10 +23890,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D71" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23904,7 +23904,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23937,7 +23937,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23948,7 +23948,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23970,7 +23970,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -23981,7 +23981,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -23992,7 +23992,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24003,7 +24003,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24014,7 +24014,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24025,7 +24025,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24036,7 +24036,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24047,7 +24047,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24058,7 +24058,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24069,7 +24069,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24080,7 +24080,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24091,7 +24091,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24113,7 +24113,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24124,7 +24124,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24135,10 +24135,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D93" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24149,7 +24149,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24160,7 +24160,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24171,7 +24171,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24193,7 +24193,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24204,7 +24204,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24215,7 +24215,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24226,7 +24226,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24237,7 +24237,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24248,7 +24248,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24259,7 +24259,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24270,7 +24270,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24281,7 +24281,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24292,7 +24292,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24303,7 +24303,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24325,7 +24325,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24336,7 +24336,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24358,7 +24358,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24369,7 +24369,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24380,7 +24380,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24391,7 +24391,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24413,7 +24413,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24424,7 +24424,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24435,7 +24435,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24479,7 +24479,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24490,7 +24490,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24501,7 +24501,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24512,7 +24512,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24523,7 +24523,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24534,13 +24534,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24562,7 +24562,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24606,7 +24606,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24617,7 +24617,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24639,7 +24639,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24683,7 +24683,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24694,7 +24694,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24705,7 +24705,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24716,7 +24716,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24727,7 +24727,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24738,7 +24738,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24749,7 +24749,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24760,7 +24760,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24771,7 +24771,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24782,10 +24782,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24796,7 +24796,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24807,7 +24807,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24818,7 +24818,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24829,7 +24829,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24840,7 +24840,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24851,7 +24851,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24862,7 +24862,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24873,7 +24873,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24884,7 +24884,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24895,7 +24895,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24906,7 +24906,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24928,7 +24928,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24950,7 +24950,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24961,7 +24961,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24972,7 +24972,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24983,7 +24983,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -24994,7 +24994,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25005,7 +25005,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25016,7 +25016,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25027,7 +25027,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25038,7 +25038,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25049,7 +25049,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25060,7 +25060,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25082,7 +25082,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25093,7 +25093,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25104,7 +25104,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25115,10 +25115,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25129,7 +25129,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25140,7 +25140,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25151,7 +25151,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25162,7 +25162,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25173,7 +25173,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25184,7 +25184,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25206,7 +25206,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25217,7 +25217,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25228,7 +25228,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25239,7 +25239,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25250,7 +25250,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25261,7 +25261,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25272,7 +25272,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25283,7 +25283,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25294,7 +25294,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25305,7 +25305,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25316,7 +25316,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25327,7 +25327,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25338,7 +25338,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25349,7 +25349,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25360,7 +25360,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25371,7 +25371,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25382,7 +25382,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25393,7 +25393,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25404,7 +25404,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25415,7 +25415,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25426,7 +25426,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25437,7 +25437,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25448,7 +25448,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25459,7 +25459,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25470,7 +25470,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25481,7 +25481,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25503,13 +25503,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D216" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E216" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25520,7 +25520,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25531,7 +25531,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25542,7 +25542,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25553,7 +25553,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25564,7 +25564,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25575,7 +25575,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25597,7 +25597,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25608,7 +25608,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25630,7 +25630,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25641,7 +25641,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25652,7 +25652,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25663,7 +25663,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25674,7 +25674,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25685,7 +25685,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25696,7 +25696,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25707,7 +25707,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25718,7 +25718,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25729,7 +25729,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25740,7 +25740,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25751,7 +25751,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25762,7 +25762,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25817,7 +25817,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25894,7 +25894,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25905,7 +25905,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -25916,7 +25916,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -25927,7 +25927,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -25938,7 +25938,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -25949,7 +25949,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -25960,7 +25960,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -25971,7 +25971,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25982,7 +25982,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25993,7 +25993,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26004,7 +26004,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26015,7 +26015,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26037,7 +26037,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26048,7 +26048,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26059,7 +26059,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26081,7 +26081,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26103,7 +26103,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26114,7 +26114,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26125,7 +26125,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26136,7 +26136,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26147,7 +26147,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26158,7 +26158,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26169,7 +26169,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26180,7 +26180,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26191,7 +26191,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26202,7 +26202,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26213,7 +26213,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26224,7 +26224,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26235,7 +26235,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26246,7 +26246,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26268,7 +26268,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26279,7 +26279,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26312,7 +26312,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26323,7 +26323,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26345,7 +26345,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26356,7 +26356,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26367,7 +26367,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26458,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26546,7 +26546,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26568,7 +26568,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26579,7 +26579,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26590,7 +26590,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26601,7 +26601,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26612,7 +26612,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26623,7 +26623,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26634,7 +26634,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26656,7 +26656,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26667,7 +26667,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26678,7 +26678,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26689,7 +26689,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26700,7 +26700,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26711,7 +26711,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26722,7 +26722,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26733,7 +26733,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26744,7 +26744,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26755,7 +26755,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26766,7 +26766,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26810,7 +26810,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26821,7 +26821,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26832,7 +26832,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26843,7 +26843,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26854,7 +26854,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26865,7 +26865,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26876,7 +26876,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26887,7 +26887,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26898,7 +26898,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -26909,7 +26909,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -26920,7 +26920,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -26931,7 +26931,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -26964,7 +26964,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -26975,7 +26975,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -26986,7 +26986,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -26997,7 +26997,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27008,10 +27008,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D352" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27022,10 +27022,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D353" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27036,10 +27036,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D354" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27050,10 +27050,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D355" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27064,10 +27064,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D356" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27078,7 +27078,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27089,7 +27089,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27100,7 +27100,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27111,7 +27111,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27122,7 +27122,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27133,7 +27133,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27144,7 +27144,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27188,7 +27188,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27199,7 +27199,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27210,7 +27210,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27221,7 +27221,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27232,7 +27232,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27243,7 +27243,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27265,7 +27265,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27276,7 +27276,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27298,7 +27298,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27309,7 +27309,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27320,7 +27320,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27331,7 +27331,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27342,7 +27342,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27353,7 +27353,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27364,7 +27364,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27375,7 +27375,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27386,7 +27386,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27397,7 +27397,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27408,7 +27408,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27419,7 +27419,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27430,7 +27430,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27474,7 +27474,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27485,7 +27485,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27496,7 +27496,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27507,7 +27507,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27518,7 +27518,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27529,7 +27529,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27540,7 +27540,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27779,7 +27779,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27790,7 +27790,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27801,7 +27801,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27812,7 +27812,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27833,7 +27833,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27844,7 +27844,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27855,7 +27855,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27866,7 +27866,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -27910,7 +27910,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -27921,7 +27921,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -27990,13 +27990,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28010,7 +28010,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28025,7 +28025,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -28062,84 +28062,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -1684,9 +1684,6 @@
     <t>Underhouse</t>
   </si>
   <si>
-    <t>Lab: Hunk o Matic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meteor Police </t>
   </si>
   <si>
@@ -2255,6 +2252,9 @@
   </si>
   <si>
     <t>Meteor Police Called Count</t>
+  </si>
+  <si>
+    <t>Lab: Zom-b-Matic</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2811,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3245,7 +3245,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>549</v>
+        <v>739</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3259,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3273,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3315,7 +3315,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3343,7 +3343,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3371,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3385,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3399,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3427,7 +3427,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3441,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3483,7 +3483,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3511,7 +3511,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3525,7 +3525,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3539,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3553,7 +3553,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3573,7 +3573,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -3986,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4190,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20805,7 +20805,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -21150,7 +21150,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21161,7 +21161,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21183,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21266,7 +21266,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21335,7 +21335,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21473,10 +21473,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>622</v>
+      </c>
+      <c r="F132" t="s">
         <v>623</v>
-      </c>
-      <c r="F132" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21722,7 +21722,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21733,7 +21733,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21744,7 +21744,7 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E155" t="s">
         <v>343</v>
@@ -21772,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21883,10 +21883,10 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21894,10 +21894,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F7" t="s">
         <v>620</v>
-      </c>
-      <c r="F7" t="s">
-        <v>621</v>
       </c>
       <c r="G7" t="s">
         <v>313</v>
@@ -21927,19 +21927,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>635</v>
+      </c>
+      <c r="E10" t="s">
         <v>636</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>637</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>638</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>639</v>
-      </c>
-      <c r="H10" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21953,7 +21953,7 @@
         <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G11" t="s">
         <v>249</v>
@@ -21987,7 +21987,7 @@
         <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G13" t="s">
         <v>249</v>
@@ -21998,7 +21998,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E14" t="s">
         <v>225</v>
@@ -22018,7 +22018,7 @@
         <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G15" t="s">
         <v>249</v>
@@ -22029,16 +22029,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E16" t="s">
         <v>225</v>
       </c>
       <c r="F16" t="s">
+        <v>626</v>
+      </c>
+      <c r="G16" t="s">
         <v>627</v>
-      </c>
-      <c r="G16" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22174,7 +22174,7 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -22185,7 +22185,7 @@
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E34" t="s">
         <v>123</v>
@@ -22219,7 +22219,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E36" t="s">
         <v>225</v>
@@ -22233,7 +22233,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E37" t="s">
         <v>310</v>
@@ -22374,7 +22374,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22538,7 +22538,7 @@
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E60" t="s">
         <v>300</v>
@@ -22550,7 +22550,7 @@
         <v>299</v>
       </c>
       <c r="H60" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22558,7 +22558,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22678,7 +22678,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -22687,10 +22687,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G73" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -22802,7 +22802,7 @@
         <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -22830,7 +22830,7 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -22838,7 +22838,7 @@
         <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E87" t="s">
         <v>226</v>
@@ -22849,7 +22849,7 @@
         <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -22879,7 +22879,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22887,7 +22887,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22895,7 +22895,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22903,7 +22903,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22911,7 +22911,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22927,7 +22927,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22935,7 +22935,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22943,7 +22943,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22951,7 +22951,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22959,7 +22959,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22975,7 +22975,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22983,7 +22983,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22991,7 +22991,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -22999,7 +22999,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23007,7 +23007,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23015,7 +23015,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23031,7 +23031,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23039,7 +23039,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23047,7 +23047,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -23062,8 +23062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="D385" sqref="D385"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23090,7 +23090,7 @@
         <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23736,7 +23736,7 @@
         <v>479</v>
       </c>
       <c r="E57" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23890,10 +23890,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D71" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23904,7 +23904,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24138,7 +24138,7 @@
         <v>381</v>
       </c>
       <c r="D93" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24325,7 +24325,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24479,7 +24479,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24490,7 +24490,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24501,7 +24501,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24512,7 +24512,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24606,7 +24606,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24617,7 +24617,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24683,7 +24683,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24694,7 +24694,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24705,7 +24705,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24716,7 +24716,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24727,7 +24727,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24738,7 +24738,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24749,7 +24749,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24760,7 +24760,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24782,10 +24782,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24796,7 +24796,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24818,7 +24818,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -25206,7 +25206,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25217,7 +25217,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25228,7 +25228,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25239,7 +25239,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25250,7 +25250,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25261,7 +25261,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25272,7 +25272,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25283,7 +25283,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25360,7 +25360,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25371,7 +25371,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25382,7 +25382,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25393,7 +25393,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25404,7 +25404,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25415,7 +25415,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25426,7 +25426,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25437,7 +25437,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25448,7 +25448,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25459,7 +25459,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25470,7 +25470,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25481,7 +25481,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25506,10 +25506,10 @@
         <v>473</v>
       </c>
       <c r="D216" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E216" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25663,7 +25663,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25696,7 +25696,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25707,7 +25707,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25718,7 +25718,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25729,7 +25729,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25740,7 +25740,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25751,7 +25751,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25762,7 +25762,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25894,7 +25894,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25927,7 +25927,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -25938,7 +25938,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -25949,7 +25949,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -25960,7 +25960,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -25971,7 +25971,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25982,7 +25982,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25993,7 +25993,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26004,7 +26004,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26015,7 +26015,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26037,7 +26037,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26048,7 +26048,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26070,7 +26070,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26081,7 +26081,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26323,7 +26323,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26345,7 +26345,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26356,7 +26356,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26367,7 +26367,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26458,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26546,7 +26546,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26568,7 +26568,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26579,7 +26579,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26590,7 +26590,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26601,7 +26601,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26612,7 +26612,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26656,7 +26656,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26667,7 +26667,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26678,7 +26678,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26689,7 +26689,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26700,7 +26700,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26722,7 +26722,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26733,7 +26733,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26744,7 +26744,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26755,7 +26755,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26766,7 +26766,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26810,7 +26810,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26821,7 +26821,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26832,7 +26832,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26843,7 +26843,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26854,7 +26854,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26876,7 +26876,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26887,7 +26887,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26898,7 +26898,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -26909,7 +26909,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -26920,7 +26920,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -26931,7 +26931,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -26997,7 +26997,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27008,10 +27008,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D352" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27022,10 +27022,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D353" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27036,10 +27036,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D354" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27050,10 +27050,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D355" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27064,10 +27064,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D356" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27078,7 +27078,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27089,7 +27089,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27100,7 +27100,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27111,7 +27111,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27122,7 +27122,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27133,7 +27133,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27144,7 +27144,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27188,7 +27188,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27199,7 +27199,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27210,7 +27210,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27221,7 +27221,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27232,7 +27232,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27243,7 +27243,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27265,7 +27265,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27276,7 +27276,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27320,7 +27320,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27331,7 +27331,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27342,7 +27342,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27364,7 +27364,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27474,7 +27474,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27485,7 +27485,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27496,7 +27496,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27507,7 +27507,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27518,7 +27518,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27529,7 +27529,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27540,7 +27540,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27779,7 +27779,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27790,7 +27790,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27801,7 +27801,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27812,7 +27812,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27833,7 +27833,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27844,7 +27844,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27855,7 +27855,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27866,7 +27866,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -27910,7 +27910,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -27970,7 +27970,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -27990,13 +27990,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28010,7 +28010,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28025,7 +28025,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21770,10 +21770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22769,86 +22769,91 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>122</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>126</v>
       </c>
-      <c r="C84" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>127</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" t="s">
-        <v>26</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>631</v>
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>618</v>
-      </c>
-      <c r="E87" t="s">
-        <v>226</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
+        <v>618</v>
+      </c>
+      <c r="E88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>137</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>588</v>
       </c>
     </row>
@@ -23062,8 +23067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="743">
   <si>
     <t>Purpose</t>
   </si>
@@ -427,9 +427,6 @@
     <t>2 = Pool Full</t>
   </si>
   <si>
-    <t>Pool ?</t>
-  </si>
-  <si>
     <t>Destruction Count?</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>Room9: Wallsafe Input</t>
   </si>
   <si>
-    <t>Pin(var40) Keypad Input</t>
-  </si>
-  <si>
     <t>Green Tentacle: Block until player feeds</t>
   </si>
   <si>
@@ -2255,6 +2249,21 @@
   </si>
   <si>
     <t>Lab: Zom-b-Matic</t>
+  </si>
+  <si>
+    <t>Lab Door Opens</t>
+  </si>
+  <si>
+    <t>Lab Entry Keypad Input</t>
+  </si>
+  <si>
+    <t>Dr. Fred: Pool/Power Out</t>
+  </si>
+  <si>
+    <t>1 = Power On</t>
+  </si>
+  <si>
+    <t>3 = Again</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2638,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2751,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2759,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2775,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2783,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2807,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2828,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2853,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2867,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2881,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2895,13 +2904,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2923,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2937,7 +2946,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2951,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2965,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2979,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2993,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3007,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3021,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3035,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3049,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3063,7 +3072,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3077,7 +3086,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3091,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3105,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3133,7 +3142,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3147,7 +3156,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3161,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3175,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3189,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3203,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3217,7 +3226,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3231,7 +3240,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3245,7 +3254,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3259,7 +3268,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3273,7 +3282,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3287,7 +3296,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3301,7 +3310,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3315,7 +3324,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3329,7 +3338,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3343,7 +3352,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3357,7 +3366,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3371,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3385,7 +3394,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3399,7 +3408,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3413,7 +3422,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3427,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3441,7 +3450,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3455,7 +3464,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3469,7 +3478,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3483,7 +3492,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3497,7 +3506,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3511,7 +3520,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3525,7 +3534,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3539,7 +3548,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3553,7 +3562,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3572,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3612,7 @@
         <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,7 +3656,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3667,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,7 +3678,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3691,7 +3700,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3702,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3713,7 +3722,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,7 +3744,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,7 +3766,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,7 +3777,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,7 +3799,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3810,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3812,7 +3821,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3834,7 +3843,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +3865,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,7 +3876,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3887,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +3898,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3920,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,7 +3970,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -3975,7 +3984,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3986,7 +3995,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4000,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4033,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4066,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
         <v>128</v>
@@ -4080,10 +4089,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
         <v>133</v>
-      </c>
-      <c r="E43" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4094,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
         <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,7 +4147,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4149,7 +4158,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4160,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4168,7 +4177,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4179,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4190,7 +4199,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4212,7 +4221,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4224,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20615,10 +20624,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20629,10 +20638,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20643,10 +20652,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20657,7 +20666,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20668,7 +20677,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20679,7 +20688,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20690,7 +20699,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20701,7 +20710,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20712,7 +20721,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20723,7 +20732,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20742,7 +20751,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20753,7 +20762,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20761,10 +20770,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20775,7 +20784,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20783,7 +20792,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20794,7 +20803,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20805,7 +20814,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20816,7 +20825,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20827,7 +20836,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20838,7 +20847,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20849,7 +20858,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20860,7 +20869,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20871,7 +20880,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20882,7 +20891,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20893,10 +20902,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20907,10 +20916,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F83" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20921,7 +20930,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20932,7 +20941,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20943,7 +20952,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20954,7 +20963,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20965,7 +20974,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20990,7 +20999,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21001,7 +21010,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21026,7 +21035,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21037,7 +21046,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21048,7 +21057,7 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -21059,7 +21068,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21070,7 +21079,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21081,7 +21090,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21101,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21103,10 +21112,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21117,7 +21126,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21128,7 +21137,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21139,7 +21148,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21150,7 +21159,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21161,7 +21170,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21172,7 +21181,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21183,7 +21192,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21205,7 +21214,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21216,7 +21225,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21227,7 +21236,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21238,10 +21247,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F112" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21252,10 +21261,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21266,7 +21275,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21280,7 +21289,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21291,7 +21300,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21302,7 +21311,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21313,7 +21322,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21324,7 +21333,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21335,7 +21344,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21346,7 +21355,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21357,7 +21366,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,7 +21377,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21379,7 +21388,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21404,7 +21413,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21415,7 +21424,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21426,7 +21435,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21451,7 +21460,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21462,7 +21471,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21473,10 +21482,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F132" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21487,7 +21496,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21509,7 +21518,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21520,7 +21529,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21531,7 +21540,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21542,7 +21551,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21553,7 +21562,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21564,10 +21573,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F140" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21578,7 +21587,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21603,7 +21612,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21611,7 +21620,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21636,7 +21645,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21664,7 +21673,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21675,10 +21684,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21689,7 +21698,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21700,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21711,7 +21720,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21722,7 +21731,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21733,7 +21742,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21744,10 +21753,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E155" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21773,7 +21782,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21812,7 +21821,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21820,10 +21829,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21831,22 +21840,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" t="s">
         <v>286</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>287</v>
       </c>
-      <c r="F4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>289</v>
-      </c>
-      <c r="I4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21854,19 +21863,19 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>140</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -21877,16 +21886,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21894,13 +21903,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21908,10 +21917,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21927,19 +21936,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" t="s">
+        <v>634</v>
+      </c>
+      <c r="F10" t="s">
         <v>635</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>636</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>637</v>
-      </c>
-      <c r="G10" t="s">
-        <v>638</v>
-      </c>
-      <c r="H10" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21947,19 +21956,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21967,13 +21976,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -21981,16 +21990,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" t="s">
+        <v>660</v>
+      </c>
+      <c r="G13" t="s">
         <v>247</v>
-      </c>
-      <c r="E13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" t="s">
-        <v>662</v>
-      </c>
-      <c r="G13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -21998,13 +22007,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22012,16 +22021,16 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22029,16 +22038,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>623</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>624</v>
+      </c>
+      <c r="G16" t="s">
         <v>625</v>
-      </c>
-      <c r="E16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" t="s">
-        <v>626</v>
-      </c>
-      <c r="G16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22046,7 +22055,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -22054,7 +22063,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -22062,7 +22071,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22070,7 +22079,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -22078,7 +22087,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -22086,7 +22095,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -22094,7 +22103,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -22102,7 +22111,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -22110,7 +22119,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -22118,7 +22127,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -22126,7 +22135,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -22134,7 +22143,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -22142,7 +22151,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -22150,7 +22159,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22158,7 +22167,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -22166,7 +22175,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -22174,7 +22183,7 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -22185,7 +22194,7 @@
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E34" t="s">
         <v>123</v>
@@ -22219,13 +22228,13 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -22233,13 +22242,13 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22247,22 +22256,22 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
         <v>179</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>180</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>181</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>182</v>
-      </c>
-      <c r="H38" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22270,7 +22279,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -22278,7 +22287,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -22286,7 +22295,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -22294,7 +22303,7 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -22315,7 +22324,7 @@
         <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -22323,16 +22332,16 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" t="s">
         <v>257</v>
-      </c>
-      <c r="E44" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22340,13 +22349,13 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22354,19 +22363,19 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" t="s">
+        <v>424</v>
+      </c>
+      <c r="G46" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" t="s">
         <v>237</v>
-      </c>
-      <c r="F46" t="s">
-        <v>426</v>
-      </c>
-      <c r="G46" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22374,7 +22383,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22443,7 +22452,7 @@
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22451,10 +22460,10 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22462,22 +22471,22 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" t="s">
         <v>211</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
+        <v>295</v>
+      </c>
+      <c r="I55" t="s">
         <v>212</v>
-      </c>
-      <c r="G55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H55" t="s">
-        <v>297</v>
-      </c>
-      <c r="I55" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -22485,13 +22494,13 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
         <v>217</v>
-      </c>
-      <c r="E56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22499,10 +22508,10 @@
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22510,13 +22519,13 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22538,19 +22547,19 @@
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H60" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22558,7 +22567,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22566,13 +22575,13 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22640,13 +22649,13 @@
         <v>96</v>
       </c>
       <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" t="s">
         <v>224</v>
-      </c>
-      <c r="E69" t="s">
-        <v>225</v>
-      </c>
-      <c r="F69" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -22678,7 +22687,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -22687,10 +22696,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G73" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -22701,7 +22710,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -22712,10 +22721,16 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>740</v>
+      </c>
+      <c r="D75" t="s">
+        <v>741</v>
       </c>
       <c r="E75" t="s">
         <v>129</v>
+      </c>
+      <c r="F75" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -22723,19 +22738,19 @@
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E76" t="s">
+        <v>317</v>
+      </c>
+      <c r="F76" t="s">
+        <v>318</v>
+      </c>
+      <c r="G76" t="s">
         <v>319</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>320</v>
-      </c>
-      <c r="G76" t="s">
-        <v>321</v>
-      </c>
-      <c r="H76" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -22748,13 +22763,13 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -22807,7 +22822,7 @@
         <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -22835,7 +22850,7 @@
         <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -22843,10 +22858,10 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -22854,7 +22869,7 @@
         <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -22868,10 +22883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22884,7 +22899,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22892,7 +22907,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22900,7 +22915,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22908,7 +22923,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22916,7 +22931,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22932,7 +22947,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22940,7 +22955,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22948,7 +22963,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22956,7 +22971,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22964,7 +22979,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -22972,7 +22987,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -22980,7 +22995,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -22988,7 +23003,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -22996,7 +23011,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23004,7 +23019,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23012,7 +23027,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23020,7 +23035,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23028,7 +23043,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -23036,7 +23051,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23044,7 +23059,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23052,7 +23067,15 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>726</v>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -23067,8 +23090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23089,13 +23112,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23339,7 +23362,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23361,7 +23384,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23372,7 +23395,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23383,7 +23406,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23394,7 +23417,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23405,7 +23428,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23416,7 +23439,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23427,7 +23450,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23471,7 +23494,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23482,7 +23505,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23493,7 +23516,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23515,7 +23538,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23548,7 +23571,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23559,7 +23582,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23570,7 +23593,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23581,7 +23604,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23592,7 +23615,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23614,7 +23637,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23625,7 +23648,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23659,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23647,7 +23670,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23658,7 +23681,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23669,7 +23692,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23680,7 +23703,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23691,7 +23714,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23702,7 +23725,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23735,13 +23758,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E57" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23752,7 +23775,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23763,7 +23786,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23774,7 +23797,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23785,7 +23808,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23796,7 +23819,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23807,7 +23830,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23818,7 +23841,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23840,7 +23863,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23851,7 +23874,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23862,7 +23885,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23884,7 +23907,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23895,10 +23918,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D71" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23909,7 +23932,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23942,7 +23965,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23953,7 +23976,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23975,7 +23998,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -23986,7 +24009,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -23997,7 +24020,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24008,7 +24031,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24019,7 +24042,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24030,7 +24053,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24041,7 +24064,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24052,7 +24075,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24063,7 +24086,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24074,7 +24097,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24085,7 +24108,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24096,7 +24119,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24118,7 +24141,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24129,7 +24152,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24140,10 +24163,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D93" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24154,7 +24177,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24165,7 +24188,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24176,7 +24199,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24198,7 +24221,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24209,7 +24232,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24220,7 +24243,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24231,7 +24254,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24242,7 +24265,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24253,7 +24276,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24264,7 +24287,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24275,7 +24298,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24286,7 +24309,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24297,7 +24320,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24308,7 +24331,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24330,7 +24353,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24341,7 +24364,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24363,7 +24386,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24374,7 +24397,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24385,7 +24408,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24396,7 +24419,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24418,7 +24441,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24429,7 +24452,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24440,7 +24463,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24484,7 +24507,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24495,7 +24518,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24506,7 +24529,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24517,7 +24540,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24528,7 +24551,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24539,13 +24562,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24567,7 +24590,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24611,7 +24634,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24622,7 +24645,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24644,7 +24667,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24688,7 +24711,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24699,7 +24722,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24710,7 +24733,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24721,7 +24744,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24732,7 +24755,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24743,7 +24766,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24754,7 +24777,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24765,7 +24788,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24776,7 +24799,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24787,10 +24810,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D151" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24801,7 +24824,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24812,7 +24835,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24823,7 +24846,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24834,7 +24857,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24845,7 +24868,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24856,7 +24879,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24867,7 +24890,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24878,7 +24901,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24889,7 +24912,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24900,7 +24923,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24911,7 +24934,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24922,7 +24945,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24933,7 +24956,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24955,7 +24978,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24966,7 +24989,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24977,7 +25000,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24988,7 +25011,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -24999,7 +25022,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25010,7 +25033,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25021,7 +25044,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25032,7 +25055,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25043,7 +25066,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25054,7 +25077,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25065,7 +25088,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25087,7 +25110,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25098,7 +25121,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25109,7 +25132,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25120,10 +25143,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D181" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25134,7 +25157,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25145,7 +25168,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25156,7 +25179,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25167,7 +25190,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25178,7 +25201,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25189,7 +25212,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25211,7 +25234,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25222,7 +25245,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25233,7 +25256,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25244,7 +25267,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25255,7 +25278,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25266,7 +25289,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25277,7 +25300,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25288,7 +25311,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25299,7 +25322,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25310,7 +25333,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25321,7 +25344,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25332,7 +25355,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25343,7 +25366,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25354,7 +25377,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25365,7 +25388,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25376,7 +25399,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25387,7 +25410,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25398,7 +25421,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25409,7 +25432,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25420,7 +25443,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25431,7 +25454,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25442,7 +25465,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25453,7 +25476,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25464,7 +25487,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25475,7 +25498,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25486,7 +25509,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25508,13 +25531,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D216" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E216" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25525,7 +25548,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25536,7 +25559,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25547,7 +25570,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25558,7 +25581,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25569,7 +25592,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25580,7 +25603,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25602,7 +25625,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25613,7 +25636,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25624,7 +25647,7 @@
         <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25635,7 +25658,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25646,7 +25669,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25657,7 +25680,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25668,7 +25691,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25679,7 +25702,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25690,7 +25713,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25701,7 +25724,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25712,7 +25735,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25723,7 +25746,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25734,7 +25757,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25745,7 +25768,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25756,7 +25779,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25767,7 +25790,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25822,7 +25845,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25899,7 +25922,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25910,7 +25933,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -25921,7 +25944,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -25932,7 +25955,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -25943,7 +25966,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -25954,7 +25977,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -25965,7 +25988,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -25976,7 +25999,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -25987,7 +26010,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -25998,7 +26021,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,7 +26032,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26020,7 +26043,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26042,7 +26065,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26053,7 +26076,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26064,7 +26087,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26098,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26086,7 +26109,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26108,7 +26131,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26119,7 +26142,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26130,7 +26153,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26141,7 +26164,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26152,7 +26175,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26163,7 +26186,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26174,7 +26197,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26185,7 +26208,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26196,7 +26219,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26207,7 +26230,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26218,7 +26241,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26229,7 +26252,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26240,7 +26263,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26251,7 +26274,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26262,7 +26285,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26273,7 +26296,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26284,7 +26307,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26317,7 +26340,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26328,7 +26351,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26350,7 +26373,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26361,7 +26384,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26372,7 +26395,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26383,7 +26406,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26463,7 +26486,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26551,7 +26574,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26573,7 +26596,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26584,7 +26607,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26595,7 +26618,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26606,7 +26629,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26617,7 +26640,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26628,7 +26651,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26639,7 +26662,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26650,7 +26673,7 @@
         <v>411</v>
       </c>
       <c r="C319" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -26661,7 +26684,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26672,7 +26695,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26683,7 +26706,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26694,7 +26717,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26705,7 +26728,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26716,7 +26739,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26727,7 +26750,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26738,7 +26761,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26749,7 +26772,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26760,7 +26783,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26771,7 +26794,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26804,7 +26827,7 @@
         <v>253</v>
       </c>
       <c r="C333" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -26815,7 +26838,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26826,7 +26849,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,7 +26860,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26848,7 +26871,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26859,7 +26882,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26870,7 +26893,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26881,7 +26904,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26892,7 +26915,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26903,7 +26926,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -26914,7 +26937,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -26925,7 +26948,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -26936,7 +26959,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -26969,7 +26992,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -26980,7 +27003,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -26991,7 +27014,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27002,7 +27025,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27013,10 +27036,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D352" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27027,10 +27050,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D353" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27041,10 +27064,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D354" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27055,10 +27078,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D355" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27069,10 +27092,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D356" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27083,7 +27106,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27094,7 +27117,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27105,7 +27128,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27116,7 +27139,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27127,7 +27150,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27138,7 +27161,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27149,7 +27172,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27160,7 +27183,7 @@
         <v>99</v>
       </c>
       <c r="C364" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -27193,7 +27216,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27204,7 +27227,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27215,7 +27238,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27226,7 +27249,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27237,7 +27260,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27248,7 +27271,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27270,7 +27293,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27281,7 +27304,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27303,7 +27326,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27314,7 +27337,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27325,7 +27348,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27336,7 +27359,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27347,7 +27370,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27358,7 +27381,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27369,7 +27392,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27380,7 +27403,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27391,7 +27414,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27402,7 +27425,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27413,7 +27436,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27424,7 +27447,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27435,7 +27458,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27446,7 +27469,7 @@
         <v>300</v>
       </c>
       <c r="C390" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -27457,7 +27480,7 @@
         <v>303</v>
       </c>
       <c r="C391" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -27468,7 +27491,7 @@
         <v>310</v>
       </c>
       <c r="C392" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -27479,7 +27502,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27490,7 +27513,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27501,7 +27524,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27512,7 +27535,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27523,7 +27546,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27534,7 +27557,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27545,7 +27568,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27784,7 +27807,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27795,7 +27818,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27806,7 +27829,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27817,7 +27840,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27838,7 +27861,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27849,7 +27872,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27860,7 +27883,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27871,7 +27894,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -27904,7 +27927,7 @@
         <v>252</v>
       </c>
       <c r="C436" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -27915,7 +27938,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -27926,7 +27949,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -27953,12 +27976,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -27975,7 +27998,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -27995,13 +28018,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28015,7 +28038,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28030,7 +28053,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -28067,84 +28090,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="743">
   <si>
     <t>Purpose</t>
   </si>
@@ -3581,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21781,8 +21781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22883,10 +22883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23076,6 +23076,14 @@
       </c>
       <c r="B23" t="s">
         <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -23090,8 +23098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="744">
   <si>
     <t>Purpose</t>
   </si>
@@ -2264,6 +2264,9 @@
   </si>
   <si>
     <t>3 = Again</t>
+  </si>
+  <si>
+    <t>Weird Ed: Should storm lab</t>
   </si>
 </sst>
 </file>
@@ -3581,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21779,10 +21782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22457,188 +22460,185 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E54" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>481</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" t="s">
-        <v>210</v>
-      </c>
-      <c r="G55" t="s">
-        <v>211</v>
-      </c>
-      <c r="H55" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="G56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" t="s">
+        <v>295</v>
+      </c>
+      <c r="I56" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>79</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>342</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>80</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>344</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>223</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>81</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>574</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
-      </c>
-      <c r="F60" t="s">
-        <v>296</v>
-      </c>
-      <c r="G60" t="s">
-        <v>297</v>
-      </c>
-      <c r="H60" t="s">
-        <v>595</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>576</v>
+        <v>574</v>
+      </c>
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>408</v>
-      </c>
-      <c r="E62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>90</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>90</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>104</v>
+      <c r="D65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>91</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
         <v>90</v>
@@ -22646,229 +22646,243 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" t="s">
-        <v>223</v>
-      </c>
-      <c r="F69" t="s">
-        <v>224</v>
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>735</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s">
-        <v>732</v>
-      </c>
-      <c r="G73" t="s">
-        <v>731</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>735</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>732</v>
+      </c>
+      <c r="G74" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>740</v>
-      </c>
-      <c r="D75" t="s">
-        <v>741</v>
-      </c>
-      <c r="E75" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>742</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>321</v>
+        <v>740</v>
+      </c>
+      <c r="D76" t="s">
+        <v>741</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
-      </c>
-      <c r="G76" t="s">
-        <v>319</v>
-      </c>
-      <c r="H76" t="s">
-        <v>320</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C77" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77" t="s">
+        <v>319</v>
+      </c>
+      <c r="H77" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>509</v>
-      </c>
-      <c r="E78" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>509</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>122</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" t="s">
-        <v>71</v>
-      </c>
-      <c r="F83" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>126</v>
       </c>
-      <c r="C85" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>127</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" t="s">
-        <v>26</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>629</v>
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>616</v>
-      </c>
-      <c r="E88" t="s">
-        <v>224</v>
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>616</v>
+      </c>
+      <c r="E89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>137</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>586</v>
       </c>
     </row>
@@ -23098,8 +23112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="748">
   <si>
     <t>Purpose</t>
   </si>
@@ -565,9 +565,6 @@
     <t>Green Tentacle: Block until player feeds</t>
   </si>
   <si>
-    <t>Plant&gt;?</t>
-  </si>
-  <si>
     <t>Telephone Number: Meteor Police (Active)</t>
   </si>
   <si>
@@ -2267,6 +2264,21 @@
   </si>
   <si>
     <t>Weird Ed: Should storm lab</t>
+  </si>
+  <si>
+    <t>Plant Size</t>
+  </si>
+  <si>
+    <t>0 =  Small</t>
+  </si>
+  <si>
+    <t>1 = Medium</t>
+  </si>
+  <si>
+    <t>2 = Full Size</t>
+  </si>
+  <si>
+    <t>255 = Dead</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2610,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,7 +2621,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2650,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2742,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2766,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2774,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2798,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2806,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2814,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2852,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" t="s">
         <v>518</v>
-      </c>
-      <c r="D1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2865,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2879,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2893,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2907,13 +2919,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2921,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2935,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2949,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2963,7 +2975,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2977,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -2991,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3005,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3019,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3033,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3047,7 +3059,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3061,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3075,7 +3087,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3089,7 +3101,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3103,7 +3115,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3117,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3145,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3159,7 +3171,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3173,7 +3185,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3187,7 +3199,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3201,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3215,7 +3227,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3229,7 +3241,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3243,7 +3255,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3257,7 +3269,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3271,7 +3283,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3285,7 +3297,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3299,7 +3311,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3313,7 +3325,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3327,7 +3339,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3341,7 +3353,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3355,7 +3367,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3369,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3383,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3397,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3411,7 +3423,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3425,7 +3437,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3439,7 +3451,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3453,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3467,7 +3479,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3481,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3495,7 +3507,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3509,7 +3521,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3523,7 +3535,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3537,7 +3549,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3551,7 +3563,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3565,7 +3577,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3584,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3627,7 @@
         <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,7 +3671,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3670,7 +3682,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,7 +3693,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,7 +3704,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,7 +3748,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,7 +3759,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,7 +3770,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3780,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,7 +3902,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,7 +3913,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,7 +3924,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3973,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -3987,7 +3999,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,7 +4010,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4067,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,7 +4129,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4161,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4172,7 +4184,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4180,7 +4192,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4191,7 +4203,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4202,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4224,7 +4236,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4236,7 +4248,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20627,10 +20639,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20641,10 +20653,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20655,10 +20667,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" t="s">
         <v>220</v>
-      </c>
-      <c r="F59" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20669,7 +20681,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20680,7 +20692,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20691,7 +20703,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20702,7 +20714,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20713,7 +20725,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20724,7 +20736,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20735,7 +20747,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20754,7 +20766,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20765,7 +20777,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20773,10 +20785,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20787,7 +20799,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20795,7 +20807,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20806,7 +20818,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20817,7 +20829,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20828,7 +20840,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20839,7 +20851,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20850,7 +20862,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20861,7 +20873,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20872,7 +20884,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20883,7 +20895,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20894,7 +20906,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20905,10 +20917,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" t="s">
         <v>260</v>
-      </c>
-      <c r="F82" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20919,10 +20931,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>404</v>
+      </c>
+      <c r="F83" t="s">
         <v>405</v>
-      </c>
-      <c r="F83" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20933,7 +20945,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20944,7 +20956,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20955,7 +20967,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20966,7 +20978,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20977,7 +20989,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -21002,7 +21014,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21013,7 +21025,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21038,7 +21050,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21049,7 +21061,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21071,7 +21083,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21082,7 +21094,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21093,7 +21105,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21104,7 +21116,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21115,10 +21127,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21129,7 +21141,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21140,7 +21152,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21151,7 +21163,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21162,7 +21174,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21173,7 +21185,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21184,7 +21196,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21195,7 +21207,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21217,7 +21229,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21228,7 +21240,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21239,7 +21251,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21250,10 +21262,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>302</v>
+      </c>
+      <c r="F112" t="s">
         <v>303</v>
-      </c>
-      <c r="F112" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21264,10 +21276,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21278,7 +21290,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21292,7 +21304,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21303,7 +21315,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21314,7 +21326,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21325,7 +21337,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21336,7 +21348,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21347,7 +21359,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21358,7 +21370,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21369,7 +21381,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21380,7 +21392,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21391,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21416,7 +21428,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21427,7 +21439,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21438,7 +21450,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21463,7 +21475,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21474,7 +21486,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21485,10 +21497,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>619</v>
+      </c>
+      <c r="F132" t="s">
         <v>620</v>
-      </c>
-      <c r="F132" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21499,7 +21511,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21521,7 +21533,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21532,7 +21544,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21543,7 +21555,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21554,7 +21566,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21565,7 +21577,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21576,10 +21588,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21590,7 +21602,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21615,7 +21627,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21623,7 +21635,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21648,7 +21660,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21676,7 +21688,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21687,10 +21699,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>335</v>
+      </c>
+      <c r="E149" t="s">
         <v>336</v>
-      </c>
-      <c r="E149" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21701,7 +21713,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21712,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21723,7 +21735,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21734,7 +21746,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21745,7 +21757,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21756,10 +21768,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E155" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21782,10 +21794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21824,7 +21836,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21832,10 +21844,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21843,22 +21855,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" t="s">
         <v>284</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" t="s">
         <v>285</v>
       </c>
-      <c r="F4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>286</v>
       </c>
-      <c r="H4" t="s">
-        <v>287</v>
-      </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21889,16 +21901,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21906,13 +21918,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" t="s">
         <v>617</v>
       </c>
-      <c r="F7" t="s">
-        <v>618</v>
-      </c>
       <c r="G7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21920,10 +21932,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
         <v>325</v>
-      </c>
-      <c r="E8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21939,19 +21951,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10" t="s">
         <v>633</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>634</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>635</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>636</v>
-      </c>
-      <c r="H10" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21959,19 +21971,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21979,13 +21991,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -21993,16 +22005,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22010,13 +22022,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22024,402 +22036,414 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>743</v>
+      </c>
+      <c r="E16" t="s">
+        <v>744</v>
+      </c>
+      <c r="F16" t="s">
+        <v>745</v>
+      </c>
+      <c r="G16" t="s">
+        <v>746</v>
+      </c>
+      <c r="H16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="s">
         <v>623</v>
       </c>
-      <c r="E16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G17" t="s">
         <v>624</v>
       </c>
-      <c r="G16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>45</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>570</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
-        <v>640</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" t="s">
-        <v>124</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>639</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>730</v>
-      </c>
-      <c r="E36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" t="s">
-        <v>224</v>
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>735</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>61</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>62</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" t="s">
-        <v>257</v>
+      <c r="G44" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>255</v>
+      </c>
+      <c r="G45" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>424</v>
-      </c>
-      <c r="G46" t="s">
-        <v>236</v>
-      </c>
-      <c r="H46" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>575</v>
+        <v>207</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -22427,7 +22451,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -22435,7 +22459,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -22443,216 +22467,210 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>743</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>742</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>480</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" t="s">
-        <v>295</v>
-      </c>
-      <c r="I56" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="G57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" t="s">
+        <v>294</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>79</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="E58" t="s">
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>80</v>
-      </c>
-      <c r="C59" t="s">
-        <v>344</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" t="s">
         <v>223</v>
-      </c>
-      <c r="F59" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>574</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
-      </c>
-      <c r="F61" t="s">
-        <v>296</v>
-      </c>
-      <c r="G61" t="s">
-        <v>297</v>
-      </c>
-      <c r="H61" t="s">
-        <v>595</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="E62" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
-      </c>
-      <c r="E63" t="s">
-        <v>223</v>
-      </c>
-      <c r="F63" t="s">
-        <v>409</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>104</v>
+      <c r="D66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>91</v>
-      </c>
-      <c r="D67" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>91</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
         <v>90</v>
@@ -22660,230 +22678,244 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" t="s">
-        <v>224</v>
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>221</v>
+      </c>
+      <c r="E71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>735</v>
-      </c>
-      <c r="D74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s">
-        <v>732</v>
-      </c>
-      <c r="G74" t="s">
-        <v>731</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>105</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>734</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>731</v>
+      </c>
+      <c r="G75" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>740</v>
-      </c>
-      <c r="D76" t="s">
-        <v>741</v>
-      </c>
-      <c r="E76" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" t="s">
-        <v>742</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>739</v>
+      </c>
+      <c r="D77" t="s">
+        <v>740</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>318</v>
-      </c>
-      <c r="G77" t="s">
-        <v>319</v>
-      </c>
-      <c r="H77" t="s">
-        <v>320</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" t="s">
+        <v>316</v>
+      </c>
+      <c r="F78" t="s">
+        <v>317</v>
+      </c>
+      <c r="G78" t="s">
+        <v>318</v>
+      </c>
+      <c r="H78" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
-        <v>509</v>
-      </c>
-      <c r="E79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>508</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>122</v>
-      </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>126</v>
       </c>
-      <c r="C86" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>127</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" t="s">
-        <v>26</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>629</v>
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>616</v>
-      </c>
-      <c r="E89" t="s">
-        <v>224</v>
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>615</v>
+      </c>
+      <c r="E90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>137</v>
       </c>
-      <c r="C90" t="s">
-        <v>586</v>
+      <c r="C91" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -22913,7 +22945,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22921,7 +22953,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22929,7 +22961,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22937,7 +22969,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22945,7 +22977,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22961,7 +22993,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22969,7 +23001,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -22977,7 +23009,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22985,7 +23017,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22993,7 +23025,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23001,7 +23033,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23009,7 +23041,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23017,7 +23049,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23025,7 +23057,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23033,7 +23065,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23041,7 +23073,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23049,7 +23081,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23057,7 +23089,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -23065,7 +23097,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23073,7 +23105,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23081,7 +23113,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23089,7 +23121,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23097,7 +23129,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -23112,8 +23144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23134,13 +23166,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23384,7 +23416,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23406,7 +23438,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23417,7 +23449,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23428,7 +23460,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23439,7 +23471,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23450,7 +23482,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23461,7 +23493,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23472,7 +23504,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23516,7 +23548,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23527,7 +23559,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23538,7 +23570,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23560,7 +23592,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23593,7 +23625,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23604,7 +23636,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23615,7 +23647,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23626,7 +23658,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23637,7 +23669,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23659,7 +23691,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23670,7 +23702,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23681,7 +23713,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23692,7 +23724,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23703,7 +23735,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23714,7 +23746,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23725,7 +23757,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23736,7 +23768,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23747,7 +23779,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23780,13 +23812,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23797,7 +23829,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23808,7 +23840,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23819,7 +23851,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23830,7 +23862,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23841,7 +23873,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23852,7 +23884,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23863,7 +23895,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23885,7 +23917,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23896,7 +23928,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23907,7 +23939,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23929,7 +23961,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23940,10 +23972,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D71" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23954,7 +23986,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23987,7 +24019,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23998,7 +24030,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24020,7 +24052,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24031,7 +24063,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24042,7 +24074,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24053,7 +24085,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24064,7 +24096,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24075,7 +24107,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24086,7 +24118,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24097,7 +24129,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24108,7 +24140,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24119,7 +24151,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24130,7 +24162,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24141,7 +24173,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24163,7 +24195,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24174,7 +24206,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24185,10 +24217,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D93" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24199,7 +24231,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24210,7 +24242,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24221,7 +24253,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24243,7 +24275,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24254,7 +24286,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24265,7 +24297,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24276,7 +24308,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24287,7 +24319,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24298,7 +24330,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24309,7 +24341,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24320,7 +24352,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24331,7 +24363,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24342,7 +24374,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24353,7 +24385,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24375,7 +24407,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24386,7 +24418,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24408,7 +24440,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24419,7 +24451,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24430,7 +24462,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24441,7 +24473,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24463,7 +24495,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24474,7 +24506,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24485,7 +24517,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24529,7 +24561,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24540,7 +24572,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24551,7 +24583,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24562,7 +24594,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24573,7 +24605,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24584,13 +24616,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24612,7 +24644,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24656,7 +24688,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24667,7 +24699,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24689,7 +24721,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24733,7 +24765,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24744,7 +24776,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24755,7 +24787,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24766,7 +24798,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24777,7 +24809,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24788,7 +24820,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24799,7 +24831,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24810,7 +24842,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24821,7 +24853,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24832,10 +24864,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24846,7 +24878,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24857,7 +24889,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24868,7 +24900,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24879,7 +24911,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24890,7 +24922,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24901,7 +24933,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24912,7 +24944,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24923,7 +24955,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24934,7 +24966,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24945,7 +24977,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24956,7 +24988,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24967,7 +24999,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24978,7 +25010,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25000,7 +25032,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25011,7 +25043,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25022,7 +25054,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25033,7 +25065,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25044,7 +25076,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25055,7 +25087,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25066,7 +25098,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25077,7 +25109,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25088,7 +25120,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25099,7 +25131,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25110,7 +25142,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25132,7 +25164,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25143,7 +25175,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25154,7 +25186,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25165,10 +25197,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D181" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25179,7 +25211,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25190,7 +25222,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25201,7 +25233,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25212,7 +25244,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25223,7 +25255,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25234,7 +25266,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25256,7 +25288,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25267,7 +25299,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25278,7 +25310,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25289,7 +25321,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25300,7 +25332,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25311,7 +25343,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25322,7 +25354,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25333,7 +25365,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25344,7 +25376,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25355,7 +25387,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25366,7 +25398,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25377,7 +25409,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25388,7 +25420,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25399,7 +25431,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25410,7 +25442,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25421,7 +25453,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25432,7 +25464,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25443,7 +25475,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25454,7 +25486,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25465,7 +25497,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25476,7 +25508,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25487,7 +25519,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25498,7 +25530,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25509,7 +25541,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25520,7 +25552,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25531,7 +25563,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25553,13 +25585,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D216" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E216" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25570,7 +25602,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25581,7 +25613,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25592,7 +25624,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25603,7 +25635,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25614,7 +25646,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25625,7 +25657,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25647,7 +25679,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25658,7 +25690,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25669,7 +25701,7 @@
         <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25680,7 +25712,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25691,7 +25723,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25702,7 +25734,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25713,7 +25745,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25724,7 +25756,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25735,7 +25767,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25746,7 +25778,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25757,7 +25789,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25768,7 +25800,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25779,7 +25811,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25790,7 +25822,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25801,7 +25833,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25812,7 +25844,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25867,7 +25899,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25944,7 +25976,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25955,7 +25987,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -25966,7 +25998,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -25977,7 +26009,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -25988,7 +26020,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -25999,7 +26031,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26010,7 +26042,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26021,7 +26053,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26032,7 +26064,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26043,7 +26075,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26054,7 +26086,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26065,7 +26097,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26087,7 +26119,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26098,7 +26130,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26109,7 +26141,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26120,7 +26152,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26131,7 +26163,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26153,7 +26185,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26164,7 +26196,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26175,7 +26207,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26186,7 +26218,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26197,7 +26229,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26208,7 +26240,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26219,7 +26251,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26230,7 +26262,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26241,7 +26273,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26252,7 +26284,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26263,7 +26295,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26274,7 +26306,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26285,7 +26317,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26296,7 +26328,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26307,7 +26339,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26318,7 +26350,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26329,7 +26361,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26362,7 +26394,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26373,7 +26405,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26395,7 +26427,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26406,7 +26438,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26417,7 +26449,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26428,7 +26460,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26508,7 +26540,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26596,7 +26628,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26618,7 +26650,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26629,7 +26661,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26640,7 +26672,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26651,7 +26683,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26662,7 +26694,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26673,7 +26705,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26684,7 +26716,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26695,7 +26727,7 @@
         <v>411</v>
       </c>
       <c r="C319" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -26706,7 +26738,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26717,7 +26749,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26728,7 +26760,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26739,7 +26771,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26750,7 +26782,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26761,7 +26793,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26772,7 +26804,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26783,7 +26815,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26794,7 +26826,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26805,7 +26837,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26816,7 +26848,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26849,7 +26881,7 @@
         <v>253</v>
       </c>
       <c r="C333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -26860,7 +26892,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26871,7 +26903,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26882,7 +26914,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26893,7 +26925,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26904,7 +26936,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26915,7 +26947,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26926,7 +26958,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26937,7 +26969,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26948,7 +26980,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -26959,7 +26991,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -26970,7 +27002,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -26981,7 +27013,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27014,7 +27046,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27025,7 +27057,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27036,7 +27068,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27047,7 +27079,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27058,10 +27090,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D352" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27072,10 +27104,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D353" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27086,10 +27118,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D354" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27100,10 +27132,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D355" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27114,10 +27146,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D356" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27128,7 +27160,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27139,7 +27171,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27150,7 +27182,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27161,7 +27193,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27172,7 +27204,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27183,7 +27215,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27194,7 +27226,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27205,7 +27237,7 @@
         <v>99</v>
       </c>
       <c r="C364" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -27238,7 +27270,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27249,7 +27281,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27260,7 +27292,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27271,7 +27303,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27282,7 +27314,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27293,7 +27325,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27315,7 +27347,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27326,7 +27358,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27348,7 +27380,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27359,7 +27391,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27370,7 +27402,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27381,7 +27413,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27392,7 +27424,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27403,7 +27435,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27414,7 +27446,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27425,7 +27457,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27436,7 +27468,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27447,7 +27479,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27458,7 +27490,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27469,7 +27501,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27480,7 +27512,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27491,7 +27523,7 @@
         <v>300</v>
       </c>
       <c r="C390" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -27502,7 +27534,7 @@
         <v>303</v>
       </c>
       <c r="C391" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -27513,7 +27545,7 @@
         <v>310</v>
       </c>
       <c r="C392" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -27524,7 +27556,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27535,7 +27567,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27546,7 +27578,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27557,7 +27589,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27568,7 +27600,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27579,7 +27611,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27590,7 +27622,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27829,7 +27861,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27840,7 +27872,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27851,7 +27883,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27862,7 +27894,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27883,7 +27915,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27894,7 +27926,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27905,7 +27937,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27916,7 +27948,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -27949,7 +27981,7 @@
         <v>252</v>
       </c>
       <c r="C436" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -27960,7 +27992,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -27971,7 +28003,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -27998,12 +28030,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -28020,7 +28052,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28040,13 +28072,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28060,7 +28092,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28075,7 +28107,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -28089,7 +28121,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28112,84 +28144,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -3597,7 +3597,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21796,8 +21796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="749">
   <si>
     <t>Purpose</t>
   </si>
@@ -1930,9 +1930,6 @@
     <t>Green Tentacle: Block player passing</t>
   </si>
   <si>
-    <t>Telescope Rotate</t>
-  </si>
-  <si>
     <t>Telescope: Current Room</t>
   </si>
   <si>
@@ -2279,6 +2276,12 @@
   </si>
   <si>
     <t>255 = Dead</t>
+  </si>
+  <si>
+    <t>Steel Door</t>
+  </si>
+  <si>
+    <t>Rotate</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -3269,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3395,7 +3398,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3596,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,7 +3988,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -4010,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4079,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4151,7 +4154,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -20829,7 +20832,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -21796,8 +21799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21907,10 +21910,10 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21951,19 +21954,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E10" t="s">
         <v>632</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>633</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>634</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>635</v>
-      </c>
-      <c r="H10" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21977,7 +21980,7 @@
         <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G11" t="s">
         <v>246</v>
@@ -22011,7 +22014,7 @@
         <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G13" t="s">
         <v>246</v>
@@ -22022,7 +22025,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E14" t="s">
         <v>222</v>
@@ -22042,7 +22045,7 @@
         <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G15" t="s">
         <v>246</v>
@@ -22053,19 +22056,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>742</v>
+      </c>
+      <c r="E16" t="s">
         <v>743</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>744</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>745</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>746</v>
-      </c>
-      <c r="H16" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22229,7 +22232,7 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E35" t="s">
         <v>123</v>
@@ -22263,7 +22266,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E37" t="s">
         <v>222</v>
@@ -22277,7 +22280,7 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E38" t="s">
         <v>307</v>
@@ -22495,7 +22498,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E55" t="s">
         <v>223</v>
@@ -22733,7 +22736,7 @@
         <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D75" t="s">
         <v>76</v>
@@ -22742,10 +22745,10 @@
         <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G75" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -22767,16 +22770,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
+        <v>738</v>
+      </c>
+      <c r="D77" t="s">
         <v>739</v>
-      </c>
-      <c r="D77" t="s">
-        <v>740</v>
       </c>
       <c r="E77" t="s">
         <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -22929,10 +22932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22993,7 +22996,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>631</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23009,7 +23012,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23025,7 +23028,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23081,7 +23084,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23097,7 +23100,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23105,7 +23108,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23113,7 +23116,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23121,7 +23124,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23130,6 +23133,14 @@
       </c>
       <c r="B24" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -23144,8 +23155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C313" sqref="C313"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23172,7 +23183,7 @@
         <v>402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23818,7 +23829,7 @@
         <v>476</v>
       </c>
       <c r="E57" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23972,10 +23983,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D71" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23986,7 +23997,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24220,7 +24231,7 @@
         <v>378</v>
       </c>
       <c r="D93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24561,7 +24572,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24572,7 +24583,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24583,7 +24594,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24594,7 +24605,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24688,7 +24699,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24699,7 +24710,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24765,7 +24776,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24776,7 +24787,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24787,7 +24798,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24798,7 +24809,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24809,7 +24820,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24820,7 +24831,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24831,7 +24842,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24842,7 +24853,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24864,7 +24875,7 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D151" t="s">
         <v>592</v>
@@ -24878,7 +24889,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24900,7 +24911,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -25288,7 +25299,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25299,7 +25310,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25310,7 +25321,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25321,7 +25332,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25332,7 +25343,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25343,7 +25354,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25354,7 +25365,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25365,7 +25376,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25442,7 +25453,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25453,7 +25464,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25464,7 +25475,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25475,7 +25486,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25486,7 +25497,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25497,7 +25508,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25508,7 +25519,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25519,7 +25530,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25530,7 +25541,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25541,7 +25552,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25552,7 +25563,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25563,7 +25574,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25588,10 +25599,10 @@
         <v>470</v>
       </c>
       <c r="D216" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E216" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25976,7 +25987,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,7 +26020,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26020,7 +26031,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26031,7 +26042,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26042,7 +26053,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26053,7 +26064,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26064,7 +26075,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26086,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26086,7 +26097,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26097,7 +26108,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26119,7 +26130,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26130,7 +26141,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26152,7 +26163,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26163,7 +26174,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26405,7 +26416,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26427,7 +26438,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26449,7 +26460,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26460,7 +26471,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26628,7 +26639,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26650,7 +26661,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26661,7 +26672,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26672,7 +26683,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26683,7 +26694,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26694,7 +26705,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26738,7 +26749,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26749,7 +26760,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26760,7 +26771,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26771,7 +26782,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26782,7 +26793,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26804,7 +26815,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26815,7 +26826,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26826,7 +26837,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,7 +26848,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26848,7 +26859,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -27079,7 +27090,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27270,7 +27281,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27281,7 +27292,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27292,7 +27303,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27303,7 +27314,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27314,7 +27325,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27325,7 +27336,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27347,7 +27358,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27358,7 +27369,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27402,7 +27413,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27413,7 +27424,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27424,7 +27435,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27446,7 +27457,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27915,7 +27926,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27926,7 +27937,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27937,7 +27948,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="4"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -664,9 +664,6 @@
     <t>1 = Radioactive steam</t>
   </si>
   <si>
-    <t>2 = Poison</t>
-  </si>
-  <si>
     <t>3 = Ed Kills you</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
     <t>Cutscene: Game Over</t>
   </si>
   <si>
-    <t>Game Over Method</t>
-  </si>
-  <si>
     <t>3 = All Died</t>
   </si>
   <si>
@@ -2282,6 +2276,12 @@
   </si>
   <si>
     <t>Rotate</t>
+  </si>
+  <si>
+    <t>2 = Pool</t>
+  </si>
+  <si>
+    <t>Kid Death Count</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -2855,10 +2855,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2908,7 +2908,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2922,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2992,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3006,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3020,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3034,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3048,7 +3048,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3062,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3090,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3104,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3132,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3160,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3174,7 +3174,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3188,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3202,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3216,7 +3216,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3230,7 +3230,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3244,7 +3244,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3258,7 +3258,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3272,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3286,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3300,7 +3300,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3328,7 +3328,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3370,7 +3370,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3384,7 +3384,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3398,7 +3398,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3412,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3426,7 +3426,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3440,7 +3440,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3468,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3510,7 +3510,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3538,7 +3538,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3552,7 +3552,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3580,7 +3580,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3599,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3630,7 @@
         <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4206,7 +4206,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20642,10 +20642,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20656,10 +20656,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20670,10 +20670,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20684,7 +20684,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20695,7 +20695,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20706,7 +20706,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20717,7 +20717,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20728,7 +20728,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20739,7 +20739,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20750,7 +20750,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20769,7 +20769,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20780,7 +20780,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20791,7 +20791,7 @@
         <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20802,7 +20802,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20810,7 +20810,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20821,7 +20821,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20832,7 +20832,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20843,7 +20843,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20854,7 +20854,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20865,7 +20865,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20876,7 +20876,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20887,7 +20887,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20898,7 +20898,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20909,7 +20909,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20920,10 +20920,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20934,10 +20934,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F83" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20948,7 +20948,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20959,7 +20959,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20970,7 +20970,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -20981,7 +20981,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -20992,7 +20992,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -21017,7 +21017,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21028,7 +21028,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21053,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21064,7 +21064,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21086,7 +21086,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21097,7 +21097,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21108,7 +21108,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21119,7 +21119,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21130,10 +21130,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21144,7 +21144,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21155,7 +21155,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21177,7 +21177,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21188,7 +21188,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21199,7 +21199,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21210,7 +21210,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21232,7 +21232,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21243,7 +21243,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21254,7 +21254,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21265,10 +21265,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F112" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21279,10 +21279,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F113" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21293,7 +21293,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21307,7 +21307,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21318,7 +21318,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21329,7 +21329,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21340,7 +21340,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21351,7 +21351,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21362,7 +21362,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21373,7 +21373,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21384,7 +21384,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21395,7 +21395,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21431,7 +21431,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21442,7 +21442,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21453,7 +21453,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21478,7 +21478,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21489,7 +21489,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21500,10 +21500,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F132" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21514,7 +21514,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21536,7 +21536,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21547,7 +21547,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21558,7 +21558,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21569,7 +21569,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21580,7 +21580,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21591,10 +21591,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F140" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21605,7 +21605,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21630,7 +21630,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21638,7 +21638,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21663,7 +21663,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21691,7 +21691,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21702,10 +21702,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E149" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21716,7 +21716,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21727,7 +21727,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21738,7 +21738,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21749,7 +21749,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21760,7 +21760,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21771,10 +21771,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E155" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21799,8 +21799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21839,7 +21839,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21847,10 +21847,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21858,22 +21858,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
         <v>283</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>284</v>
       </c>
-      <c r="F4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21904,16 +21904,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21921,13 +21921,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21935,10 +21935,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21954,19 +21954,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>629</v>
+      </c>
+      <c r="E10" t="s">
+        <v>630</v>
+      </c>
+      <c r="F10" t="s">
         <v>631</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>632</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>633</v>
-      </c>
-      <c r="G10" t="s">
-        <v>634</v>
-      </c>
-      <c r="H10" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21974,19 +21974,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21994,13 +21994,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -22008,16 +22008,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" t="s">
+        <v>656</v>
+      </c>
+      <c r="G13" t="s">
         <v>244</v>
-      </c>
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" t="s">
-        <v>658</v>
-      </c>
-      <c r="G13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22025,13 +22025,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22039,16 +22039,16 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22056,19 +22056,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>740</v>
+      </c>
+      <c r="E16" t="s">
+        <v>741</v>
+      </c>
+      <c r="F16" t="s">
         <v>742</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>743</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>744</v>
-      </c>
-      <c r="G16" t="s">
-        <v>745</v>
-      </c>
-      <c r="H16" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22076,16 +22076,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>621</v>
+      </c>
+      <c r="G17" t="s">
         <v>622</v>
-      </c>
-      <c r="E17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G17" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22157,7 +22157,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22165,7 +22165,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -22173,7 +22173,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -22181,7 +22181,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22221,7 +22221,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22232,7 +22232,7 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
         <v>123</v>
@@ -22266,13 +22266,13 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22280,13 +22280,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22362,7 +22362,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22370,16 +22370,16 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" t="s">
         <v>254</v>
-      </c>
-      <c r="E45" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" t="s">
-        <v>255</v>
-      </c>
-      <c r="G45" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22387,13 +22387,13 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22404,16 +22404,16 @@
         <v>207</v>
       </c>
       <c r="E47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" t="s">
         <v>234</v>
-      </c>
-      <c r="F47" t="s">
-        <v>423</v>
-      </c>
-      <c r="G47" t="s">
-        <v>235</v>
-      </c>
-      <c r="H47" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22421,7 +22421,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22490,7 +22490,7 @@
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22498,10 +22498,10 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -22509,10 +22509,10 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22520,22 +22520,22 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
         <v>208</v>
       </c>
       <c r="F57" t="s">
+        <v>747</v>
+      </c>
+      <c r="G57" t="s">
         <v>209</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>292</v>
+      </c>
+      <c r="I57" t="s">
         <v>210</v>
-      </c>
-      <c r="H57" t="s">
-        <v>294</v>
-      </c>
-      <c r="I57" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -22543,13 +22543,13 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
+        <v>748</v>
+      </c>
+      <c r="E58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" t="s">
         <v>214</v>
-      </c>
-      <c r="E58" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22557,10 +22557,10 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22568,13 +22568,13 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22596,19 +22596,19 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22616,7 +22616,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22624,13 +22624,13 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -22698,13 +22698,13 @@
         <v>96</v>
       </c>
       <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" t="s">
         <v>221</v>
-      </c>
-      <c r="E71" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -22736,7 +22736,7 @@
         <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D75" t="s">
         <v>76</v>
@@ -22745,10 +22745,10 @@
         <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G75" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -22770,16 +22770,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D77" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E77" t="s">
         <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -22787,19 +22787,19 @@
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" t="s">
         <v>316</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>317</v>
-      </c>
-      <c r="G78" t="s">
-        <v>318</v>
-      </c>
-      <c r="H78" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -22812,13 +22812,13 @@
         <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -22871,7 +22871,7 @@
         <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -22899,7 +22899,7 @@
         <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -22907,10 +22907,10 @@
         <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -22918,7 +22918,7 @@
         <v>137</v>
       </c>
       <c r="C91" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -22934,8 +22934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22948,7 +22948,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22956,7 +22956,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22964,7 +22964,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22972,7 +22972,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22980,7 +22980,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22996,7 +22996,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23004,7 +23004,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23012,7 +23012,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23020,7 +23020,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23028,7 +23028,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23036,7 +23036,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23044,7 +23044,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23052,7 +23052,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23060,7 +23060,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23068,7 +23068,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23076,7 +23076,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23084,7 +23084,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23100,7 +23100,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23108,7 +23108,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23116,7 +23116,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23124,7 +23124,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23132,7 +23132,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23140,7 +23140,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -23155,8 +23155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23177,13 +23177,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23427,7 +23427,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23449,7 +23449,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23460,7 +23460,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23471,7 +23471,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23482,7 +23482,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23493,7 +23493,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23504,7 +23504,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23515,7 +23515,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23559,7 +23559,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23570,7 +23570,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23581,7 +23581,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23603,7 +23603,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23636,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23647,7 +23647,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23658,7 +23658,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23669,7 +23669,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23680,7 +23680,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23702,7 +23702,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23713,7 +23713,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23724,7 +23724,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23735,7 +23735,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23746,7 +23746,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23757,7 +23757,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23768,7 +23768,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23779,7 +23779,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23790,7 +23790,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23823,13 +23823,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D57" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E57" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23840,7 +23840,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23851,7 +23851,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23862,7 +23862,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23873,7 +23873,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23884,7 +23884,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23895,7 +23895,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23906,7 +23906,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23928,7 +23928,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23939,7 +23939,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23950,7 +23950,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23972,7 +23972,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23983,10 +23983,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D71" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23997,7 +23997,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24030,7 +24030,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24041,7 +24041,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24063,7 +24063,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24074,7 +24074,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24085,7 +24085,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24096,7 +24096,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24107,7 +24107,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24118,7 +24118,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24129,7 +24129,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24140,7 +24140,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24151,7 +24151,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24162,7 +24162,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24173,7 +24173,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24184,7 +24184,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24206,7 +24206,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24217,7 +24217,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24228,10 +24228,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D93" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24242,7 +24242,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24253,7 +24253,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24264,7 +24264,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24286,7 +24286,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24297,7 +24297,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24308,7 +24308,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24319,7 +24319,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24330,7 +24330,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24341,7 +24341,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24352,7 +24352,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24363,7 +24363,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24374,7 +24374,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24385,7 +24385,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24396,7 +24396,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24418,7 +24418,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24429,7 +24429,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24451,7 +24451,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24462,7 +24462,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24473,7 +24473,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24484,7 +24484,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24506,7 +24506,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24517,7 +24517,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24528,7 +24528,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24572,7 +24572,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24583,7 +24583,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24594,7 +24594,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24605,7 +24605,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24616,7 +24616,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24627,13 +24627,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24655,7 +24655,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24699,7 +24699,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24710,7 +24710,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24732,7 +24732,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24776,7 +24776,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24787,7 +24787,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24798,7 +24798,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24809,7 +24809,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24831,7 +24831,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24842,7 +24842,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24853,7 +24853,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24864,7 +24864,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24875,10 +24875,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D151" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24889,7 +24889,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24900,7 +24900,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24911,7 +24911,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24922,7 +24922,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24933,7 +24933,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24944,7 +24944,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24955,7 +24955,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24966,7 +24966,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24977,7 +24977,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24988,7 +24988,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24999,7 +24999,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25021,7 +25021,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25043,7 +25043,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25054,7 +25054,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25065,7 +25065,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25076,7 +25076,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25087,7 +25087,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25098,7 +25098,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25109,7 +25109,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25120,7 +25120,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25131,7 +25131,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25142,7 +25142,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25153,7 +25153,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25175,7 +25175,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25186,7 +25186,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25197,7 +25197,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25208,10 +25208,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D181" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25222,7 +25222,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25233,7 +25233,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25244,7 +25244,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25255,7 +25255,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25266,7 +25266,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25277,7 +25277,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25299,7 +25299,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25310,7 +25310,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25321,7 +25321,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25332,7 +25332,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25343,7 +25343,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25354,7 +25354,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25365,7 +25365,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25376,7 +25376,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25387,7 +25387,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25398,7 +25398,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25409,7 +25409,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25420,7 +25420,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25431,7 +25431,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25442,7 +25442,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25453,7 +25453,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25464,7 +25464,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25475,7 +25475,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25486,7 +25486,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25497,7 +25497,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25508,7 +25508,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25519,7 +25519,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25530,7 +25530,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25541,7 +25541,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25552,7 +25552,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25563,7 +25563,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25574,7 +25574,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25596,13 +25596,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D216" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E216" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25613,7 +25613,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25624,7 +25624,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25635,7 +25635,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25646,7 +25646,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25657,7 +25657,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25668,7 +25668,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25690,7 +25690,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25701,7 +25701,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25723,7 +25723,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25734,7 +25734,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25745,7 +25745,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25756,7 +25756,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25767,7 +25767,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25778,7 +25778,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25789,7 +25789,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25800,7 +25800,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25811,7 +25811,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25822,7 +25822,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25833,7 +25833,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25844,7 +25844,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25855,7 +25855,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25910,7 +25910,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25987,7 +25987,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25998,7 +25998,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,7 +26009,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26020,7 +26020,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26031,7 +26031,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26042,7 +26042,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26053,7 +26053,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26064,7 +26064,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26075,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26086,7 +26086,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26097,7 +26097,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26108,7 +26108,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26130,7 +26130,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26141,7 +26141,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26152,7 +26152,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26163,7 +26163,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26174,7 +26174,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26196,7 +26196,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26207,7 +26207,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26218,7 +26218,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26229,7 +26229,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26240,7 +26240,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26251,7 +26251,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26262,7 +26262,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26273,7 +26273,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26284,7 +26284,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26295,7 +26295,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26306,7 +26306,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26317,7 +26317,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26328,7 +26328,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26339,7 +26339,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26350,7 +26350,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26361,7 +26361,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26372,7 +26372,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26405,7 +26405,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26416,7 +26416,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26438,7 +26438,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26449,7 +26449,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26460,7 +26460,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26471,7 +26471,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26551,7 +26551,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26639,7 +26639,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26661,7 +26661,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26672,7 +26672,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26683,7 +26683,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26694,7 +26694,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26705,7 +26705,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26716,7 +26716,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26727,7 +26727,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26749,7 +26749,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26760,7 +26760,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26771,7 +26771,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26782,7 +26782,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26793,7 +26793,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26804,7 +26804,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26815,7 +26815,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26826,7 +26826,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,7 +26837,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26848,7 +26848,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26859,7 +26859,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26903,7 +26903,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26914,7 +26914,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26925,7 +26925,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26936,7 +26936,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26947,7 +26947,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26958,7 +26958,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26969,7 +26969,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26980,7 +26980,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26991,7 +26991,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27002,7 +27002,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27013,7 +27013,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27024,7 +27024,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27057,7 +27057,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27068,7 +27068,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27079,7 +27079,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27090,7 +27090,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27101,10 +27101,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D352" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27115,10 +27115,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D353" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27129,10 +27129,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D354" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27143,10 +27143,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D355" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27157,10 +27157,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D356" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27171,7 +27171,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27182,7 +27182,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27193,7 +27193,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27204,7 +27204,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27215,7 +27215,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27226,7 +27226,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27237,7 +27237,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27281,7 +27281,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27292,7 +27292,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27303,7 +27303,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27314,7 +27314,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27325,7 +27325,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27336,7 +27336,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27358,7 +27358,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27369,7 +27369,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27391,7 +27391,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27402,7 +27402,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27413,7 +27413,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27424,7 +27424,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27435,7 +27435,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27446,7 +27446,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27457,7 +27457,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27468,7 +27468,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27479,7 +27479,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27490,7 +27490,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27501,7 +27501,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27512,7 +27512,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27523,7 +27523,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27567,7 +27567,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27578,7 +27578,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27589,7 +27589,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27600,7 +27600,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27611,7 +27611,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27622,7 +27622,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27633,7 +27633,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27872,7 +27872,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27883,7 +27883,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27894,7 +27894,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27905,7 +27905,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27926,7 +27926,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27937,7 +27937,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27948,7 +27948,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27959,7 +27959,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28003,7 +28003,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -28014,7 +28014,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -28041,12 +28041,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -28063,7 +28063,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28083,13 +28083,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28103,7 +28103,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28118,7 +28118,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -28132,7 +28132,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28155,84 +28155,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="751">
   <si>
     <t>Purpose</t>
   </si>
@@ -910,9 +910,6 @@
     <t>Var 76</t>
   </si>
   <si>
-    <t>Cutscene: Death Method</t>
-  </si>
-  <si>
     <t>4 = Tentacle Mating Call</t>
   </si>
   <si>
@@ -2282,6 +2279,15 @@
   </si>
   <si>
     <t>Kid Death Count</t>
+  </si>
+  <si>
+    <t>Cutscene: Kid Dies</t>
+  </si>
+  <si>
+    <t>MM Theme</t>
+  </si>
+  <si>
+    <t>Explosion</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2619,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2844,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,10 +2861,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" t="s">
         <v>515</v>
-      </c>
-      <c r="D1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2866,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2880,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2894,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2908,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2922,13 +2928,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2950,7 +2956,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2964,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2978,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2992,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3006,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3020,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3034,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3048,7 +3054,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3062,7 +3068,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3076,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3090,7 +3096,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3104,7 +3110,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3118,7 +3124,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3132,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3160,7 +3166,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3174,7 +3180,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3188,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3202,7 +3208,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3216,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3230,7 +3236,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3244,7 +3250,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3258,7 +3264,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3272,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3286,7 +3292,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3300,7 +3306,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3314,7 +3320,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3328,7 +3334,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3342,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3356,7 +3362,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3370,7 +3376,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3384,7 +3390,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3398,7 +3404,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3412,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3426,7 +3432,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3440,7 +3446,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3454,7 +3460,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3468,7 +3474,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3482,7 +3488,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3496,7 +3502,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3510,7 +3516,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3524,7 +3530,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3538,7 +3544,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3552,7 +3558,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3566,7 +3572,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3580,7 +3586,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3599,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,7 +3757,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,7 +3768,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,7 +3801,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,7 +3933,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -4002,7 +4008,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,7 +4019,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4082,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4132,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,7 +4201,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4206,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4217,7 +4223,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4239,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4251,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20642,7 +20648,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>748</v>
       </c>
       <c r="F57" t="s">
         <v>290</v>
@@ -20832,7 +20838,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20934,10 +20940,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>401</v>
+      </c>
+      <c r="F83" t="s">
         <v>402</v>
-      </c>
-      <c r="F83" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -21119,7 +21125,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21130,7 +21136,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F100" t="s">
         <v>280</v>
@@ -21177,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21188,7 +21194,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21199,7 +21205,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21210,7 +21216,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21232,7 +21238,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21243,7 +21249,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21254,7 +21260,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21265,10 +21271,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>299</v>
+      </c>
+      <c r="F112" t="s">
         <v>300</v>
-      </c>
-      <c r="F112" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21279,10 +21285,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21293,7 +21299,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21307,7 +21313,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21318,7 +21324,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21329,7 +21335,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21340,7 +21346,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21351,7 +21357,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21362,7 +21368,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21373,7 +21379,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21384,7 +21390,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21395,7 +21401,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21406,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21431,7 +21437,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21442,7 +21448,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21453,7 +21459,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21478,7 +21484,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21489,7 +21495,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21500,10 +21506,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>616</v>
+      </c>
+      <c r="F132" t="s">
         <v>617</v>
-      </c>
-      <c r="F132" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21514,7 +21520,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21536,7 +21542,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21547,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21558,7 +21564,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21569,7 +21575,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21580,7 +21586,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21591,10 +21597,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21605,7 +21611,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21630,7 +21636,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21638,7 +21644,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21663,7 +21669,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21691,7 +21697,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21702,10 +21708,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149" t="s">
         <v>333</v>
-      </c>
-      <c r="E149" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21716,7 +21722,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21727,7 +21733,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21738,7 +21744,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21749,7 +21755,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21760,7 +21766,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21771,10 +21777,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21797,10 +21803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21847,7 +21853,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
         <v>248</v>
@@ -21904,16 +21910,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21921,13 +21927,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F7" t="s">
         <v>614</v>
       </c>
-      <c r="F7" t="s">
-        <v>615</v>
-      </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21935,10 +21941,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
         <v>322</v>
-      </c>
-      <c r="E8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21954,19 +21960,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>628</v>
+      </c>
+      <c r="E10" t="s">
         <v>629</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>630</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>631</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>632</v>
-      </c>
-      <c r="H10" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21980,13 +21986,13 @@
         <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G11" t="s">
         <v>244</v>
       </c>
       <c r="H11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22014,7 +22020,7 @@
         <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G13" t="s">
         <v>244</v>
@@ -22025,7 +22031,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E14" t="s">
         <v>220</v>
@@ -22045,7 +22051,7 @@
         <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G15" t="s">
         <v>244</v>
@@ -22056,19 +22062,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" t="s">
         <v>740</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>741</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>742</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>743</v>
-      </c>
-      <c r="H16" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22076,16 +22082,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E17" t="s">
         <v>220</v>
       </c>
       <c r="F17" t="s">
+        <v>620</v>
+      </c>
+      <c r="G17" t="s">
         <v>621</v>
-      </c>
-      <c r="G17" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22221,7 +22227,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22232,7 +22238,7 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E35" t="s">
         <v>123</v>
@@ -22266,7 +22272,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E37" t="s">
         <v>220</v>
@@ -22280,13 +22286,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" t="s">
         <v>305</v>
-      </c>
-      <c r="F38" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22407,7 +22413,7 @@
         <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
         <v>233</v>
@@ -22421,7 +22427,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22498,7 +22504,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E55" t="s">
         <v>221</v>
@@ -22509,7 +22515,7 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E56" t="s">
         <v>287</v>
@@ -22526,13 +22532,13 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I57" t="s">
         <v>210</v>
@@ -22543,7 +22549,7 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E58" t="s">
         <v>213</v>
@@ -22557,10 +22563,10 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" t="s">
         <v>339</v>
-      </c>
-      <c r="E59" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22568,7 +22574,7 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" t="s">
         <v>220</v>
@@ -22596,19 +22602,19 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" t="s">
         <v>293</v>
       </c>
-      <c r="G62" t="s">
-        <v>294</v>
-      </c>
       <c r="H62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22616,7 +22622,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22624,13 +22630,13 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E64" t="s">
         <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -22733,192 +22739,197 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
-      </c>
-      <c r="C75" t="s">
-        <v>731</v>
-      </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" t="s">
-        <v>728</v>
-      </c>
-      <c r="G75" t="s">
-        <v>727</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>105</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>730</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s">
+        <v>727</v>
+      </c>
+      <c r="G76" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>736</v>
-      </c>
-      <c r="D77" t="s">
-        <v>737</v>
-      </c>
-      <c r="E77" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" t="s">
-        <v>738</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>735</v>
+      </c>
+      <c r="D78" t="s">
+        <v>736</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>315</v>
-      </c>
-      <c r="G78" t="s">
-        <v>316</v>
-      </c>
-      <c r="H78" t="s">
-        <v>317</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
+      </c>
+      <c r="F79" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79" t="s">
+        <v>315</v>
+      </c>
+      <c r="H79" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>110</v>
-      </c>
-      <c r="C80" t="s">
-        <v>506</v>
-      </c>
-      <c r="E80" t="s">
-        <v>220</v>
-      </c>
-      <c r="F80" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C81" t="s">
+        <v>505</v>
+      </c>
+      <c r="E81" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>122</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>126</v>
       </c>
-      <c r="C87" t="s">
-        <v>619</v>
-      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>127</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" t="s">
-        <v>26</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>626</v>
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>613</v>
-      </c>
-      <c r="E90" t="s">
-        <v>221</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>612</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>137</v>
       </c>
-      <c r="C91" t="s">
-        <v>583</v>
+      <c r="C92" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -22932,10 +22943,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22948,7 +22959,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22956,7 +22967,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22964,7 +22975,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22972,7 +22983,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22980,7 +22991,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22996,7 +23007,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23004,7 +23015,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23012,7 +23023,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23020,7 +23031,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23028,7 +23039,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23036,7 +23047,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23044,7 +23055,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23052,7 +23063,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23060,7 +23071,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23068,7 +23079,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23076,7 +23087,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23084,7 +23095,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23100,7 +23111,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23108,7 +23119,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23116,7 +23127,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23124,7 +23135,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23132,7 +23143,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23140,7 +23151,23 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -23155,8 +23182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23177,13 +23204,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23427,7 +23454,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23449,7 +23476,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23460,7 +23487,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23471,7 +23498,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23482,7 +23509,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23493,7 +23520,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23504,7 +23531,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23515,7 +23542,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23559,7 +23586,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23570,7 +23597,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23581,7 +23608,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23603,7 +23630,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23663,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23647,7 +23674,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23658,7 +23685,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23669,7 +23696,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23680,7 +23707,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23702,7 +23729,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23713,7 +23740,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23724,7 +23751,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23735,7 +23762,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23746,7 +23773,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23757,7 +23784,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23768,7 +23795,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23779,7 +23806,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23790,7 +23817,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23823,13 +23850,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23840,7 +23867,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23851,7 +23878,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23862,7 +23889,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23873,7 +23900,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23884,7 +23911,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23895,7 +23922,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23906,7 +23933,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23928,7 +23955,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23939,7 +23966,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23950,7 +23977,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23972,7 +23999,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23983,10 +24010,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D71" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23997,7 +24024,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24030,7 +24057,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24041,7 +24068,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24063,7 +24090,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24074,7 +24101,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24085,7 +24112,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24096,7 +24123,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24107,7 +24134,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24118,7 +24145,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24129,7 +24156,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24140,7 +24167,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24151,7 +24178,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24162,7 +24189,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24173,7 +24200,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24184,7 +24211,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24206,7 +24233,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24217,7 +24244,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24228,10 +24255,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D93" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24242,7 +24269,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24253,7 +24280,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24264,7 +24291,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24286,7 +24313,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24297,7 +24324,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24308,7 +24335,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24319,7 +24346,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24330,7 +24357,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24341,7 +24368,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24352,7 +24379,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24363,7 +24390,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24374,7 +24401,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24385,7 +24412,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24396,7 +24423,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24418,7 +24445,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24429,7 +24456,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24451,7 +24478,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24462,7 +24489,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24473,7 +24500,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24484,7 +24511,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24506,7 +24533,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24517,7 +24544,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24528,7 +24555,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24572,7 +24599,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24583,7 +24610,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24594,7 +24621,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24605,7 +24632,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24616,7 +24643,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24627,13 +24654,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24655,7 +24682,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24699,7 +24726,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24710,7 +24737,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24732,7 +24759,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24776,7 +24803,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24787,7 +24814,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24798,7 +24825,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24809,7 +24836,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24820,7 +24847,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24831,7 +24858,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24842,7 +24869,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24853,7 +24880,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24864,7 +24891,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24875,10 +24902,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D151" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24889,7 +24916,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24900,7 +24927,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24911,7 +24938,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24922,7 +24949,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24933,7 +24960,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24944,7 +24971,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24955,7 +24982,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24966,7 +24993,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24977,7 +25004,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24988,7 +25015,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24999,7 +25026,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25021,7 +25048,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25043,7 +25070,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25054,7 +25081,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25065,7 +25092,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25076,7 +25103,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25087,7 +25114,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25098,7 +25125,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25109,7 +25136,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25120,7 +25147,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25131,7 +25158,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25142,7 +25169,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25153,7 +25180,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25175,7 +25202,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25186,7 +25213,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25197,7 +25224,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25208,10 +25235,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25222,7 +25249,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25233,7 +25260,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25244,7 +25271,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25255,7 +25282,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25266,7 +25293,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25277,7 +25304,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25299,7 +25326,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25310,7 +25337,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25321,7 +25348,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25332,7 +25359,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25343,7 +25370,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25354,7 +25381,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25365,7 +25392,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25376,7 +25403,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25387,7 +25414,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25398,7 +25425,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25409,7 +25436,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25420,7 +25447,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25431,7 +25458,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25442,7 +25469,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25453,7 +25480,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25464,7 +25491,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25475,7 +25502,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25486,7 +25513,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25497,7 +25524,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25508,7 +25535,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25519,7 +25546,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25530,7 +25557,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25541,7 +25568,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25552,7 +25579,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25563,7 +25590,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25574,7 +25601,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25596,13 +25623,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D216" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E216" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25613,7 +25640,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25624,7 +25651,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25635,7 +25662,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25646,7 +25673,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25657,7 +25684,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25668,7 +25695,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25690,7 +25717,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25701,7 +25728,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25723,7 +25750,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25734,7 +25761,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25745,7 +25772,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25756,7 +25783,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25767,7 +25794,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25778,7 +25805,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25789,7 +25816,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25800,7 +25827,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25811,7 +25838,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25822,7 +25849,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25833,7 +25860,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25844,7 +25871,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25855,7 +25882,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25910,7 +25937,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -25987,7 +26014,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -25998,7 +26025,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,7 +26036,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26020,7 +26047,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26031,7 +26058,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26042,7 +26069,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26053,7 +26080,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26064,7 +26091,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26102,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26086,7 +26113,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26097,7 +26124,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26108,7 +26135,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26130,7 +26157,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26141,7 +26168,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26152,7 +26179,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26163,7 +26190,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26174,7 +26201,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26196,7 +26223,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26207,7 +26234,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26218,7 +26245,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26229,7 +26256,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26240,7 +26267,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26251,7 +26278,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26262,7 +26289,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26273,7 +26300,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26284,7 +26311,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26295,7 +26322,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26306,7 +26333,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26317,7 +26344,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26328,7 +26355,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26339,7 +26366,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26361,7 +26388,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26372,7 +26399,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26405,7 +26432,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26416,7 +26443,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26438,7 +26465,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26449,7 +26476,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26460,7 +26487,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26471,7 +26498,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26551,7 +26578,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26639,7 +26666,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26661,7 +26688,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26672,7 +26699,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26683,7 +26710,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26694,7 +26721,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26705,7 +26732,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26716,7 +26743,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26727,7 +26754,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26749,7 +26776,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -26760,7 +26787,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -26771,7 +26798,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -26782,7 +26809,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -26793,7 +26820,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -26804,7 +26831,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -26815,7 +26842,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -26826,7 +26853,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,7 +26864,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -26848,7 +26875,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -26859,7 +26886,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -26903,7 +26930,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -26914,7 +26941,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -26925,7 +26952,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -26936,7 +26963,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -26947,7 +26974,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -26958,7 +26985,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -26969,7 +26996,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -26980,7 +27007,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -26991,7 +27018,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27002,7 +27029,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27013,7 +27040,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27024,7 +27051,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27057,7 +27084,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27068,7 +27095,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27079,7 +27106,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27090,7 +27117,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27101,10 +27128,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D352" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27115,10 +27142,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D353" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27129,10 +27156,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D354" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27143,10 +27170,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D355" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27157,10 +27184,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D356" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27171,7 +27198,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27182,7 +27209,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27193,7 +27220,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27204,7 +27231,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27215,7 +27242,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27226,7 +27253,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27237,7 +27264,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27281,7 +27308,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27292,7 +27319,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27303,7 +27330,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27314,7 +27341,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27325,7 +27352,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27336,7 +27363,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27358,7 +27385,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27369,7 +27396,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27391,7 +27418,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27402,7 +27429,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27413,7 +27440,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27424,7 +27451,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27435,7 +27462,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27446,7 +27473,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27457,7 +27484,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27468,7 +27495,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27479,7 +27506,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27490,7 +27517,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27501,7 +27528,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27512,7 +27539,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27523,7 +27550,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27567,7 +27594,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27578,7 +27605,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27589,7 +27616,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27600,7 +27627,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27611,7 +27638,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27622,7 +27649,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27633,7 +27660,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27872,7 +27899,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27883,7 +27910,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27894,7 +27921,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27905,7 +27932,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27926,7 +27953,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -27937,7 +27964,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -27948,7 +27975,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -27959,7 +27986,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28003,7 +28030,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -28014,7 +28041,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -28063,7 +28090,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28083,13 +28110,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28103,7 +28130,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28118,7 +28145,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -28132,7 +28159,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28155,84 +28182,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="756">
   <si>
     <t>Purpose</t>
   </si>
@@ -2288,6 +2288,21 @@
   </si>
   <si>
     <t>Explosion</t>
+  </si>
+  <si>
+    <t>Alarm 1</t>
+  </si>
+  <si>
+    <t>Alarm 2</t>
+  </si>
+  <si>
+    <t>Water Drain</t>
+  </si>
+  <si>
+    <t>0x80 = Valve Open</t>
+  </si>
+  <si>
+    <t>02 = Untouchable</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2859,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3621,7 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21806,7 +21821,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22943,10 +22958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23168,6 +23183,30 @@
       </c>
       <c r="B27" t="s">
         <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -23182,8 +23221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23968,6 +24007,9 @@
       <c r="C67" t="s">
         <v>385</v>
       </c>
+      <c r="D67" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -26779,7 +26821,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>28</v>
       </c>
@@ -26790,7 +26832,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>28</v>
       </c>
@@ -26801,7 +26843,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>28</v>
       </c>
@@ -26812,7 +26854,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>28</v>
       </c>
@@ -26823,7 +26865,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>28</v>
       </c>
@@ -26834,7 +26876,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>28</v>
       </c>
@@ -26845,7 +26887,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>29</v>
       </c>
@@ -26856,7 +26898,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>29</v>
       </c>
@@ -26866,8 +26908,11 @@
       <c r="C328" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>29</v>
       </c>
@@ -26878,7 +26923,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>29</v>
       </c>
@@ -26889,7 +26934,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>30</v>
       </c>
@@ -26900,7 +26945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>30</v>
       </c>
@@ -26911,7 +26956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>30</v>
       </c>
@@ -26922,7 +26967,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>30</v>
       </c>
@@ -26933,7 +26978,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>30</v>
       </c>
@@ -26944,7 +26989,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>30</v>
       </c>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="756">
   <si>
     <t>Purpose</t>
   </si>
@@ -748,9 +748,6 @@
     <t>Film Exposed</t>
   </si>
   <si>
-    <t>Film</t>
-  </si>
-  <si>
     <t>Film: Develop</t>
   </si>
   <si>
@@ -2303,6 +2300,9 @@
   </si>
   <si>
     <t>02 = Untouchable</t>
+  </si>
+  <si>
+    <t>Film: Expose</t>
   </si>
 </sst>
 </file>
@@ -2876,10 +2876,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" t="s">
         <v>514</v>
-      </c>
-      <c r="D1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2929,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2943,13 +2943,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2985,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2999,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3013,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3027,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3055,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3083,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3097,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3111,7 +3111,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3125,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3139,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3153,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3181,7 +3181,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3195,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3209,7 +3209,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3223,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3237,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3251,7 +3251,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3265,7 +3265,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3279,7 +3279,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3293,7 +3293,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3307,7 +3307,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3321,7 +3321,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3349,7 +3349,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3391,7 +3391,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3405,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3419,7 +3419,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3433,7 +3433,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3447,7 +3447,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3475,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3489,7 +3489,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3503,7 +3503,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3531,7 +3531,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3545,7 +3545,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3559,7 +3559,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3573,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3601,7 +3601,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3620,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,7 +3937,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -4023,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,7 +4153,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20663,10 +20663,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20831,7 +20831,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20842,7 +20842,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20853,7 +20853,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20864,7 +20864,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20875,7 +20875,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20886,7 +20886,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20897,7 +20897,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20908,7 +20908,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20919,7 +20919,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20930,7 +20930,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20941,10 +20941,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" t="s">
         <v>257</v>
-      </c>
-      <c r="F82" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20955,10 +20955,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" t="s">
         <v>401</v>
-      </c>
-      <c r="F83" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20969,7 +20969,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20980,7 +20980,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -20991,7 +20991,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -21002,7 +21002,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -21013,7 +21013,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -21038,7 +21038,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21049,7 +21049,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21074,7 +21074,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21085,7 +21085,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21107,7 +21107,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21118,7 +21118,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21129,7 +21129,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21140,7 +21140,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21151,10 +21151,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21165,7 +21165,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21176,7 +21176,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21187,7 +21187,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21198,7 +21198,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21209,7 +21209,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21220,7 +21220,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21231,7 +21231,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21253,7 +21253,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21264,7 +21264,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21275,7 +21275,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21286,10 +21286,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112" t="s">
         <v>299</v>
-      </c>
-      <c r="F112" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21300,10 +21300,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21314,7 +21314,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21328,7 +21328,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21339,7 +21339,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21350,7 +21350,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21361,7 +21361,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21372,7 +21372,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21383,7 +21383,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21394,7 +21394,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21405,7 +21405,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21416,7 +21416,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21427,7 +21427,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21452,7 +21452,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21463,7 +21463,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21474,7 +21474,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21499,7 +21499,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21510,7 +21510,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21521,10 +21521,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>615</v>
+      </c>
+      <c r="F132" t="s">
         <v>616</v>
-      </c>
-      <c r="F132" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21535,7 +21535,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21557,7 +21557,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21568,7 +21568,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21579,7 +21579,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21590,7 +21590,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21601,7 +21601,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21612,10 +21612,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F140" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21626,7 +21626,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21651,7 +21651,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21659,7 +21659,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21684,7 +21684,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21712,7 +21712,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21723,10 +21723,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>331</v>
+      </c>
+      <c r="E149" t="s">
         <v>332</v>
-      </c>
-      <c r="E149" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21737,7 +21737,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21748,7 +21748,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21759,7 +21759,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21770,7 +21770,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21781,7 +21781,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21792,10 +21792,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21820,8 +21820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21862,16 +21862,22 @@
       <c r="C2" t="s">
         <v>236</v>
       </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21879,22 +21885,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
         <v>281</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" t="s">
         <v>282</v>
       </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>283</v>
       </c>
-      <c r="H4" t="s">
-        <v>284</v>
-      </c>
       <c r="I4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21925,16 +21931,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21942,13 +21948,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" t="s">
         <v>613</v>
       </c>
-      <c r="F7" t="s">
-        <v>614</v>
-      </c>
       <c r="G7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21956,10 +21962,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" t="s">
         <v>321</v>
-      </c>
-      <c r="E8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21975,19 +21981,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E10" t="s">
         <v>628</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>629</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>630</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>631</v>
-      </c>
-      <c r="H10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21995,19 +22001,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
         <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22015,13 +22021,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -22029,16 +22035,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
         <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22046,7 +22052,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E14" t="s">
         <v>220</v>
@@ -22060,16 +22066,16 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
         <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22077,19 +22083,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E16" t="s">
         <v>739</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>740</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>741</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>742</v>
-      </c>
-      <c r="H16" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22097,16 +22103,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E17" t="s">
         <v>220</v>
       </c>
       <c r="F17" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" t="s">
         <v>620</v>
-      </c>
-      <c r="G17" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22178,7 +22184,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22186,7 +22192,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -22194,7 +22200,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -22202,7 +22208,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22242,7 +22248,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22253,7 +22259,7 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E35" t="s">
         <v>123</v>
@@ -22287,7 +22293,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E37" t="s">
         <v>220</v>
@@ -22301,13 +22307,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" t="s">
         <v>304</v>
-      </c>
-      <c r="F38" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22383,7 +22389,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22391,16 +22397,16 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
         <v>232</v>
       </c>
       <c r="F45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" t="s">
         <v>253</v>
-      </c>
-      <c r="G45" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22408,7 +22414,7 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
         <v>220</v>
@@ -22428,7 +22434,7 @@
         <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G47" t="s">
         <v>233</v>
@@ -22442,7 +22448,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22511,7 +22517,7 @@
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22519,7 +22525,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E55" t="s">
         <v>221</v>
@@ -22530,10 +22536,10 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22547,13 +22553,13 @@
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G57" t="s">
         <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I57" t="s">
         <v>210</v>
@@ -22564,7 +22570,7 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E58" t="s">
         <v>213</v>
@@ -22578,10 +22584,10 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
+        <v>337</v>
+      </c>
+      <c r="E59" t="s">
         <v>338</v>
-      </c>
-      <c r="E59" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22589,7 +22595,7 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E60" t="s">
         <v>220</v>
@@ -22617,19 +22623,19 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
+        <v>291</v>
+      </c>
+      <c r="G62" t="s">
         <v>292</v>
       </c>
-      <c r="G62" t="s">
-        <v>293</v>
-      </c>
       <c r="H62" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22637,7 +22643,7 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22645,13 +22651,13 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
         <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -22762,7 +22768,7 @@
         <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D76" t="s">
         <v>76</v>
@@ -22771,10 +22777,10 @@
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G76" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -22796,16 +22802,16 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
+        <v>734</v>
+      </c>
+      <c r="D78" t="s">
         <v>735</v>
-      </c>
-      <c r="D78" t="s">
-        <v>736</v>
       </c>
       <c r="E78" t="s">
         <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -22813,19 +22819,19 @@
         <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
         <v>313</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>314</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>315</v>
-      </c>
-      <c r="H79" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -22838,7 +22844,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E81" t="s">
         <v>220</v>
@@ -22897,7 +22903,7 @@
         <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -22925,7 +22931,7 @@
         <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -22933,7 +22939,7 @@
         <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E91" t="s">
         <v>221</v>
@@ -22944,7 +22950,7 @@
         <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -22974,7 +22980,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22982,7 +22988,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22990,7 +22996,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22998,7 +23004,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -23006,7 +23012,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -23022,7 +23028,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23030,7 +23036,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23038,7 +23044,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23046,7 +23052,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23054,7 +23060,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23062,7 +23068,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23070,7 +23076,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23078,7 +23084,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23086,7 +23092,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23094,7 +23100,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23102,7 +23108,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23110,7 +23116,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23126,7 +23132,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23134,7 +23140,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23142,7 +23148,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23150,7 +23156,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23158,7 +23164,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23166,7 +23172,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -23174,7 +23180,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -23182,7 +23188,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -23190,7 +23196,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -23198,7 +23204,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -23206,7 +23212,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -23221,8 +23227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23243,13 +23249,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23493,7 +23499,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23515,7 +23521,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23526,7 +23532,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23537,7 +23543,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23548,7 +23554,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23559,7 +23565,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23570,7 +23576,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23581,7 +23587,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23625,7 +23631,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -23636,7 +23642,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -23647,7 +23653,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -23669,7 +23675,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -23702,7 +23708,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -23713,7 +23719,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -23724,7 +23730,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -23735,7 +23741,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -23746,7 +23752,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -23768,7 +23774,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -23779,7 +23785,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -23790,7 +23796,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23801,7 +23807,7 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23812,7 +23818,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23823,7 +23829,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23834,7 +23840,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23845,7 +23851,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23856,7 +23862,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23889,13 +23895,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E57" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23906,7 +23912,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23917,7 +23923,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23928,7 +23934,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -23939,7 +23945,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -23950,7 +23956,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -23961,7 +23967,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -23972,7 +23978,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23994,7 +24000,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -24005,10 +24011,10 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D67" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24019,7 +24025,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -24041,7 +24047,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -24052,10 +24058,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D71" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -24066,7 +24072,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24099,7 +24105,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24110,7 +24116,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24132,7 +24138,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24143,7 +24149,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24154,7 +24160,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24165,7 +24171,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24176,7 +24182,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24187,7 +24193,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24198,7 +24204,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24209,7 +24215,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24220,7 +24226,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24231,7 +24237,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24242,7 +24248,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24253,7 +24259,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24275,7 +24281,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24286,7 +24292,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24297,10 +24303,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D93" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24311,7 +24317,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24322,7 +24328,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24333,7 +24339,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24355,7 +24361,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24366,7 +24372,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24377,7 +24383,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24388,7 +24394,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24399,7 +24405,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24410,7 +24416,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24421,7 +24427,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24432,7 +24438,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24443,7 +24449,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24454,7 +24460,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24465,7 +24471,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24487,7 +24493,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24498,7 +24504,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24520,7 +24526,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24531,7 +24537,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24542,7 +24548,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24553,7 +24559,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24575,7 +24581,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24586,7 +24592,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24597,7 +24603,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24641,7 +24647,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24652,7 +24658,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24663,7 +24669,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24674,7 +24680,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24685,7 +24691,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24696,13 +24702,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24724,7 +24730,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24768,7 +24774,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24779,7 +24785,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24801,7 +24807,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24845,7 +24851,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24856,7 +24862,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24867,7 +24873,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24878,7 +24884,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24889,7 +24895,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24900,7 +24906,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24911,7 +24917,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24922,7 +24928,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24933,7 +24939,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24944,10 +24950,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24958,7 +24964,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24969,7 +24975,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24980,7 +24986,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24991,7 +24997,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -25002,7 +25008,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -25013,7 +25019,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -25024,7 +25030,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25035,7 +25041,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -25046,7 +25052,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -25057,7 +25063,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -25068,7 +25074,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25090,7 +25096,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25112,7 +25118,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25123,7 +25129,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25134,7 +25140,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25145,7 +25151,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25156,7 +25162,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25167,7 +25173,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25178,7 +25184,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25189,7 +25195,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25200,7 +25206,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25211,7 +25217,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25222,7 +25228,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25244,7 +25250,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25255,7 +25261,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25266,7 +25272,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25277,10 +25283,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D181" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25291,7 +25297,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25302,7 +25308,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25313,7 +25319,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25324,7 +25330,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25335,7 +25341,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25346,7 +25352,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25368,7 +25374,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25379,7 +25385,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25390,7 +25396,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25401,7 +25407,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25412,7 +25418,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25423,7 +25429,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25434,7 +25440,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25445,7 +25451,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25456,7 +25462,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25467,7 +25473,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25478,7 +25484,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25489,7 +25495,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25500,7 +25506,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25511,7 +25517,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25522,7 +25528,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25533,7 +25539,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25544,7 +25550,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25555,7 +25561,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25566,7 +25572,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25577,7 +25583,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25588,7 +25594,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25599,7 +25605,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25610,7 +25616,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25621,7 +25627,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25632,7 +25638,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25643,7 +25649,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25665,13 +25671,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D216" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E216" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25682,7 +25688,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25693,7 +25699,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25704,7 +25710,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25715,7 +25721,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25726,7 +25732,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25737,7 +25743,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25759,7 +25765,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25770,7 +25776,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25792,7 +25798,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25803,7 +25809,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25814,7 +25820,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25825,7 +25831,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25836,7 +25842,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25847,7 +25853,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25858,7 +25864,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25869,7 +25875,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25880,7 +25886,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25891,7 +25897,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25902,7 +25908,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25913,7 +25919,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25924,7 +25930,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -25979,7 +25985,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -26056,7 +26062,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -26067,7 +26073,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26078,7 +26084,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26089,7 +26095,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26100,7 +26106,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26111,7 +26117,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26122,7 +26128,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26133,7 +26139,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26144,7 +26150,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26155,7 +26161,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26166,7 +26172,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26177,7 +26183,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26199,7 +26205,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26210,7 +26216,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26221,7 +26227,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26232,7 +26238,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26243,7 +26249,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26265,7 +26271,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26276,7 +26282,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26287,7 +26293,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26298,7 +26304,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26309,7 +26315,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26320,7 +26326,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26331,7 +26337,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26342,7 +26348,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26353,7 +26359,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26364,7 +26370,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26375,7 +26381,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26386,7 +26392,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26397,7 +26403,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26408,7 +26414,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26419,7 +26425,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26430,7 +26436,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26441,7 +26447,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26474,7 +26480,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26485,7 +26491,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26507,7 +26513,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26518,7 +26524,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26529,7 +26535,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26540,7 +26546,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26620,7 +26626,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26708,7 +26714,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26730,7 +26736,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26741,7 +26747,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26752,7 +26758,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26763,7 +26769,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26774,7 +26780,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26785,7 +26791,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26796,7 +26802,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26818,7 +26824,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -26829,7 +26835,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -26840,7 +26846,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -26851,7 +26857,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -26862,7 +26868,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -26873,7 +26879,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -26884,7 +26890,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -26895,7 +26901,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -26906,10 +26912,10 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D328" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -26920,7 +26926,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -26931,7 +26937,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -26975,7 +26981,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -26986,7 +26992,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -26997,7 +27003,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -27008,7 +27014,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -27019,7 +27025,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -27030,7 +27036,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -27041,7 +27047,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -27052,7 +27058,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -27063,7 +27069,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27074,7 +27080,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27085,7 +27091,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27096,7 +27102,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27129,7 +27135,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27140,7 +27146,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27151,7 +27157,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27162,7 +27168,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27173,10 +27179,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D352" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27187,10 +27193,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D353" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27201,10 +27207,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D354" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27215,10 +27221,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D355" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27229,10 +27235,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D356" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27243,7 +27249,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27254,7 +27260,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27265,7 +27271,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27276,7 +27282,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27287,7 +27293,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27298,7 +27304,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27309,7 +27315,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27353,7 +27359,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27364,7 +27370,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27375,7 +27381,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27386,7 +27392,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27397,7 +27403,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27408,7 +27414,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27430,7 +27436,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27441,7 +27447,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27463,7 +27469,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27474,7 +27480,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27485,7 +27491,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27496,7 +27502,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27507,7 +27513,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27518,7 +27524,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27529,7 +27535,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27540,7 +27546,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27551,7 +27557,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27562,7 +27568,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27573,7 +27579,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27584,7 +27590,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27595,7 +27601,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27639,7 +27645,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27650,7 +27656,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27661,7 +27667,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27672,7 +27678,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27683,7 +27689,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27694,7 +27700,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27705,7 +27711,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27944,7 +27950,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -27955,7 +27961,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -27966,7 +27972,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -27977,7 +27983,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -27998,7 +28004,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -28009,7 +28015,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -28020,7 +28026,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -28031,7 +28037,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28075,7 +28081,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -28086,7 +28092,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -28113,12 +28119,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -28135,7 +28141,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28155,13 +28161,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28175,7 +28181,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28190,7 +28196,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -28227,84 +28233,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="760">
   <si>
     <t>Purpose</t>
   </si>
@@ -2303,6 +2303,18 @@
   </si>
   <si>
     <t>Film: Expose</t>
+  </si>
+  <si>
+    <t>08 = Open</t>
+  </si>
+  <si>
+    <t>Liquid - Developer Tray</t>
+  </si>
+  <si>
+    <t>2 = Ruined Prints</t>
+  </si>
+  <si>
+    <t>3 = Perfect Prints</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2646,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3620,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20830,6 +20842,9 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
       <c r="D72" t="s">
         <v>755</v>
       </c>
@@ -20839,7 +20854,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>237</v>
@@ -21820,8 +21835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21831,7 +21846,7 @@
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21868,6 +21883,12 @@
       <c r="F2" t="s">
         <v>221</v>
       </c>
+      <c r="G2" t="s">
+        <v>758</v>
+      </c>
+      <c r="H2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -22046,6 +22067,9 @@
       <c r="G13" t="s">
         <v>243</v>
       </c>
+      <c r="H13" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -22076,6 +22100,9 @@
       </c>
       <c r="G15" t="s">
         <v>243</v>
+      </c>
+      <c r="H15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22964,10 +22991,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23213,6 +23240,14 @@
       </c>
       <c r="B30" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -23227,8 +23262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23600,6 +23635,9 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
+      <c r="D30" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -23611,6 +23649,9 @@
       <c r="C31" t="s">
         <v>10</v>
       </c>
+      <c r="D31" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -23623,7 +23664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -23634,7 +23675,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -23645,7 +23686,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -23656,7 +23697,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -23667,7 +23708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -23678,7 +23719,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -23689,7 +23730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -23700,7 +23741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -23711,7 +23752,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -23722,7 +23763,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -23733,7 +23774,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -23743,8 +23784,11 @@
       <c r="C43" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -23755,7 +23799,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -23765,8 +23809,11 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -23776,8 +23823,11 @@
       <c r="C46" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -23788,7 +23838,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -23809,6 +23859,9 @@
       <c r="C49" t="s">
         <v>369</v>
       </c>
+      <c r="D49" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -23886,6 +23939,9 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
+      <c r="D56" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -23991,6 +24047,9 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
+      <c r="D65" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -24085,6 +24144,9 @@
       <c r="C73" t="s">
         <v>10</v>
       </c>
+      <c r="D73" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -24095,6 +24157,9 @@
       </c>
       <c r="C74" t="s">
         <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="761">
   <si>
     <t>Purpose</t>
   </si>
@@ -802,12 +802,6 @@
     <t>Envelope: Name</t>
   </si>
   <si>
-    <t>Envelope: Look At</t>
-  </si>
-  <si>
-    <t>Envelope: Use?</t>
-  </si>
-  <si>
     <t>ActiveObject2</t>
   </si>
   <si>
@@ -2315,6 +2309,15 @@
   </si>
   <si>
     <t>3 = Perfect Prints</t>
+  </si>
+  <si>
+    <t>Envelop Opened</t>
+  </si>
+  <si>
+    <t>Envelope: Open</t>
+  </si>
+  <si>
+    <t>Envelope: Use</t>
   </si>
 </sst>
 </file>
@@ -2871,7 +2874,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,10 +2891,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2913,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2927,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2941,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2955,13 +2958,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2983,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2997,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3011,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3025,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3039,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3053,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3067,7 +3070,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3081,7 +3084,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3095,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3109,7 +3112,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3123,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3137,7 +3140,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3151,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3165,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3193,7 +3196,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3207,7 +3210,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3221,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3235,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3249,7 +3252,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3263,7 +3266,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3277,7 +3280,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3291,7 +3294,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3305,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3319,7 +3322,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3333,7 +3336,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3347,7 +3350,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3361,7 +3364,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3375,7 +3378,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3389,7 +3392,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3403,7 +3406,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3417,7 +3420,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3431,7 +3434,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3445,7 +3448,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3459,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3473,7 +3476,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3487,7 +3490,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3501,7 +3504,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3515,7 +3518,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3529,7 +3532,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3543,7 +3546,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3557,7 +3560,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3571,7 +3574,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3585,7 +3588,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3599,7 +3602,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3613,7 +3616,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3632,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,7 +3721,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3729,7 +3732,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,7 +3743,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,7 +3754,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +3787,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,7 +3820,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3828,7 +3831,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +3941,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,7 +3952,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,7 +4024,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -4035,7 +4038,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4046,7 +4049,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
@@ -4115,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4165,7 +4168,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4187,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4228,7 +4231,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4239,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4250,7 +4253,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4272,7 +4275,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4284,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20675,10 +20678,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20846,7 +20849,7 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20868,7 +20871,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20945,7 +20948,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20956,10 +20959,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>760</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20970,10 +20973,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20984,7 +20987,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20995,7 +20998,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -21006,7 +21009,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -21017,7 +21020,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -21028,7 +21031,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -21053,7 +21056,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21064,7 +21067,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21089,7 +21092,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21100,7 +21103,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21122,7 +21125,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21133,7 +21136,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21144,7 +21147,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21155,7 +21158,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21166,10 +21169,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21180,7 +21183,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21191,7 +21194,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21202,7 +21205,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21213,7 +21216,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21224,7 +21227,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21235,7 +21238,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21246,7 +21249,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21268,7 +21271,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21279,7 +21282,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21290,7 +21293,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21301,10 +21304,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21315,10 +21318,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F113" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21329,7 +21332,7 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E114" t="s">
         <v>90</v>
@@ -21343,7 +21346,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21354,7 +21357,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21365,7 +21368,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21376,7 +21379,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21387,7 +21390,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21398,7 +21401,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21409,7 +21412,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21420,7 +21423,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21431,7 +21434,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21442,7 +21445,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21467,7 +21470,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21478,7 +21481,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21489,7 +21492,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21514,7 +21517,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21525,7 +21528,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21536,10 +21539,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F132" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21550,7 +21553,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21572,7 +21575,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21583,7 +21586,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21594,7 +21597,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21605,7 +21608,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21616,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21627,10 +21630,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F140" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21641,7 +21644,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21666,7 +21669,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21674,7 +21677,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21699,7 +21702,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -21727,7 +21730,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21738,10 +21741,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E149" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21752,7 +21755,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21763,7 +21766,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21774,7 +21777,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21785,7 +21788,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21796,7 +21799,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21807,10 +21810,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E155" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21833,10 +21836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21884,10 +21887,10 @@
         <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21895,7 +21898,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
         <v>247</v>
@@ -21906,22 +21909,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
         <v>280</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>281</v>
       </c>
-      <c r="F4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>283</v>
-      </c>
-      <c r="I4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21952,16 +21955,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21969,13 +21972,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21983,10 +21986,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -22002,19 +22005,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>625</v>
+      </c>
+      <c r="E10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F10" t="s">
         <v>627</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>628</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>629</v>
-      </c>
-      <c r="G10" t="s">
-        <v>630</v>
-      </c>
-      <c r="H10" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22028,13 +22031,13 @@
         <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G11" t="s">
         <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22042,10 +22045,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>247</v>
@@ -22062,13 +22065,13 @@
         <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G13" t="s">
         <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22076,7 +22079,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E14" t="s">
         <v>220</v>
@@ -22096,13 +22099,13 @@
         <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G15" t="s">
         <v>243</v>
       </c>
       <c r="H15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22110,19 +22113,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>736</v>
+      </c>
+      <c r="E16" t="s">
+        <v>737</v>
+      </c>
+      <c r="F16" t="s">
         <v>738</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>739</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>740</v>
-      </c>
-      <c r="G16" t="s">
-        <v>741</v>
-      </c>
-      <c r="H16" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22130,16 +22133,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
         <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22211,7 +22214,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22219,7 +22222,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -22227,7 +22230,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -22235,7 +22238,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22275,7 +22278,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22286,7 +22289,7 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E35" t="s">
         <v>123</v>
@@ -22320,7 +22323,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E37" t="s">
         <v>220</v>
@@ -22334,13 +22337,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22452,63 +22455,69 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>758</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
-      </c>
-      <c r="G47" t="s">
-        <v>233</v>
-      </c>
-      <c r="H47" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>570</v>
+        <v>207</v>
+      </c>
+      <c r="E48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -22516,7 +22525,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -22524,7 +22533,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -22532,216 +22541,210 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>737</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>476</v>
+        <v>735</v>
       </c>
       <c r="E56" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>474</v>
       </c>
       <c r="E57" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" t="s">
-        <v>745</v>
-      </c>
-      <c r="G57" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>746</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
+        <v>743</v>
+      </c>
+      <c r="G58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" t="s">
+        <v>288</v>
+      </c>
+      <c r="I58" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>744</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>79</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
         <v>337</v>
       </c>
-      <c r="E59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>80</v>
-      </c>
-      <c r="C60" t="s">
-        <v>339</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>220</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>81</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>569</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" t="s">
-        <v>291</v>
-      </c>
-      <c r="G62" t="s">
-        <v>292</v>
-      </c>
-      <c r="H62" t="s">
-        <v>590</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G63" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
-      </c>
-      <c r="E64" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" t="s">
-        <v>404</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>90</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>104</v>
+      <c r="D67" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>91</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
         <v>90</v>
@@ -22749,235 +22752,249 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" t="s">
-        <v>220</v>
-      </c>
-      <c r="F71" t="s">
-        <v>221</v>
+        <v>105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>219</v>
+      </c>
+      <c r="E72" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>729</v>
-      </c>
-      <c r="D76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" t="s">
-        <v>726</v>
-      </c>
-      <c r="G76" t="s">
-        <v>725</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>727</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s">
+        <v>724</v>
+      </c>
+      <c r="G77" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>734</v>
-      </c>
-      <c r="D78" t="s">
-        <v>735</v>
-      </c>
-      <c r="E78" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" t="s">
-        <v>736</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>732</v>
+      </c>
+      <c r="D79" t="s">
+        <v>733</v>
       </c>
       <c r="E79" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G79" t="s">
-        <v>314</v>
-      </c>
-      <c r="H79" t="s">
-        <v>315</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" t="s">
+        <v>312</v>
+      </c>
+      <c r="H80" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>110</v>
-      </c>
-      <c r="C81" t="s">
-        <v>504</v>
-      </c>
-      <c r="E81" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>502</v>
+      </c>
+      <c r="E82" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>122</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>126</v>
       </c>
-      <c r="C88" t="s">
-        <v>617</v>
-      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>127</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" t="s">
-        <v>26</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>611</v>
-      </c>
-      <c r="E91" t="s">
-        <v>221</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>136</v>
+      </c>
+      <c r="C92" t="s">
+        <v>609</v>
+      </c>
+      <c r="E92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>137</v>
       </c>
-      <c r="C92" t="s">
-        <v>581</v>
+      <c r="C93" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -22991,9 +23008,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -23007,7 +23024,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23015,7 +23032,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -23023,7 +23040,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -23031,7 +23048,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -23039,7 +23056,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -23055,7 +23072,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23063,7 +23080,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23071,7 +23088,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23079,7 +23096,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23087,7 +23104,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23095,7 +23112,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23103,7 +23120,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23111,7 +23128,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23119,7 +23136,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23127,7 +23144,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23135,7 +23152,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23143,7 +23160,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23159,7 +23176,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23167,7 +23184,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23175,7 +23192,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23183,7 +23200,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23191,7 +23208,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23199,7 +23216,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -23207,7 +23224,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -23215,7 +23232,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -23223,7 +23240,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -23231,7 +23248,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -23239,7 +23256,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -23247,7 +23264,15 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>757</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -23262,8 +23287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23284,13 +23309,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -23534,7 +23559,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23556,7 +23581,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23567,7 +23592,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23578,7 +23603,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23589,7 +23614,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23600,7 +23625,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23611,7 +23636,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23622,7 +23647,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23636,7 +23661,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23650,7 +23675,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -23672,7 +23697,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23683,7 +23708,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23694,7 +23719,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23716,7 +23741,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23749,7 +23774,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23760,7 +23785,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23771,7 +23796,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23782,10 +23807,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23796,7 +23821,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23810,7 +23835,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23821,10 +23846,10 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D46" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23835,7 +23860,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23846,7 +23871,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23857,10 +23882,10 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D49" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23871,7 +23896,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23882,7 +23907,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23893,7 +23918,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23904,7 +23929,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23915,7 +23940,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23940,7 +23965,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -23951,13 +23976,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E57" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23968,7 +23993,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23979,7 +24004,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23990,7 +24015,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -24001,7 +24026,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -24012,7 +24037,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -24023,7 +24048,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -24034,7 +24059,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -24048,7 +24073,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -24059,7 +24084,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -24070,10 +24095,10 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D67" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24084,7 +24109,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -24106,7 +24131,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -24117,10 +24142,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D71" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -24131,7 +24156,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24145,7 +24170,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -24159,7 +24184,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24170,7 +24195,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24181,7 +24206,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24203,7 +24228,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24214,7 +24239,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24225,7 +24250,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24236,7 +24261,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24247,7 +24272,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24258,7 +24283,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24269,7 +24294,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24280,7 +24305,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24291,7 +24316,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24302,7 +24327,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24313,7 +24338,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24324,7 +24349,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24346,7 +24371,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24357,7 +24382,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24368,10 +24393,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D93" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24382,7 +24407,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24393,7 +24418,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24404,7 +24429,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24426,7 +24451,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24437,7 +24462,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24448,7 +24473,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24459,7 +24484,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24470,7 +24495,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24481,7 +24506,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24492,7 +24517,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24503,7 +24528,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24514,7 +24539,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24525,7 +24550,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24536,7 +24561,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24558,7 +24583,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24569,7 +24594,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24591,7 +24616,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24602,7 +24627,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24613,7 +24638,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24624,7 +24649,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24646,7 +24671,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24657,7 +24682,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24668,7 +24693,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24712,7 +24737,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24723,7 +24748,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24734,7 +24759,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24745,7 +24770,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24756,7 +24781,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24767,13 +24792,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24795,7 +24820,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24839,7 +24864,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24850,7 +24875,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24872,7 +24897,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24916,7 +24941,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24927,7 +24952,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24938,7 +24963,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24949,7 +24974,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24960,7 +24985,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24971,7 +24996,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24982,7 +25007,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24993,7 +25018,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -25004,7 +25029,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -25015,10 +25040,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D151" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -25029,7 +25054,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -25040,7 +25065,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -25051,7 +25076,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -25062,7 +25087,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -25073,7 +25098,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -25084,7 +25109,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -25095,7 +25120,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25106,7 +25131,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -25117,7 +25142,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -25128,7 +25153,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -25139,7 +25164,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25161,7 +25186,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25183,7 +25208,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25194,7 +25219,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25205,7 +25230,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25216,7 +25241,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25227,7 +25252,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25238,7 +25263,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25249,7 +25274,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25260,7 +25285,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25271,7 +25296,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25282,7 +25307,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25293,7 +25318,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25315,7 +25340,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25326,7 +25351,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25337,7 +25362,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25348,10 +25373,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D181" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25362,7 +25387,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25373,7 +25398,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25384,7 +25409,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25395,7 +25420,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25406,7 +25431,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25417,7 +25442,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25439,7 +25464,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25450,7 +25475,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25461,7 +25486,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25472,7 +25497,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25483,7 +25508,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25494,7 +25519,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25505,7 +25530,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25516,7 +25541,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25527,7 +25552,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25538,7 +25563,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25549,7 +25574,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25560,7 +25585,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25571,7 +25596,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25582,7 +25607,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25593,7 +25618,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25604,7 +25629,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25615,7 +25640,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25626,7 +25651,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25637,7 +25662,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25648,7 +25673,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25659,7 +25684,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25670,7 +25695,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25681,7 +25706,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25692,7 +25717,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25703,7 +25728,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25714,7 +25739,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25736,13 +25761,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D216" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E216" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25753,7 +25778,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25764,7 +25789,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25775,7 +25800,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25786,7 +25811,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25797,7 +25822,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25808,7 +25833,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25830,7 +25855,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25841,7 +25866,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25863,7 +25888,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25874,7 +25899,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25885,7 +25910,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25896,7 +25921,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25907,7 +25932,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25918,7 +25943,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25929,7 +25954,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25940,7 +25965,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25951,7 +25976,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25962,7 +25987,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25973,7 +25998,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -25984,7 +26009,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -25995,7 +26020,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -26050,7 +26075,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -26127,7 +26152,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -26138,7 +26163,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26149,7 +26174,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26160,7 +26185,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26171,7 +26196,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26182,7 +26207,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26193,7 +26218,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26204,7 +26229,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26215,7 +26240,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26226,7 +26251,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26237,7 +26262,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26248,7 +26273,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26270,7 +26295,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26281,7 +26306,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26292,7 +26317,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26303,7 +26328,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26314,7 +26339,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26336,7 +26361,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26347,7 +26372,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26358,7 +26383,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26369,7 +26394,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26380,7 +26405,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26391,7 +26416,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26402,7 +26427,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26413,7 +26438,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26424,7 +26449,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26435,7 +26460,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26446,7 +26471,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26457,7 +26482,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26468,7 +26493,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26479,7 +26504,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26501,7 +26526,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26512,7 +26537,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26545,7 +26570,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26556,7 +26581,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26578,7 +26603,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26589,7 +26614,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26600,7 +26625,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26611,7 +26636,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26691,7 +26716,7 @@
         <v>31</v>
       </c>
       <c r="E302" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26779,7 +26804,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26801,7 +26826,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26812,7 +26837,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26823,7 +26848,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26834,7 +26859,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26845,7 +26870,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26856,7 +26881,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26867,7 +26892,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26889,7 +26914,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -26900,7 +26925,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -26911,7 +26936,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -26922,7 +26947,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -26933,7 +26958,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -26944,7 +26969,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -26955,7 +26980,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -26966,7 +26991,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -26977,10 +27002,10 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D328" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -26991,7 +27016,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -27002,7 +27027,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -27046,7 +27071,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -27057,7 +27082,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -27068,7 +27093,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -27079,7 +27104,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -27090,7 +27115,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -27101,7 +27126,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -27112,7 +27137,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -27123,7 +27148,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -27134,7 +27159,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27145,7 +27170,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27156,7 +27181,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27167,7 +27192,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27200,7 +27225,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27211,7 +27236,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27222,7 +27247,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27233,7 +27258,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27244,10 +27269,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27258,10 +27283,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D353" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27272,10 +27297,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D354" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27286,10 +27311,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D355" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27300,10 +27325,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D356" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27314,7 +27339,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27325,7 +27350,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27336,7 +27361,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27347,7 +27372,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27358,7 +27383,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27369,7 +27394,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27380,7 +27405,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27424,7 +27449,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27435,7 +27460,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27446,7 +27471,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27457,7 +27482,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27468,7 +27493,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27479,7 +27504,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27501,7 +27526,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27512,7 +27537,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27534,7 +27559,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27545,7 +27570,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27556,7 +27581,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27567,7 +27592,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27578,7 +27603,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27589,7 +27614,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27600,7 +27625,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27611,7 +27636,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27622,7 +27647,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27633,7 +27658,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27644,7 +27669,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27655,7 +27680,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27666,7 +27691,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27710,7 +27735,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27721,7 +27746,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27732,7 +27757,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27743,7 +27768,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27754,7 +27779,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27765,7 +27790,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27776,7 +27801,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -28015,7 +28040,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -28026,7 +28051,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -28037,7 +28062,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -28048,7 +28073,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -28069,7 +28094,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -28080,7 +28105,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -28091,7 +28116,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -28102,7 +28127,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28146,7 +28171,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -28157,7 +28182,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -28184,12 +28209,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -28206,7 +28231,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28226,13 +28251,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28246,7 +28271,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28261,7 +28286,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -28298,84 +28323,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="766">
   <si>
     <t>Purpose</t>
   </si>
@@ -121,9 +121,6 @@
     <t>1 = Again?</t>
   </si>
   <si>
-    <t>0 =  I wonder if that's my package</t>
-  </si>
-  <si>
     <t>Card Key</t>
   </si>
   <si>
@@ -2318,6 +2315,24 @@
   </si>
   <si>
     <t>Envelope: Use</t>
+  </si>
+  <si>
+    <t>Weird Ed:</t>
+  </si>
+  <si>
+    <t>44 = Level 3 Hallway</t>
+  </si>
+  <si>
+    <t>52 = Level 3 Hallway</t>
+  </si>
+  <si>
+    <t>Weird Ed: Actor found nearby</t>
+  </si>
+  <si>
+    <t>Weird Ed: Walk to X</t>
+  </si>
+  <si>
+    <t>Weird Ed: Walk to Y</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2664,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2677,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2708,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2748,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2796,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2804,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +2820,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2836,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2860,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +2868,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2873,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,10 +2906,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" t="s">
         <v>511</v>
-      </c>
-      <c r="D1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2916,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2930,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2944,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2958,13 +2973,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2986,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3000,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3014,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3028,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3042,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3056,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3070,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3084,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3098,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3112,7 +3127,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3126,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3140,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3154,7 +3169,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3168,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3196,7 +3211,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3210,7 +3225,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3224,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3238,7 +3253,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3252,7 +3267,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3266,7 +3281,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3280,7 +3295,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3294,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3308,7 +3323,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3322,7 +3337,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3336,7 +3351,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3350,7 +3365,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3364,7 +3379,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3378,7 +3393,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3392,7 +3407,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3406,7 +3421,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3420,7 +3435,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3434,7 +3449,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3448,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3462,7 +3477,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3476,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3490,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3504,7 +3519,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3518,7 +3533,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3532,7 +3547,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3546,7 +3561,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3560,7 +3575,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3574,7 +3589,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3588,7 +3603,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3602,7 +3617,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3616,7 +3631,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3635,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3677,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,7 +3714,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3710,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,7 +3758,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3787,7 +3802,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,7 +3813,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3809,7 +3824,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,7 +3835,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3831,7 +3846,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3842,7 +3857,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,7 +3868,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,7 +3879,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3901,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3897,7 +3912,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,7 +3923,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,7 +3945,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3952,7 +3967,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3974,7 +3989,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,10 +4011,10 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,10 +4025,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4024,10 +4039,10 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,7 +4053,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4049,10 +4064,10 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4063,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4074,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4085,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4096,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,10 +4144,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4143,10 +4158,10 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
         <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,10 +4172,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
         <v>134</v>
-      </c>
-      <c r="E44" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,7 +4194,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,7 +4205,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,7 +4216,7 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4212,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4223,7 +4238,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4231,7 +4246,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4242,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4253,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4275,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4287,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20678,10 +20693,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20692,10 +20707,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20706,10 +20721,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" t="s">
         <v>217</v>
-      </c>
-      <c r="F59" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20720,7 +20735,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20731,7 +20746,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20742,7 +20757,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20753,7 +20768,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
@@ -20764,7 +20779,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -20775,7 +20790,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -20786,7 +20801,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -20797,7 +20812,7 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -20805,7 +20820,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -20816,7 +20831,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -20824,10 +20839,10 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -20838,7 +20853,7 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -20849,7 +20864,7 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20860,7 +20875,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -20871,7 +20886,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20882,7 +20897,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -20893,7 +20908,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -20904,7 +20919,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -20915,7 +20930,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -20926,7 +20941,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -20937,7 +20952,7 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -20948,7 +20963,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20959,10 +20974,10 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -20973,10 +20988,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>397</v>
+      </c>
+      <c r="F83" t="s">
         <v>398</v>
-      </c>
-      <c r="F83" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -20987,7 +21002,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -20998,7 +21013,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -21009,7 +21024,7 @@
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -21020,7 +21035,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -21031,7 +21046,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -21042,7 +21057,7 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -21056,7 +21071,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -21067,7 +21082,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -21078,10 +21093,10 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" t="s">
         <v>120</v>
-      </c>
-      <c r="E92" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21107,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -21103,7 +21118,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -21114,7 +21129,7 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -21125,7 +21140,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -21136,7 +21151,7 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -21147,7 +21162,7 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -21158,7 +21173,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -21169,10 +21184,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -21183,7 +21198,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -21194,7 +21209,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -21205,7 +21220,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21216,7 +21231,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -21227,7 +21242,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -21238,7 +21253,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21249,7 +21264,7 @@
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -21260,7 +21275,7 @@
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -21271,7 +21286,7 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21282,7 +21297,7 @@
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -21293,7 +21308,7 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -21304,10 +21319,10 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
+        <v>295</v>
+      </c>
+      <c r="F112" t="s">
         <v>296</v>
-      </c>
-      <c r="F112" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -21318,10 +21333,10 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -21332,10 +21347,10 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -21346,7 +21361,7 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -21357,7 +21372,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,7 +21383,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -21379,7 +21394,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -21390,7 +21405,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -21401,7 +21416,7 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -21412,7 +21427,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -21423,7 +21438,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -21434,7 +21449,7 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -21445,7 +21460,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -21456,10 +21471,10 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -21470,7 +21485,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -21481,7 +21496,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -21492,7 +21507,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -21503,10 +21518,10 @@
         <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -21517,7 +21532,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -21528,7 +21543,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -21539,10 +21554,10 @@
         <v>18</v>
       </c>
       <c r="D132" t="s">
+        <v>612</v>
+      </c>
+      <c r="F132" t="s">
         <v>613</v>
-      </c>
-      <c r="F132" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -21553,7 +21568,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -21564,7 +21579,7 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -21575,7 +21590,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -21586,7 +21601,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -21597,7 +21612,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -21608,7 +21623,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -21619,7 +21634,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -21630,10 +21645,10 @@
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F140" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -21644,7 +21659,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -21655,10 +21670,10 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -21669,7 +21684,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -21677,7 +21692,7 @@
         <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -21688,7 +21703,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E145" t="s">
         <v>22</v>
@@ -21702,10 +21717,10 @@
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -21716,10 +21731,10 @@
         <v>18</v>
       </c>
       <c r="D147" t="s">
+        <v>78</v>
+      </c>
+      <c r="E147" t="s">
         <v>79</v>
-      </c>
-      <c r="E147" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -21730,7 +21745,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -21741,10 +21756,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" t="s">
         <v>329</v>
-      </c>
-      <c r="E149" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -21755,7 +21770,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -21766,7 +21781,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -21777,7 +21792,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -21788,7 +21803,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -21799,7 +21814,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -21810,10 +21825,10 @@
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -21836,10 +21851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21878,19 +21893,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
         <v>220</v>
       </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
       <c r="G2" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2" t="s">
         <v>756</v>
-      </c>
-      <c r="H2" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21898,10 +21913,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21909,22 +21924,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" t="s">
         <v>279</v>
       </c>
-      <c r="F4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>280</v>
       </c>
-      <c r="H4" t="s">
-        <v>281</v>
-      </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21932,19 +21947,19 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>139</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -21955,16 +21970,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21972,13 +21987,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" t="s">
         <v>610</v>
       </c>
-      <c r="F7" t="s">
-        <v>611</v>
-      </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21986,10 +22001,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
         <v>318</v>
-      </c>
-      <c r="E8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -22005,19 +22020,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" t="s">
         <v>625</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>626</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>627</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>628</v>
-      </c>
-      <c r="H10" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22025,19 +22040,19 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22045,13 +22060,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -22059,19 +22074,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22079,13 +22094,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
         <v>220</v>
-      </c>
-      <c r="F14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -22093,19 +22108,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22113,19 +22128,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" t="s">
         <v>736</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>737</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>738</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>739</v>
-      </c>
-      <c r="H16" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22133,16 +22148,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" t="s">
         <v>616</v>
       </c>
-      <c r="E17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>617</v>
-      </c>
-      <c r="G17" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22150,7 +22165,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -22158,7 +22173,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -22166,7 +22181,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -22174,7 +22189,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -22182,7 +22197,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -22190,7 +22205,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -22198,7 +22213,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -22206,7 +22221,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -22214,7 +22229,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22222,7 +22237,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -22230,7 +22245,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -22238,7 +22253,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22246,7 +22261,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -22254,7 +22269,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -22262,7 +22277,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -22270,7 +22285,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -22278,7 +22293,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22286,22 +22301,22 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>631</v>
+      </c>
+      <c r="E35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
-        <v>632</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" t="s">
         <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -22312,10 +22327,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
         <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -22323,13 +22338,13 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" t="s">
         <v>220</v>
-      </c>
-      <c r="F37" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22337,13 +22352,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" t="s">
         <v>301</v>
-      </c>
-      <c r="F38" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22351,22 +22366,22 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
         <v>176</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>177</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>178</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>179</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>180</v>
-      </c>
-      <c r="I39" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -22374,7 +22389,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -22382,7 +22397,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -22390,7 +22405,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -22398,7 +22413,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -22409,17 +22424,17 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -22427,16 +22442,16 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" t="s">
         <v>251</v>
       </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>252</v>
-      </c>
-      <c r="G45" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -22444,13 +22459,13 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" t="s">
         <v>220</v>
-      </c>
-      <c r="F46" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22458,13 +22473,13 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
         <v>220</v>
-      </c>
-      <c r="F47" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -22472,19 +22487,19 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" t="s">
         <v>232</v>
       </c>
-      <c r="F48" t="s">
-        <v>417</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>233</v>
-      </c>
-      <c r="H48" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22492,7 +22507,7 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -22509,7 +22524,7 @@
         <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
         <v>27</v>
@@ -22522,6 +22537,12 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
+      <c r="C51" t="s">
+        <v>760</v>
+      </c>
+      <c r="E51" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -22530,6 +22551,12 @@
       <c r="B52" t="s">
         <v>7</v>
       </c>
+      <c r="C52" t="s">
+        <v>760</v>
+      </c>
+      <c r="E52" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -22538,6 +22565,9 @@
       <c r="B53" t="s">
         <v>7</v>
       </c>
+      <c r="C53" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -22546,6 +22576,9 @@
       <c r="B54" t="s">
         <v>7</v>
       </c>
+      <c r="C54" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -22555,13 +22588,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="s">
-        <v>67</v>
-      </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -22569,10 +22602,10 @@
         <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22580,10 +22613,10 @@
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -22591,22 +22624,22 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" t="s">
+        <v>742</v>
+      </c>
+      <c r="G58" t="s">
         <v>208</v>
       </c>
-      <c r="F58" t="s">
-        <v>743</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>287</v>
+      </c>
+      <c r="I58" t="s">
         <v>209</v>
-      </c>
-      <c r="H58" t="s">
-        <v>288</v>
-      </c>
-      <c r="I58" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -22614,13 +22647,13 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" t="s">
         <v>213</v>
-      </c>
-      <c r="F59" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -22628,10 +22661,10 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
+        <v>334</v>
+      </c>
+      <c r="E60" t="s">
         <v>335</v>
-      </c>
-      <c r="E60" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22639,13 +22672,13 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" t="s">
         <v>220</v>
-      </c>
-      <c r="F61" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22656,10 +22689,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -22667,19 +22700,19 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
+        <v>288</v>
+      </c>
+      <c r="G63" t="s">
         <v>289</v>
       </c>
-      <c r="G63" t="s">
-        <v>290</v>
-      </c>
       <c r="H63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22687,37 +22720,37 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
       <c r="C65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" t="s">
         <v>401</v>
       </c>
-      <c r="E65" t="s">
-        <v>220</v>
-      </c>
-      <c r="F65" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>90</v>
       </c>
@@ -22725,18 +22758,18 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>91</v>
       </c>
@@ -22744,13 +22777,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>92</v>
       </c>
@@ -22758,243 +22791,262 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>96</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E78" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>726</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>723</v>
+      </c>
+      <c r="G79" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>105</v>
       </c>
-      <c r="D71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>96</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>731</v>
+      </c>
+      <c r="E81" t="s">
+        <v>732</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="E82" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" t="s">
+        <v>311</v>
+      </c>
+      <c r="H82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E84" t="s">
         <v>219</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F84" t="s">
         <v>220</v>
       </c>
-      <c r="F72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>97</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>98</v>
-      </c>
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>99</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>103</v>
-      </c>
-      <c r="C77" t="s">
-        <v>727</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s">
-        <v>724</v>
-      </c>
-      <c r="G77" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>105</v>
-      </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="C78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>732</v>
-      </c>
-      <c r="D79" t="s">
-        <v>733</v>
-      </c>
-      <c r="E79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>108</v>
-      </c>
-      <c r="C80" t="s">
-        <v>314</v>
-      </c>
-      <c r="E80" t="s">
-        <v>310</v>
-      </c>
-      <c r="F80" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" t="s">
-        <v>312</v>
-      </c>
-      <c r="H80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>110</v>
-      </c>
-      <c r="C82" t="s">
-        <v>502</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>135</v>
+      </c>
+      <c r="C93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>608</v>
+      </c>
+      <c r="E94" t="s">
         <v>220</v>
       </c>
-      <c r="F82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>122</v>
-      </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" t="s">
-        <v>71</v>
-      </c>
-      <c r="F87" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>126</v>
-      </c>
-      <c r="C89" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>135</v>
-      </c>
-      <c r="C91" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>136</v>
-      </c>
-      <c r="C92" t="s">
-        <v>609</v>
-      </c>
-      <c r="E92" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>137</v>
       </c>
-      <c r="C93" t="s">
-        <v>579</v>
+      <c r="C95" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -23024,7 +23076,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23032,7 +23084,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -23040,7 +23092,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -23048,7 +23100,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -23056,7 +23108,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -23072,7 +23124,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23080,7 +23132,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23088,7 +23140,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23096,7 +23148,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23104,7 +23156,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23112,7 +23164,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23120,7 +23172,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23128,7 +23180,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23136,7 +23188,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23144,7 +23196,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23152,7 +23204,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23160,7 +23212,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23168,7 +23220,7 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -23176,7 +23228,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23184,7 +23236,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23192,7 +23244,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23200,7 +23252,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23208,7 +23260,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23216,7 +23268,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -23224,7 +23276,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -23232,7 +23284,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -23240,7 +23292,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -23248,7 +23300,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -23256,7 +23308,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -23264,7 +23316,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -23272,7 +23324,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -23287,8 +23339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23309,16 +23361,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -23329,7 +23381,7 @@
         <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -23340,10 +23392,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -23354,7 +23406,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -23365,7 +23417,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -23376,13 +23428,13 @@
         <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -23393,7 +23445,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -23404,7 +23456,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -23415,7 +23467,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -23426,7 +23478,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -23437,7 +23489,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -23448,7 +23500,7 @@
         <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -23459,13 +23511,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
         <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -23476,7 +23528,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -23487,7 +23539,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -23498,7 +23550,7 @@
         <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -23509,7 +23561,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -23520,7 +23572,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -23531,7 +23583,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23542,13 +23594,13 @@
         <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -23559,7 +23611,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23581,7 +23633,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23592,7 +23644,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23603,7 +23655,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23614,7 +23666,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23625,7 +23677,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23636,7 +23688,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23647,7 +23699,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23661,7 +23713,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23675,7 +23727,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -23697,7 +23749,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23708,7 +23760,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23719,7 +23771,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23730,7 +23782,7 @@
         <v>445</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -23741,7 +23793,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23752,7 +23804,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23763,7 +23815,7 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23774,7 +23826,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23785,7 +23837,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23796,7 +23848,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23807,10 +23859,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23821,7 +23873,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23835,7 +23887,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23846,10 +23898,10 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23860,7 +23912,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23871,7 +23923,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23882,10 +23934,10 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D49" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23896,7 +23948,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23907,7 +23959,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23918,7 +23970,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23929,7 +23981,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23940,7 +23992,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -23951,7 +24003,7 @@
         <v>440</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -23965,7 +24017,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -23976,13 +24028,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E57" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23993,7 +24045,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -24004,7 +24056,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -24015,7 +24067,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -24026,7 +24078,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -24037,7 +24089,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -24048,7 +24100,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -24059,7 +24111,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -24073,7 +24125,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -24084,7 +24136,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -24095,10 +24147,10 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D67" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24109,7 +24161,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -24131,7 +24183,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -24142,10 +24194,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D71" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -24156,7 +24208,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24170,7 +24222,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -24184,7 +24236,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24195,7 +24247,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24206,7 +24258,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24217,7 +24269,7 @@
         <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -24228,7 +24280,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24239,7 +24291,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24250,7 +24302,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24261,7 +24313,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24272,7 +24324,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24283,7 +24335,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24294,7 +24346,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24305,7 +24357,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24316,7 +24368,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24327,7 +24379,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24338,7 +24390,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24349,7 +24401,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24360,7 +24412,7 @@
         <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -24371,7 +24423,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24382,7 +24434,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24393,10 +24445,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24407,7 +24459,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24418,7 +24470,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24429,7 +24481,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24451,7 +24503,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24462,7 +24514,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24473,7 +24525,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24484,7 +24536,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24495,7 +24547,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24506,7 +24558,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24517,7 +24569,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24528,7 +24580,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24539,7 +24591,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24550,7 +24602,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24561,7 +24613,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24583,7 +24635,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24594,7 +24646,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24616,7 +24668,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24627,7 +24679,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24638,7 +24690,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24649,7 +24701,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24660,7 +24712,7 @@
         <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -24671,7 +24723,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24682,7 +24734,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24693,7 +24745,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24737,7 +24789,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24748,7 +24800,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24759,7 +24811,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24770,7 +24822,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24781,7 +24833,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24792,13 +24844,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24820,7 +24872,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24831,7 +24883,7 @@
         <v>379</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -24842,7 +24894,7 @@
         <v>380</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -24853,7 +24905,7 @@
         <v>381</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -24864,7 +24916,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24875,7 +24927,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24897,7 +24949,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24941,7 +24993,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -24952,7 +25004,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -24963,7 +25015,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24974,7 +25026,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24985,7 +25037,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24996,7 +25048,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -25007,7 +25059,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -25018,7 +25070,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -25029,7 +25081,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -25040,10 +25092,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D151" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -25054,7 +25106,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -25065,7 +25117,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -25076,7 +25128,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -25087,7 +25139,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -25098,7 +25150,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -25109,7 +25161,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -25120,7 +25172,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25131,7 +25183,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -25142,7 +25194,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -25153,7 +25205,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -25164,7 +25216,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25175,7 +25227,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -25186,7 +25238,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25197,7 +25249,7 @@
         <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -25208,7 +25260,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25219,7 +25271,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25230,7 +25282,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25241,7 +25293,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25252,7 +25304,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25263,7 +25315,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25274,7 +25326,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25285,7 +25337,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25296,7 +25348,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25307,7 +25359,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25318,7 +25370,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25340,7 +25392,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25351,7 +25403,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25362,7 +25414,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25373,10 +25425,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25387,7 +25439,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25398,7 +25450,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25409,7 +25461,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25420,7 +25472,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25431,7 +25483,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25442,7 +25494,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25464,7 +25516,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25475,7 +25527,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25486,7 +25538,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25497,7 +25549,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25508,7 +25560,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25519,7 +25571,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25530,7 +25582,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25541,7 +25593,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25552,7 +25604,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25563,7 +25615,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25574,7 +25626,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25585,7 +25637,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25596,7 +25648,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25607,7 +25659,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25618,7 +25670,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25629,7 +25681,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25640,7 +25692,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25651,7 +25703,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25662,7 +25714,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25673,7 +25725,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25684,7 +25736,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25695,7 +25747,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25706,7 +25758,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25717,7 +25769,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25728,7 +25780,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25739,7 +25791,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25761,13 +25813,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D216" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E216" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25778,7 +25830,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25789,7 +25841,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25800,7 +25852,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25811,7 +25863,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25822,7 +25874,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25833,7 +25885,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25855,7 +25907,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25866,7 +25918,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25877,7 +25929,7 @@
         <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -25888,7 +25940,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25899,7 +25951,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25910,7 +25962,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25921,7 +25973,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25932,7 +25984,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25943,7 +25995,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -25954,7 +26006,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -25965,7 +26017,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -25976,7 +26028,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -25987,7 +26039,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -25998,7 +26050,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,7 +26061,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -26020,7 +26072,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26127,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -26152,7 +26204,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -26163,7 +26215,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26174,7 +26226,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26185,7 +26237,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26196,7 +26248,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26207,7 +26259,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26218,7 +26270,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26229,7 +26281,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26240,7 +26292,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26251,7 +26303,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26262,7 +26314,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26273,7 +26325,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26295,7 +26347,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26306,7 +26358,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26317,7 +26369,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26328,7 +26380,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26339,7 +26391,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26361,7 +26413,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26372,7 +26424,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26383,7 +26435,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26394,7 +26446,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26405,7 +26457,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26416,7 +26468,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26427,7 +26479,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26438,7 +26490,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26449,7 +26501,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26460,7 +26512,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26471,7 +26523,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26482,7 +26534,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26493,7 +26545,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26504,7 +26556,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26515,7 +26567,7 @@
         <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -26526,7 +26578,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26537,7 +26589,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26548,7 +26600,7 @@
         <v>313</v>
       </c>
       <c r="C287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -26570,7 +26622,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26581,7 +26633,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26603,7 +26655,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26614,7 +26666,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26625,7 +26677,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26636,7 +26688,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26658,7 +26710,7 @@
         <v>71</v>
       </c>
       <c r="C297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -26669,7 +26721,7 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -26713,10 +26765,10 @@
         <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26727,7 +26779,7 @@
         <v>257</v>
       </c>
       <c r="C303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -26738,7 +26790,7 @@
         <v>258</v>
       </c>
       <c r="C304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -26749,7 +26801,7 @@
         <v>259</v>
       </c>
       <c r="C305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -26760,7 +26812,7 @@
         <v>260</v>
       </c>
       <c r="C306" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -26782,7 +26834,7 @@
         <v>262</v>
       </c>
       <c r="C308" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -26804,7 +26856,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26826,7 +26878,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,7 +26889,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26848,7 +26900,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26859,7 +26911,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26870,7 +26922,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26881,7 +26933,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26892,7 +26944,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26903,7 +26955,7 @@
         <v>411</v>
       </c>
       <c r="C319" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -26914,7 +26966,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -26925,7 +26977,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -26936,7 +26988,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -26947,7 +26999,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -26958,7 +27010,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -26969,7 +27021,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -26980,7 +27032,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -26991,7 +27043,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -27002,10 +27054,10 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D328" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -27016,7 +27068,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -27027,7 +27079,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -27060,7 +27112,7 @@
         <v>253</v>
       </c>
       <c r="C333" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -27071,7 +27123,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -27082,7 +27134,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -27093,7 +27145,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -27104,7 +27156,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -27115,7 +27167,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -27126,7 +27178,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -27137,7 +27189,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -27148,7 +27200,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -27159,7 +27211,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27170,7 +27222,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27181,7 +27233,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27192,7 +27244,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27225,7 +27277,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27236,7 +27288,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27247,7 +27299,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27258,7 +27310,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27269,10 +27321,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D352" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27283,10 +27335,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D353" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27297,10 +27349,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D354" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27311,10 +27363,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D355" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27325,10 +27377,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D356" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27339,7 +27391,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27350,7 +27402,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27361,7 +27413,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27372,7 +27424,7 @@
         <v>142</v>
       </c>
       <c r="C360" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -27383,7 +27435,7 @@
         <v>199</v>
       </c>
       <c r="C361" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -27394,7 +27446,7 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -27405,7 +27457,7 @@
         <v>206</v>
       </c>
       <c r="C363" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -27416,7 +27468,7 @@
         <v>99</v>
       </c>
       <c r="C364" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -27449,7 +27501,7 @@
         <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -27460,7 +27512,7 @@
         <v>95</v>
       </c>
       <c r="C368" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -27471,7 +27523,7 @@
         <v>96</v>
       </c>
       <c r="C369" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -27482,7 +27534,7 @@
         <v>97</v>
       </c>
       <c r="C370" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -27493,7 +27545,7 @@
         <v>314</v>
       </c>
       <c r="C371" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -27504,7 +27556,7 @@
         <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -27526,7 +27578,7 @@
         <v>63</v>
       </c>
       <c r="C374" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -27537,7 +27589,7 @@
         <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -27559,7 +27611,7 @@
         <v>281</v>
       </c>
       <c r="C377" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -27570,7 +27622,7 @@
         <v>282</v>
       </c>
       <c r="C378" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -27581,7 +27633,7 @@
         <v>283</v>
       </c>
       <c r="C379" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -27592,7 +27644,7 @@
         <v>284</v>
       </c>
       <c r="C380" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -27603,7 +27655,7 @@
         <v>285</v>
       </c>
       <c r="C381" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -27614,7 +27666,7 @@
         <v>286</v>
       </c>
       <c r="C382" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -27625,7 +27677,7 @@
         <v>441</v>
       </c>
       <c r="C383" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -27636,7 +27688,7 @@
         <v>184</v>
       </c>
       <c r="C384" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -27647,7 +27699,7 @@
         <v>185</v>
       </c>
       <c r="C385" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -27658,7 +27710,7 @@
         <v>186</v>
       </c>
       <c r="C386" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -27669,7 +27721,7 @@
         <v>187</v>
       </c>
       <c r="C387" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -27680,7 +27732,7 @@
         <v>188</v>
       </c>
       <c r="C388" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -27691,7 +27743,7 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -27702,7 +27754,7 @@
         <v>300</v>
       </c>
       <c r="C390" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -27713,7 +27765,7 @@
         <v>303</v>
       </c>
       <c r="C391" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -27724,7 +27776,7 @@
         <v>310</v>
       </c>
       <c r="C392" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -27735,7 +27787,7 @@
         <v>227</v>
       </c>
       <c r="C393" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -27746,7 +27798,7 @@
         <v>228</v>
       </c>
       <c r="C394" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -27757,7 +27809,7 @@
         <v>229</v>
       </c>
       <c r="C395" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -27768,7 +27820,7 @@
         <v>230</v>
       </c>
       <c r="C396" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -27779,7 +27831,7 @@
         <v>249</v>
       </c>
       <c r="C397" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -27790,7 +27842,7 @@
         <v>242</v>
       </c>
       <c r="C398" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -27801,7 +27853,7 @@
         <v>274</v>
       </c>
       <c r="C399" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -27916,10 +27968,10 @@
         <v>241</v>
       </c>
       <c r="C413" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G413" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -27930,13 +27982,13 @@
         <v>265</v>
       </c>
       <c r="C414" t="s">
+        <v>113</v>
+      </c>
+      <c r="G414" t="s">
         <v>114</v>
       </c>
-      <c r="G414" t="s">
+      <c r="H414" t="s">
         <v>115</v>
-      </c>
-      <c r="H414" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -27947,7 +27999,7 @@
         <v>243</v>
       </c>
       <c r="C415" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -27958,7 +28010,7 @@
         <v>244</v>
       </c>
       <c r="C416" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -27969,7 +28021,7 @@
         <v>245</v>
       </c>
       <c r="C417" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -27980,7 +28032,7 @@
         <v>246</v>
       </c>
       <c r="C418" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -27991,7 +28043,7 @@
         <v>247</v>
       </c>
       <c r="C419" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -28002,7 +28054,7 @@
         <v>248</v>
       </c>
       <c r="C420" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -28013,7 +28065,7 @@
         <v>387</v>
       </c>
       <c r="C421" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -28024,7 +28076,7 @@
         <v>395</v>
       </c>
       <c r="C422" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -28040,7 +28092,7 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -28051,7 +28103,7 @@
         <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -28062,7 +28114,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -28073,7 +28125,7 @@
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -28094,7 +28146,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -28105,7 +28157,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -28116,7 +28168,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -28127,7 +28179,7 @@
         <v>143</v>
       </c>
       <c r="C433" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -28160,7 +28212,7 @@
         <v>252</v>
       </c>
       <c r="C436" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -28171,7 +28223,7 @@
         <v>353</v>
       </c>
       <c r="C437" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -28182,7 +28234,7 @@
         <v>75</v>
       </c>
       <c r="C438" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -28209,12 +28261,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>7572</v>
@@ -28231,7 +28283,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B3">
         <v>5235</v>
@@ -28251,13 +28303,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B4">
         <v>3621</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4">
         <v>1230</v>
@@ -28271,7 +28323,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5">
         <v>3412</v>
@@ -28286,7 +28338,7 @@
         <v>1977</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -28312,7 +28364,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -28323,84 +28375,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -28421,7 +28473,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/ManiacMansion.xlsx
+++ b/ManiacMansion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22695" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Room BitVars" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scripts!$A$1:$F$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scripts!$A$1:$F$149</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="768">
   <si>
     <t>Purpose</t>
   </si>
@@ -916,9 +916,6 @@
     <t>Green Tentacle: Storm Dr. Freds Lab</t>
   </si>
   <si>
-    <t>Room: Weird Ed. Handle Object Interactions</t>
-  </si>
-  <si>
     <t>Purple Tentacle: Check Actor X &gt; 20; print "What are you doing here?"</t>
   </si>
   <si>
@@ -2333,6 +2330,15 @@
   </si>
   <si>
     <t>Weird Ed: Walk to Y</t>
+  </si>
+  <si>
+    <t>Weird Ed. Handle Object Interactions</t>
+  </si>
+  <si>
+    <t>Weird Ed: Accepts Prints</t>
+  </si>
+  <si>
+    <t>Give Hamster</t>
   </si>
 </sst>
 </file>
@@ -2906,10 +2912,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" t="s">
         <v>510</v>
-      </c>
-      <c r="D1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2931,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2945,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2959,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -2973,13 +2979,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -3001,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3015,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3029,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3043,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3057,7 +3063,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3071,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3085,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3099,7 +3105,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3113,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -3127,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3141,7 +3147,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -3155,7 +3161,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -3169,7 +3175,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3183,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -3211,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -3225,7 +3231,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -3239,7 +3245,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -3253,7 +3259,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -3267,7 +3273,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -3281,7 +3287,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -3295,7 +3301,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -3309,7 +3315,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3323,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3337,7 +3343,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3351,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3365,7 +3371,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3379,7 +3385,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3393,7 +3399,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3407,7 +3413,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3421,7 +3427,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3435,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3449,7 +3455,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3463,7 +3469,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3477,7 +3483,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3491,7 +3497,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3505,7 +3511,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3519,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3533,7 +3539,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3547,7 +3553,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3561,7 +3567,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3575,7 +3581,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -3589,7 +3595,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3603,7 +3609,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3617,7 +3623,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -3631,7 +3637,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3648,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD156"/>
+  <dimension ref="A1:XFD158"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,7 +3731,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,7 +3764,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,7 +3775,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,7 +3808,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3813,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3846,7 +3852,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3956,7 +3962,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3978,7 +3984,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,7 +3995,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4045,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E33" t="s">
         <v>84</v>
@@ -4053,7 +4059,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,7 +4070,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E35" t="s">
         <v>88</v>
@@ -4133,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,7 +4189,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4257,7 +4263,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4268,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4290,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
@@ -4302,7 +4308,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -20693,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F57" t="s">
         <v>286</v>
@@ -20864,7 +20870,7 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -20886,7 +20892,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -20963,7 +20969,7 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -20974,7 +20980,7 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F82" t="s">
         <v>254</v>
@@ -20988,10 +20994,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="F83" t="s">
         <v>397</v>
-      </c>
-      <c r="F83" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -21051,793 +21057,812 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
+        <v>766</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>91</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>117</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
-      </c>
-      <c r="E92" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>119</v>
+      </c>
+      <c r="E94" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>402</v>
-      </c>
-      <c r="F100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>401</v>
+      </c>
+      <c r="F102" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>577</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>579</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>292</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>295</v>
-      </c>
-      <c r="F112" t="s">
-        <v>296</v>
+        <v>765</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
-      </c>
-      <c r="F113" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>557</v>
-      </c>
-      <c r="E114" t="s">
-        <v>89</v>
+        <v>294</v>
+      </c>
+      <c r="F114" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>359</v>
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>556</v>
+      </c>
+      <c r="E116" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>604</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
-      </c>
-      <c r="E125" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>111</v>
+      </c>
+      <c r="E127" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
-      </c>
-      <c r="E129" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>361</v>
+        <v>105</v>
+      </c>
+      <c r="E131" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
         <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>612</v>
-      </c>
-      <c r="F132" t="s">
-        <v>613</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>611</v>
+      </c>
+      <c r="F134" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
         <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>406</v>
-      </c>
-      <c r="F140" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>73</v>
-      </c>
-      <c r="E142" t="s">
-        <v>79</v>
+        <v>405</v>
+      </c>
+      <c r="F142" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>326</v>
+        <v>73</v>
+      </c>
+      <c r="E144" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>118</v>
-      </c>
-      <c r="E145" t="s">
-        <v>22</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>147</v>
-      </c>
-      <c r="C146" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>503</v>
-      </c>
-      <c r="E146" t="s">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E147" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>327</v>
+        <v>502</v>
+      </c>
+      <c r="E148" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="E151" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>569</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>622</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>623</v>
-      </c>
-      <c r="E155" t="s">
-        <v>333</v>
+        <v>568</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>622</v>
+      </c>
+      <c r="E157" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F147">
+  <autoFilter ref="A1:F149">
     <sortState ref="A2:F108">
       <sortCondition ref="A2:A108"/>
     </sortState>
@@ -21853,8 +21878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21902,10 +21927,10 @@
         <v>220</v>
       </c>
       <c r="G2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H2" t="s">
         <v>755</v>
-      </c>
-      <c r="H2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21913,7 +21938,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
         <v>246</v>
@@ -21970,16 +21995,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21987,13 +22012,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" t="s">
         <v>609</v>
       </c>
-      <c r="F7" t="s">
-        <v>610</v>
-      </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -22001,10 +22026,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
         <v>317</v>
-      </c>
-      <c r="E8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -22020,19 +22045,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" t="s">
         <v>624</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>625</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>626</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>627</v>
-      </c>
-      <c r="H10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22046,13 +22071,13 @@
         <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G11" t="s">
         <v>242</v>
       </c>
       <c r="H11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22080,13 +22105,13 @@
         <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G13" t="s">
         <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -22094,7 +22119,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -22114,13 +22139,13 @@
         <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G15" t="s">
         <v>242</v>
       </c>
       <c r="H15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -22128,19 +22153,19 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>734</v>
+      </c>
+      <c r="E16" t="s">
         <v>735</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>736</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>737</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>738</v>
-      </c>
-      <c r="H16" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22148,16 +22173,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E17" t="s">
         <v>219</v>
       </c>
       <c r="F17" t="s">
+        <v>615</v>
+      </c>
+      <c r="G17" t="s">
         <v>616</v>
-      </c>
-      <c r="G17" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22293,7 +22318,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -22304,7 +22329,7 @@
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E35" t="s">
         <v>122</v>
@@ -22338,7 +22363,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E37" t="s">
         <v>219</v>
@@ -22352,13 +22377,13 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" t="s">
         <v>300</v>
-      </c>
-      <c r="F38" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -22473,7 +22498,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E47" t="s">
         <v>219</v>
@@ -22493,7 +22518,7 @@
         <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
         <v>232</v>
@@ -22507,7 +22532,7 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -22538,10 +22563,10 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>759</v>
+      </c>
+      <c r="E51" t="s">
         <v>760</v>
-      </c>
-      <c r="E51" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -22552,10 +22577,10 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E52" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -22566,7 +22591,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22577,7 +22602,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22602,7 +22627,7 @@
         <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E56" t="s">
         <v>220</v>
@@ -22613,7 +22638,7 @@
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E57" t="s">
         <v>283</v>
@@ -22630,7 +22655,7 @@
         <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G58" t="s">
         <v>208</v>
@@ -22647,7 +22672,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E59" t="s">
         <v>212</v>
@@ -22661,10 +22686,10 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" t="s">
         <v>334</v>
-      </c>
-      <c r="E60" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22672,7 +22697,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
         <v>219</v>
@@ -22700,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E63" t="s">
         <v>290</v>
@@ -22712,7 +22737,7 @@
         <v>289</v>
       </c>
       <c r="H63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -22720,7 +22745,7 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -22728,13 +22753,13 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E65" t="s">
         <v>219</v>
       </c>
       <c r="F65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -22850,7 +22875,7 @@
         <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E78" t="s">
         <v>219</v>
@@ -22864,7 +22889,7 @@
         <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D79" t="s">
         <v>75</v>
@@ -22873,10 +22898,10 @@
         <v>76</v>
       </c>
       <c r="F79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -22898,16 +22923,16 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
+        <v>730</v>
+      </c>
+      <c r="E81" t="s">
         <v>731</v>
-      </c>
-      <c r="E81" t="s">
-        <v>732</v>
       </c>
       <c r="F81" t="s">
         <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -22915,19 +22940,19 @@
         <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" t="s">
         <v>309</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>310</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>311</v>
-      </c>
-      <c r="H82" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -22940,7 +22965,7 @@
         <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E84" t="s">
         <v>219</v>
@@ -22999,7 +23024,7 @@
         <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -23027,7 +23052,7 @@
         <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -23035,7 +23060,7 @@
         <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E94" t="s">
         <v>220</v>
@@ -23046,7 +23071,7 @@
         <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -23076,7 +23101,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23084,7 +23109,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -23092,7 +23117,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -23100,7 +23125,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -23108,7 +23133,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -23124,7 +23149,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -23132,7 +23157,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -23140,7 +23165,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -23148,7 +23173,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -23156,7 +23181,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -23164,7 +23189,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -23172,7 +23197,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -23180,7 +23205,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -23188,7 +23213,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -23196,7 +23221,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -23204,7 +23229,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -23212,7 +23237,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -23228,7 +23253,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -23236,7 +23261,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -23244,7 +23269,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -23252,7 +23277,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -23260,7 +23285,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -23268,7 +23293,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -23276,7 +23301,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -23284,7 +23309,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -23292,7 +23317,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -23300,7 +23325,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -23308,7 +23333,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -23316,7 +23341,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -23324,7 +23349,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -23339,8 +23364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23361,13 +23386,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>52</v>
@@ -23611,7 +23636,7 @@
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23633,7 +23658,7 @@
         <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23644,7 +23669,7 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23655,7 +23680,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23666,7 +23691,7 @@
         <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -23677,7 +23702,7 @@
         <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23688,7 +23713,7 @@
         <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -23699,7 +23724,7 @@
         <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23713,7 +23738,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23727,7 +23752,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -23749,7 +23774,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23760,7 +23785,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23771,7 +23796,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23793,7 +23818,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23826,7 +23851,7 @@
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23837,7 +23862,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23848,7 +23873,7 @@
         <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23859,10 +23884,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23873,7 +23898,7 @@
         <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23887,7 +23912,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23898,10 +23923,10 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23912,7 +23937,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23923,7 +23948,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23934,10 +23959,10 @@
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -23948,7 +23973,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23959,7 +23984,7 @@
         <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23970,7 +23995,7 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23981,7 +24006,7 @@
         <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -23992,7 +24017,7 @@
         <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -24017,7 +24042,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -24028,13 +24053,13 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D57" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E57" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -24045,7 +24070,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -24056,7 +24081,7 @@
         <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -24067,7 +24092,7 @@
         <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -24078,7 +24103,7 @@
         <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -24089,7 +24114,7 @@
         <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -24100,7 +24125,7 @@
         <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -24111,7 +24136,7 @@
         <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -24125,7 +24150,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -24136,7 +24161,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -24147,10 +24172,10 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D67" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24161,7 +24186,7 @@
         <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -24183,7 +24208,7 @@
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -24194,10 +24219,10 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D71" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -24208,7 +24233,7 @@
         <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -24222,7 +24247,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -24236,7 +24261,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24247,7 +24272,7 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -24258,7 +24283,7 @@
         <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -24280,7 +24305,7 @@
         <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24291,7 +24316,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24302,7 +24327,7 @@
         <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -24313,7 +24338,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -24324,7 +24349,7 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24335,7 +24360,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24346,7 +24371,7 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24357,7 +24382,7 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24368,7 +24393,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24379,7 +24404,7 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24390,7 +24415,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24401,7 +24426,7 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24423,7 +24448,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24434,7 +24459,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24445,10 +24470,10 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24459,7 +24484,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24470,7 +24495,7 @@
         <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24481,7 +24506,7 @@
         <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24503,7 +24528,7 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24514,7 +24539,7 @@
         <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24525,7 +24550,7 @@
         <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24536,7 +24561,7 @@
         <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24547,7 +24572,7 @@
         <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24558,7 +24583,7 @@
         <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24569,7 +24594,7 @@
         <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24580,7 +24605,7 @@
         <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24591,7 +24616,7 @@
         <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24602,7 +24627,7 @@
         <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24613,7 +24638,7 @@
         <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24635,7 +24660,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24646,7 +24671,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24668,7 +24693,7 @@
         <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24679,7 +24704,7 @@
         <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24690,7 +24715,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24701,7 +24726,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24723,7 +24748,7 @@
         <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24734,7 +24759,7 @@
         <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24745,7 +24770,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24789,7 +24814,7 @@
         <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24800,7 +24825,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24811,7 +24836,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24822,7 +24847,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24833,7 +24858,7 @@
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -24844,13 +24869,13 @@
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G129" t="s">
         <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -24872,7 +24897,7 @@
         <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -24916,7 +24941,7 @@
         <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -24927,7 +24952,7 @@
         <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -24949,7 +24974,7 @@
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -24993,7 +25018,7 @@
         <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -25004,7 +25029,7 @@
         <v>166</v>
       </c>
       <c r="C143" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -25015,7 +25040,7 @@
         <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -25026,7 +25051,7 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -25037,7 +25062,7 @@
         <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -25048,7 +25073,7 @@
         <v>364</v>
       </c>
       <c r="C147" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -25059,7 +25084,7 @@
         <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -25070,7 +25095,7 @@
         <v>366</v>
       </c>
       <c r="C149" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -25081,7 +25106,7 @@
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -25092,10 +25117,10 @@
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -25106,7 +25131,7 @@
         <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -25117,7 +25142,7 @@
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -25128,7 +25153,7 @@
         <v>415</v>
       </c>
       <c r="C154" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -25139,7 +25164,7 @@
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -25150,7 +25175,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -25161,7 +25186,7 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -25172,7 +25197,7 @@
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -25183,7 +25208,7 @@
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -25194,7 +25219,7 @@
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -25205,7 +25230,7 @@
         <v>116</v>
       </c>
       <c r="C161" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -25216,7 +25241,7 @@
         <v>117</v>
       </c>
       <c r="C162" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -25238,7 +25263,7 @@
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -25260,7 +25285,7 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -25271,7 +25296,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -25282,7 +25307,7 @@
         <v>118</v>
       </c>
       <c r="C168" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -25293,7 +25318,7 @@
         <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -25304,7 +25329,7 @@
         <v>153</v>
       </c>
       <c r="C170" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25315,7 +25340,7 @@
         <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -25326,7 +25351,7 @@
         <v>332</v>
       </c>
       <c r="C172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -25337,7 +25362,7 @@
         <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -25348,7 +25373,7 @@
         <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -25359,7 +25384,7 @@
         <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25370,7 +25395,7 @@
         <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -25392,7 +25417,7 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -25403,7 +25428,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -25414,7 +25439,7 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -25425,10 +25450,10 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D181" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -25439,7 +25464,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -25450,7 +25475,7 @@
         <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -25461,7 +25486,7 @@
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -25472,7 +25497,7 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -25483,7 +25508,7 @@
         <v>157</v>
       </c>
       <c r="C186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -25494,7 +25519,7 @@
         <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -25516,7 +25541,7 @@
         <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -25527,7 +25552,7 @@
         <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -25538,7 +25563,7 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -25549,7 +25574,7 @@
         <v>172</v>
       </c>
       <c r="C192" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25560,7 +25585,7 @@
         <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25571,7 +25596,7 @@
         <v>174</v>
       </c>
       <c r="C194" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25582,7 +25607,7 @@
         <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25593,7 +25618,7 @@
         <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25604,7 +25629,7 @@
         <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25615,7 +25640,7 @@
         <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25626,7 +25651,7 @@
         <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25637,7 +25662,7 @@
         <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25648,7 +25673,7 @@
         <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -25659,7 +25684,7 @@
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -25670,7 +25695,7 @@
         <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -25681,7 +25706,7 @@
         <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -25692,7 +25717,7 @@
         <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -25703,7 +25728,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -25714,7 +25739,7 @@
         <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -25725,7 +25750,7 @@
         <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -25736,7 +25761,7 @@
         <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -25747,7 +25772,7 @@
         <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -25758,7 +25783,7 @@
         <v>433</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -25769,7 +25794,7 @@
         <v>434</v>
       </c>
       <c r="C212" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -25780,7 +25805,7 @@
         <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -25791,7 +25816,7 @@
         <v>436</v>
       </c>
       <c r="C214" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -25813,13 +25838,13 @@
         <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D216" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E216" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -25830,7 +25855,7 @@
         <v>74</v>
       </c>
       <c r="C217" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -25841,7 +25866,7 @@
         <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -25852,7 +25877,7 @@
         <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -25863,7 +25888,7 @@
         <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -25874,7 +25899,7 @@
         <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -25885,7 +25910,7 @@
         <v>297</v>
       </c>
       <c r="C222" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -25907,7 +25932,7 @@
         <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -25918,7 +25943,7 @@
         <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -25940,7 +25965,7 @@
         <v>437</v>
       </c>
       <c r="C227" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -25951,7 +25976,7 @@
         <v>438</v>
       </c>
       <c r="C228" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -25962,7 +25987,7 @@
         <v>195</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -25973,7 +25998,7 @@
         <v>131</v>
       </c>
       <c r="C230" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -25984,7 +26009,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -25995,7 +26020,7 @@
         <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -26006,7 +26031,7 @@
         <v>439</v>
       </c>
       <c r="C233" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -26017,7 +26042,7 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -26028,7 +26053,7 @@
         <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -26039,7 +26064,7 @@
         <v>394</v>
       </c>
       <c r="C236" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -26050,7 +26075,7 @@
         <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -26061,7 +26086,7 @@
         <v>397</v>
       </c>
       <c r="C238" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -26072,7 +26097,7 @@
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -26127,7 +26152,7 @@
         <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -26204,7 +26229,7 @@
         <v>177</v>
       </c>
       <c r="C251" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -26215,7 +26240,7 @@
         <v>176</v>
       </c>
       <c r="C252" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -26226,7 +26251,7 @@
         <v>372</v>
       </c>
       <c r="C253" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -26237,7 +26262,7 @@
         <v>376</v>
       </c>
       <c r="C254" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -26248,7 +26273,7 @@
         <v>412</v>
       </c>
       <c r="C255" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -26259,7 +26284,7 @@
         <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -26270,7 +26295,7 @@
         <v>370</v>
       </c>
       <c r="C257" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -26281,7 +26306,7 @@
         <v>371</v>
       </c>
       <c r="C258" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -26292,7 +26317,7 @@
         <v>373</v>
       </c>
       <c r="C259" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -26303,7 +26328,7 @@
         <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -26314,7 +26339,7 @@
         <v>375</v>
       </c>
       <c r="C261" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -26325,7 +26350,7 @@
         <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -26347,7 +26372,7 @@
         <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -26358,7 +26383,7 @@
         <v>383</v>
       </c>
       <c r="C265" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -26369,7 +26394,7 @@
         <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -26380,7 +26405,7 @@
         <v>385</v>
       </c>
       <c r="C267" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -26391,7 +26416,7 @@
         <v>413</v>
       </c>
       <c r="C268" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -26413,7 +26438,7 @@
         <v>312</v>
       </c>
       <c r="C270" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -26424,7 +26449,7 @@
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -26435,7 +26460,7 @@
         <v>311</v>
       </c>
       <c r="C272" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -26446,7 +26471,7 @@
         <v>85</v>
       </c>
       <c r="C273" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -26457,7 +26482,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -26468,7 +26493,7 @@
         <v>82</v>
       </c>
       <c r="C275" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -26479,7 +26504,7 @@
         <v>83</v>
       </c>
       <c r="C276" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -26490,7 +26515,7 @@
         <v>84</v>
       </c>
       <c r="C277" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -26501,7 +26526,7 @@
         <v>212</v>
       </c>
       <c r="C278" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -26512,7 +26537,7 @@
         <v>239</v>
       </c>
       <c r="C279" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -26523,7 +26548,7 @@
         <v>86</v>
       </c>
       <c r="C280" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -26534,7 +26559,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -26545,7 +26570,7 @@
         <v>88</v>
       </c>
       <c r="C282" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -26556,7 +26581,7 @@
         <v>89</v>
       </c>
       <c r="C283" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -26578,7 +26603,7 @@
         <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -26589,7 +26614,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -26622,7 +26647,7 @@
         <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -26633,7 +26658,7 @@
         <v>78</v>
       </c>
       <c r="C290" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -26655,7 +26680,7 @@
         <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -26666,7 +26691,7 @@
         <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -26677,7 +26702,7 @@
         <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -26688,7 +26713,7 @@
         <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -26768,7 +26793,7 @@
         <v>30</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -26856,7 +26881,7 @@
         <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -26878,7 +26903,7 @@
         <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -26889,7 +26914,7 @@
         <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -26900,7 +26925,7 @@
         <v>67</v>
       </c>
       <c r="C314" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -26911,7 +26936,7 @@
         <v>290</v>
       </c>
       <c r="C315" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -26922,7 +26947,7 @@
         <v>291</v>
       </c>
       <c r="C316" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -26933,7 +26958,7 @@
         <v>410</v>
       </c>
       <c r="C317" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -26944,7 +26969,7 @@
         <v>409</v>
       </c>
       <c r="C318" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -26966,7 +26991,7 @@
         <v>232</v>
       </c>
       <c r="C320" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -26977,7 +27002,7 @@
         <v>402</v>
       </c>
       <c r="C321" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -26988,7 +27013,7 @@
         <v>407</v>
       </c>
       <c r="C322" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -26999,7 +27024,7 @@
         <v>404</v>
       </c>
       <c r="C323" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -27010,7 +27035,7 @@
         <v>405</v>
       </c>
       <c r="C324" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -27021,7 +27046,7 @@
         <v>403</v>
       </c>
       <c r="C325" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -27032,7 +27057,7 @@
         <v>406</v>
       </c>
       <c r="C326" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -27043,7 +27068,7 @@
         <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -27054,10 +27079,10 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D328" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -27068,7 +27093,7 @@
         <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -27079,7 +27104,7 @@
         <v>267</v>
       </c>
       <c r="C330" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -27123,7 +27148,7 @@
         <v>137</v>
       </c>
       <c r="C334" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -27134,7 +27159,7 @@
         <v>418</v>
       </c>
       <c r="C335" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -27145,7 +27170,7 @@
         <v>419</v>
       </c>
       <c r="C336" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -27156,7 +27181,7 @@
         <v>420</v>
       </c>
       <c r="C337" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -27167,7 +27192,7 @@
         <v>421</v>
       </c>
       <c r="C338" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -27178,7 +27203,7 @@
         <v>417</v>
       </c>
       <c r="C339" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -27189,7 +27214,7 @@
         <v>145</v>
       </c>
       <c r="C340" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -27200,7 +27225,7 @@
         <v>349</v>
       </c>
       <c r="C341" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -27211,7 +27236,7 @@
         <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -27222,7 +27247,7 @@
         <v>352</v>
       </c>
       <c r="C343" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -27233,7 +27258,7 @@
         <v>350</v>
       </c>
       <c r="C344" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -27244,7 +27269,7 @@
         <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -27277,7 +27302,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -27288,7 +27313,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -27299,7 +27324,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -27310,7 +27335,7 @@
         <v>203</v>
       </c>
       <c r="C351" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -27321,10 +27346,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D352" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -27335,10 +27360,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D353" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -27349,10 +27374,10 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D354" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -27363,10 +27388,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D355" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -27377,10 +27402,10 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D356" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -27391,7 +27416,7 @@
         <v>73</v>
       </c>
       <c r="C357" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -27402,7 +27427,7 @@
         <v>140</v>
       </c>
       <c r="C358" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -27413,7 +27438,7 @@
         <v>141</v>
       </c>
       <c r="C359" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -27424,7 +27449,7 @@
         <v>142</v>
       </c>
       <c r="C3